--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_3/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_3/forecast_point_GW2.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0740016320894807</v>
+        <v>2.094951143524728</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9819675372673264</v>
+        <v>1.9844003977883777</v>
       </c>
       <c r="D2" t="n">
-        <v>2.188034372202379</v>
+        <v>2.19207020683511</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1663112954160377</v>
+        <v>2.138413563074514</v>
       </c>
       <c r="F2" t="n">
-        <v>2.275332933624622</v>
+        <v>2.2414535158714592</v>
       </c>
       <c r="G2" t="n">
-        <v>2.237142376505206</v>
+        <v>2.196102217120385</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9899734993390026</v>
+        <v>1.9877040601209583</v>
       </c>
       <c r="I2" t="n">
-        <v>2.0740016320894807</v>
+        <v>1.9910187426717543</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9819675372673264</v>
+        <v>2.217859268610733</v>
       </c>
       <c r="K2" t="n">
-        <v>2.188034372202379</v>
+        <v>2.133319070472618</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1663112954160377</v>
+        <v>2.169498920900481</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2.03505704120828</v>
+        <v>1.994758881976433</v>
       </c>
       <c r="C10" t="n">
-        <v>2.2121204154648733</v>
+        <v>2.181369097594238</v>
       </c>
       <c r="D10" t="n">
-        <v>2.3483522723719257</v>
+        <v>2.301738941807234</v>
       </c>
       <c r="E10" t="n">
-        <v>2.2502605206918807</v>
+        <v>2.1957223077518204</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1237146700490204</v>
+        <v>2.083316434135705</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4445411237030665</v>
+        <v>2.3492717249277555</v>
       </c>
       <c r="H10" t="n">
-        <v>2.416024339151751</v>
+        <v>2.301738941807234</v>
       </c>
       <c r="I10" t="n">
-        <v>2.03505704120828</v>
+        <v>2.273855976063463</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2121204154648733</v>
+        <v>2.0380761211254663</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3483522723719257</v>
+        <v>2.0787022234000063</v>
       </c>
       <c r="L10" t="n">
-        <v>2.2502605206918807</v>
+        <v>2.2975129841013335</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.267957756576597</v>
+        <v>2.245278179010831</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4681338655037774</v>
+        <v>2.4765514664924595</v>
       </c>
       <c r="D13" t="n">
-        <v>2.196908718391945</v>
+        <v>2.1928639755442987</v>
       </c>
       <c r="E13" t="n">
-        <v>2.2987347845407555</v>
+        <v>2.305511098125337</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3648669365999746</v>
+        <v>2.3470397704470756</v>
       </c>
       <c r="G13" t="n">
-        <v>2.300362150554846</v>
+        <v>2.245278179010831</v>
       </c>
       <c r="H13" t="n">
-        <v>2.515345661327947</v>
+        <v>2.4841669406167735</v>
       </c>
       <c r="I13" t="n">
-        <v>2.267957756576597</v>
+        <v>2.472004555648754</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4681338655037774</v>
+        <v>2.1462568776712825</v>
       </c>
       <c r="K13" t="n">
-        <v>2.196908718391945</v>
+        <v>2.4465508445936632</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2987347845407555</v>
+        <v>2.501086962770782</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.9779942345823076</v>
+        <v>3.0381557342708385</v>
       </c>
       <c r="C19" t="n">
-        <v>2.8941426666243344</v>
+        <v>2.978778097494859</v>
       </c>
       <c r="D19" t="n">
-        <v>3.111827130184136</v>
+        <v>3.209188042937354</v>
       </c>
       <c r="E19" t="n">
-        <v>2.9779850481786894</v>
+        <v>3.0499773524532023</v>
       </c>
       <c r="F19" t="n">
-        <v>3.0029355615688016</v>
+        <v>3.0499773524532023</v>
       </c>
       <c r="G19" t="n">
-        <v>3.051827020247921</v>
+        <v>3.1317975210580222</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1721589317032457</v>
+        <v>3.188209911844519</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9779942345823076</v>
+        <v>3.4336102988215926</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8941426666243344</v>
+        <v>3.044899697233878</v>
       </c>
       <c r="K19" t="n">
-        <v>3.111827130184136</v>
+        <v>2.9154671927236318</v>
       </c>
       <c r="L19" t="n">
-        <v>2.9779850481786894</v>
+        <v>3.3579616015381375</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5.736256805699298</v>
+        <v>5.680018993878718</v>
       </c>
       <c r="C26" t="n">
-        <v>5.710043359278566</v>
+        <v>5.620229320955213</v>
       </c>
       <c r="D26" t="n">
-        <v>5.552249749923945</v>
+        <v>5.582208090171689</v>
       </c>
       <c r="E26" t="n">
-        <v>4.874617038497718</v>
+        <v>4.822885414918464</v>
       </c>
       <c r="F26" t="n">
-        <v>5.623825717694486</v>
+        <v>5.554877815923936</v>
       </c>
       <c r="G26" t="n">
-        <v>5.46687193719939</v>
+        <v>5.405997828858413</v>
       </c>
       <c r="H26" t="n">
-        <v>5.003039651179256</v>
+        <v>5.028626233418107</v>
       </c>
       <c r="I26" t="n">
-        <v>5.736256805699298</v>
+        <v>5.418907672644174</v>
       </c>
       <c r="J26" t="n">
-        <v>5.710043359278566</v>
+        <v>5.180747917344284</v>
       </c>
       <c r="K26" t="n">
-        <v>5.552249749923945</v>
+        <v>5.04539763839235</v>
       </c>
       <c r="L26" t="n">
-        <v>4.874617038497718</v>
+        <v>5.565095246194834</v>
       </c>
     </row>
     <row r="27">
@@ -1246,34 +1246,34 @@
         <v>3.8237277504494687</v>
       </c>
       <c r="C31" t="n">
-        <v>3.8805733461134513</v>
+        <v>3.8999482375301837</v>
       </c>
       <c r="D31" t="n">
-        <v>3.944508588778741</v>
+        <v>3.902108874299125</v>
       </c>
       <c r="E31" t="n">
-        <v>4.341450511565804</v>
+        <v>4.3611805075416195</v>
       </c>
       <c r="F31" t="n">
-        <v>4.265248283914246</v>
+        <v>4.266085111383323</v>
       </c>
       <c r="G31" t="n">
-        <v>4.280795969871932</v>
+        <v>4.318397617660278</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9879323862390055</v>
+        <v>4.020152122150174</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8237277504494687</v>
+        <v>4.318397617660278</v>
       </c>
       <c r="J31" t="n">
-        <v>3.8805733461134513</v>
+        <v>4.310469105282952</v>
       </c>
       <c r="K31" t="n">
-        <v>3.944508588778741</v>
+        <v>4.407576044309852</v>
       </c>
       <c r="L31" t="n">
-        <v>4.341450511565804</v>
+        <v>4.331676826980474</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>3.136514631229322</v>
+        <v>3.1685198825683965</v>
       </c>
       <c r="C32" t="n">
-        <v>2.900316360143622</v>
+        <v>2.8779107772419636</v>
       </c>
       <c r="D32" t="n">
-        <v>2.882488699690028</v>
+        <v>2.9551150046222645</v>
       </c>
       <c r="E32" t="n">
-        <v>2.8504280700083853</v>
+        <v>2.8683443147777203</v>
       </c>
       <c r="F32" t="n">
-        <v>3.096792437525539</v>
+        <v>3.184109157475905</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7957666736714635</v>
+        <v>2.873119581442736</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1130409899393263</v>
+        <v>3.1685198825683965</v>
       </c>
       <c r="I32" t="n">
-        <v>3.136514631229322</v>
+        <v>3.174347937124212</v>
       </c>
       <c r="J32" t="n">
-        <v>2.900316360143622</v>
+        <v>3.239900806436982</v>
       </c>
       <c r="K32" t="n">
-        <v>2.882488699690028</v>
+        <v>3.174347937124212</v>
       </c>
       <c r="L32" t="n">
-        <v>2.8504280700083853</v>
+        <v>2.7509891009144636</v>
       </c>
     </row>
     <row r="33">
@@ -1360,34 +1360,34 @@
         <v>1.2467245206520077</v>
       </c>
       <c r="C34" t="n">
-        <v>1.3227508264414414</v>
+        <v>1.3161794177783546</v>
       </c>
       <c r="D34" t="n">
-        <v>1.3627096676274868</v>
+        <v>1.3434852297707196</v>
       </c>
       <c r="E34" t="n">
-        <v>1.2767832180451517</v>
+        <v>1.2508825791070626</v>
       </c>
       <c r="F34" t="n">
-        <v>1.375845148036581</v>
+        <v>1.3771956914027466</v>
       </c>
       <c r="G34" t="n">
-        <v>1.3890466685222078</v>
+        <v>1.3839715624814883</v>
       </c>
       <c r="H34" t="n">
-        <v>1.38347554467622</v>
+        <v>1.3797288526013514</v>
       </c>
       <c r="I34" t="n">
-        <v>1.2467245206520077</v>
+        <v>1.2844393605844888</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3227508264414414</v>
+        <v>1.3797288526013514</v>
       </c>
       <c r="K34" t="n">
-        <v>1.3627096676274868</v>
+        <v>1.3933979939804482</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2767832180451517</v>
+        <v>1.3402845506869303</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.604194073786007</v>
       </c>
       <c r="C38" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.267615640652592</v>
       </c>
       <c r="D38" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.560533336215842</v>
       </c>
       <c r="E38" t="n">
-        <v>3.095129216350594</v>
+        <v>3.254950463175309</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1469103328770327</v>
+        <v>3.256753760353497</v>
       </c>
       <c r="G38" t="n">
-        <v>3.4425784669507182</v>
+        <v>3.597576828257843</v>
       </c>
       <c r="H38" t="n">
-        <v>3.39900966319365</v>
+        <v>3.509516738907919</v>
       </c>
       <c r="I38" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.19133579584733</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.501155771052435</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.4157121085660975</v>
       </c>
       <c r="L38" t="n">
-        <v>3.095129216350594</v>
+        <v>3.2621756574346312</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1.2297238663914372</v>
+        <v>1.2421453195873102</v>
       </c>
       <c r="C45" t="n">
-        <v>1.2434239224594803</v>
+        <v>1.2391860696786914</v>
       </c>
       <c r="D45" t="n">
-        <v>1.161953917876808</v>
+        <v>1.156527743335377</v>
       </c>
       <c r="E45" t="n">
-        <v>1.2770665097018004</v>
+        <v>1.273312980540677</v>
       </c>
       <c r="F45" t="n">
-        <v>1.1170200392608398</v>
+        <v>1.1055225346040414</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1478702229988957</v>
+        <v>1.152683329765309</v>
       </c>
       <c r="H45" t="n">
-        <v>1.214463596617367</v>
+        <v>1.216899201645518</v>
       </c>
       <c r="I45" t="n">
-        <v>1.2297238663914372</v>
+        <v>1.1520450774598339</v>
       </c>
       <c r="J45" t="n">
-        <v>1.2434239224594803</v>
+        <v>1.2089444571315382</v>
       </c>
       <c r="K45" t="n">
-        <v>1.161953917876808</v>
+        <v>1.2795777435317988</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2770665097018004</v>
+        <v>1.3019983794945824</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7429027331715101</v>
+        <v>0.750561524235134</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6879650793079313</v>
+        <v>0.6987161479356809</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7105225587331284</v>
+        <v>0.7281194851982854</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6905298593273423</v>
+        <v>0.7138891368873245</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7831986717206766</v>
+        <v>0.8062438931865357</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7733159999553073</v>
+        <v>0.7964771596762649</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7250447903570965</v>
+        <v>0.7309526350753831</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7429027331715101</v>
+        <v>0.7640812264923083</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6879650793079313</v>
+        <v>0.8087231186698424</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7105225587331284</v>
+        <v>0.7297357324450786</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6905298593273423</v>
+        <v>0.8062438931865357</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1801652641257394</v>
+        <v>1.192458652293716</v>
       </c>
       <c r="C59" t="n">
-        <v>1.3169381871811412</v>
+        <v>1.3128721636583545</v>
       </c>
       <c r="D59" t="n">
-        <v>1.314560153446524</v>
+        <v>1.3283177188356061</v>
       </c>
       <c r="E59" t="n">
-        <v>1.3368650003505271</v>
+        <v>1.3424487582313753</v>
       </c>
       <c r="F59" t="n">
-        <v>1.291514642460339</v>
+        <v>1.2807361883739106</v>
       </c>
       <c r="G59" t="n">
-        <v>1.2526780779896585</v>
+        <v>1.2547057261130603</v>
       </c>
       <c r="H59" t="n">
-        <v>1.172407275382884</v>
+        <v>1.1878367193228583</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1801652641257394</v>
+        <v>1.192458652293716</v>
       </c>
       <c r="J59" t="n">
-        <v>1.3169381871811412</v>
+        <v>1.2993537950818608</v>
       </c>
       <c r="K59" t="n">
-        <v>1.314560153446524</v>
+        <v>1.3128721636583545</v>
       </c>
       <c r="L59" t="n">
-        <v>1.3368650003505271</v>
+        <v>1.246503844249747</v>
       </c>
     </row>
     <row r="60">
@@ -2421,37 +2421,37 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>3.5564057175086528</v>
+        <v>3.5919697746837396</v>
       </c>
       <c r="C62" t="n">
-        <v>3.6677424141395436</v>
+        <v>3.6528874925198584</v>
       </c>
       <c r="D62" t="n">
-        <v>3.717509920308484</v>
+        <v>3.6976807150862707</v>
       </c>
       <c r="E62" t="n">
-        <v>3.2911089123014667</v>
+        <v>3.3467909248984866</v>
       </c>
       <c r="F62" t="n">
-        <v>3.3095606817961043</v>
+        <v>3.3393783214347152</v>
       </c>
       <c r="G62" t="n">
-        <v>3.2378312206802637</v>
+        <v>3.204525637186284</v>
       </c>
       <c r="H62" t="n">
-        <v>3.344208227796571</v>
+        <v>3.3523720119941425</v>
       </c>
       <c r="I62" t="n">
-        <v>3.5564057175086528</v>
+        <v>3.6908918295058726</v>
       </c>
       <c r="J62" t="n">
-        <v>3.6677424141395436</v>
+        <v>3.527367889376652</v>
       </c>
       <c r="K62" t="n">
-        <v>3.717509920308484</v>
+        <v>3.6976807150862707</v>
       </c>
       <c r="L62" t="n">
-        <v>3.2911089123014667</v>
+        <v>3.34122839306317</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1.7149306873403558</v>
+        <v>1.7324299800683187</v>
       </c>
       <c r="C65" t="n">
-        <v>1.5780364149057249</v>
+        <v>1.6157480521812153</v>
       </c>
       <c r="D65" t="n">
-        <v>1.740344919700036</v>
+        <v>1.7714584403898839</v>
       </c>
       <c r="E65" t="n">
-        <v>1.6699773440822427</v>
+        <v>1.7409536214586963</v>
       </c>
       <c r="F65" t="n">
-        <v>1.722872233146591</v>
+        <v>1.7356165456611419</v>
       </c>
       <c r="G65" t="n">
-        <v>1.6260485861331373</v>
+        <v>1.6448521720737983</v>
       </c>
       <c r="H65" t="n">
-        <v>1.656982279961765</v>
+        <v>1.71459151288788</v>
       </c>
       <c r="I65" t="n">
-        <v>1.7149306873403558</v>
+        <v>1.5709159745521308</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5780364149057249</v>
+        <v>1.573535623962767</v>
       </c>
       <c r="K65" t="n">
-        <v>1.740344919700036</v>
+        <v>1.536802707245714</v>
       </c>
       <c r="L65" t="n">
-        <v>1.6699773440822427</v>
+        <v>1.5674366483989408</v>
       </c>
     </row>
     <row r="66">
@@ -2690,34 +2690,34 @@
         <v>2.617853490837711</v>
       </c>
       <c r="C69" t="n">
-        <v>2.5016858983544132</v>
+        <v>2.479709144829863</v>
       </c>
       <c r="D69" t="n">
-        <v>2.7617882892272343</v>
+        <v>2.7392135901888643</v>
       </c>
       <c r="E69" t="n">
-        <v>2.7343689123487462</v>
+        <v>2.672164183041841</v>
       </c>
       <c r="F69" t="n">
-        <v>2.871978580415235</v>
+        <v>2.800923033079458</v>
       </c>
       <c r="G69" t="n">
-        <v>2.823773563733847</v>
+        <v>2.744251995133545</v>
       </c>
       <c r="H69" t="n">
-        <v>2.5117912114036303</v>
+        <v>2.4838374052891234</v>
       </c>
       <c r="I69" t="n">
-        <v>2.617853490837711</v>
+        <v>2.487979436626437</v>
       </c>
       <c r="J69" t="n">
-        <v>2.5016858983544132</v>
+        <v>2.7714396330745976</v>
       </c>
       <c r="K69" t="n">
-        <v>2.7617882892272343</v>
+        <v>2.6657980989051566</v>
       </c>
       <c r="L69" t="n">
-        <v>2.7343689123487462</v>
+        <v>2.711008483898295</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>4.228426138104426</v>
+        <v>4.18656053277666</v>
       </c>
       <c r="C76" t="n">
-        <v>4.040789172866981</v>
+        <v>3.965635385954319</v>
       </c>
       <c r="D76" t="n">
-        <v>4.460913428101047</v>
+        <v>4.380643740250126</v>
       </c>
       <c r="E76" t="n">
-        <v>4.416624925979244</v>
+        <v>4.27341604294382</v>
       </c>
       <c r="F76" t="n">
-        <v>4.6388956983294625</v>
+        <v>4.479331584703454</v>
       </c>
       <c r="G76" t="n">
-        <v>4.56103368151426</v>
+        <v>4.388701329173025</v>
       </c>
       <c r="H76" t="n">
-        <v>4.057111541548265</v>
+        <v>3.972237440793618</v>
       </c>
       <c r="I76" t="n">
-        <v>4.228426138104426</v>
+        <v>3.978861518490484</v>
       </c>
       <c r="J76" t="n">
-        <v>4.040789172866981</v>
+        <v>4.43218072646619</v>
       </c>
       <c r="K76" t="n">
-        <v>4.460913428101047</v>
+        <v>4.263235184202773</v>
       </c>
       <c r="L76" t="n">
-        <v>4.416624925979244</v>
+        <v>4.335537172891735</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2.3328382940094072</v>
+        <v>2.3564023171812196</v>
       </c>
       <c r="C79" t="n">
-        <v>2.2293182883190976</v>
+        <v>2.2320547713091208</v>
       </c>
       <c r="D79" t="n">
-        <v>2.4611023892686705</v>
+        <v>2.4656418985119877</v>
       </c>
       <c r="E79" t="n">
-        <v>2.4366682593206486</v>
+        <v>2.405288873058178</v>
       </c>
       <c r="F79" t="n">
-        <v>2.5592958641178525</v>
+        <v>2.521188274475459</v>
       </c>
       <c r="G79" t="n">
-        <v>2.5163391023008574</v>
+        <v>2.470177106126965</v>
       </c>
       <c r="H79" t="n">
-        <v>2.2383233993142984</v>
+        <v>2.235770732705041</v>
       </c>
       <c r="I79" t="n">
-        <v>2.3328382940094072</v>
+        <v>2.239499089649096</v>
       </c>
       <c r="J79" t="n">
-        <v>2.2293182883190976</v>
+        <v>2.4946494508426653</v>
       </c>
       <c r="K79" t="n">
-        <v>2.4611023892686705</v>
+        <v>2.399558584688888</v>
       </c>
       <c r="L79" t="n">
-        <v>2.4366682593206486</v>
+        <v>2.440253702399388</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7049844879064104</v>
+        <v>2.6782024632736734</v>
       </c>
       <c r="C90" t="n">
-        <v>2.9403359650601324</v>
+        <v>2.928749004840867</v>
       </c>
       <c r="D90" t="n">
-        <v>3.1214144568322695</v>
+        <v>3.0903599224249008</v>
       </c>
       <c r="E90" t="n">
-        <v>2.99103154307937</v>
+        <v>2.948019906776561</v>
       </c>
       <c r="F90" t="n">
-        <v>2.8228276273824315</v>
+        <v>2.797101572573266</v>
       </c>
       <c r="G90" t="n">
-        <v>3.249268047906939</v>
+        <v>3.1541783708548694</v>
       </c>
       <c r="H90" t="n">
-        <v>3.2113637246893063</v>
+        <v>3.0903599224249008</v>
       </c>
       <c r="I90" t="n">
-        <v>2.7049844879064104</v>
+        <v>3.052923704838367</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9403359650601324</v>
+        <v>2.736361039550426</v>
       </c>
       <c r="K90" t="n">
-        <v>3.1214144568322695</v>
+        <v>2.7909064425903543</v>
       </c>
       <c r="L90" t="n">
-        <v>2.99103154307937</v>
+        <v>3.084686068587279</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.2565426250414116</v>
+        <v>2.234200618852883</v>
       </c>
       <c r="C93" t="n">
-        <v>2.4528767047517457</v>
+        <v>2.4432106716390503</v>
       </c>
       <c r="D93" t="n">
-        <v>2.6039353658970787</v>
+        <v>2.57802916166399</v>
       </c>
       <c r="E93" t="n">
-        <v>2.495167791156482</v>
+        <v>2.459286775526264</v>
       </c>
       <c r="F93" t="n">
-        <v>2.3548493134846256</v>
+        <v>2.3333882147202614</v>
       </c>
       <c r="G93" t="n">
-        <v>2.7105929379883347</v>
+        <v>2.6312675627676096</v>
       </c>
       <c r="H93" t="n">
-        <v>2.6789725270779066</v>
+        <v>2.57802916166399</v>
       </c>
       <c r="I93" t="n">
-        <v>2.2565426250414116</v>
+        <v>2.54679925218317</v>
       </c>
       <c r="J93" t="n">
-        <v>2.4528767047517457</v>
+        <v>2.282717461358619</v>
       </c>
       <c r="K93" t="n">
-        <v>2.6039353658970787</v>
+        <v>2.3282201352223515</v>
       </c>
       <c r="L93" t="n">
-        <v>2.495167791156482</v>
+        <v>2.5732959393146233</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.2565426250414116</v>
+        <v>2.234200618852883</v>
       </c>
       <c r="C94" t="n">
-        <v>2.4528767047517457</v>
+        <v>2.4432106716390503</v>
       </c>
       <c r="D94" t="n">
-        <v>2.6039353658970787</v>
+        <v>2.57802916166399</v>
       </c>
       <c r="E94" t="n">
-        <v>2.495167791156482</v>
+        <v>2.459286775526264</v>
       </c>
       <c r="F94" t="n">
-        <v>2.3548493134846256</v>
+        <v>2.3333882147202614</v>
       </c>
       <c r="G94" t="n">
-        <v>2.7105929379883347</v>
+        <v>2.6312675627676096</v>
       </c>
       <c r="H94" t="n">
-        <v>2.6789725270779066</v>
+        <v>2.57802916166399</v>
       </c>
       <c r="I94" t="n">
-        <v>2.2565426250414116</v>
+        <v>2.54679925218317</v>
       </c>
       <c r="J94" t="n">
-        <v>2.4528767047517457</v>
+        <v>2.282717461358619</v>
       </c>
       <c r="K94" t="n">
-        <v>2.6039353658970787</v>
+        <v>2.3282201352223515</v>
       </c>
       <c r="L94" t="n">
-        <v>2.495167791156482</v>
+        <v>2.5732959393146233</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2.022419690651336</v>
+        <v>2.0023957333181546</v>
       </c>
       <c r="C97" t="n">
-        <v>2.198383532125326</v>
+        <v>2.1897203783782326</v>
       </c>
       <c r="D97" t="n">
-        <v>2.3337694128764785</v>
+        <v>2.3105510535290357</v>
       </c>
       <c r="E97" t="n">
-        <v>2.236286793927175</v>
+        <v>2.204128539203407</v>
       </c>
       <c r="F97" t="n">
-        <v>2.1105267710246274</v>
+        <v>2.0912923243793897</v>
       </c>
       <c r="G97" t="n">
-        <v>2.429360948157343</v>
+        <v>2.358265813931037</v>
       </c>
       <c r="H97" t="n">
-        <v>2.4010212478822095</v>
+        <v>2.3105510535290357</v>
       </c>
       <c r="I97" t="n">
-        <v>2.022419690651336</v>
+        <v>2.282561339011629</v>
       </c>
       <c r="J97" t="n">
-        <v>2.198383532125326</v>
+        <v>2.0458788107140577</v>
       </c>
       <c r="K97" t="n">
-        <v>2.3337694128764785</v>
+        <v>2.08666044832997</v>
       </c>
       <c r="L97" t="n">
-        <v>2.236286793927175</v>
+        <v>2.3063089169199764</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.267957756576597</v>
+        <v>2.245278179010831</v>
       </c>
       <c r="C100" t="n">
-        <v>2.4681338655037774</v>
+        <v>2.4765514664924595</v>
       </c>
       <c r="D100" t="n">
-        <v>2.196908718391945</v>
+        <v>2.1928639755442987</v>
       </c>
       <c r="E100" t="n">
-        <v>2.2987347845407555</v>
+        <v>2.305511098125337</v>
       </c>
       <c r="F100" t="n">
-        <v>2.3648669365999746</v>
+        <v>2.3470397704470756</v>
       </c>
       <c r="G100" t="n">
-        <v>2.300362150554846</v>
+        <v>2.245278179010831</v>
       </c>
       <c r="H100" t="n">
-        <v>2.515345661327947</v>
+        <v>2.4841669406167735</v>
       </c>
       <c r="I100" t="n">
-        <v>2.267957756576597</v>
+        <v>2.472004555648754</v>
       </c>
       <c r="J100" t="n">
-        <v>2.4681338655037774</v>
+        <v>2.1462568776712825</v>
       </c>
       <c r="K100" t="n">
-        <v>2.196908718391945</v>
+        <v>2.4465508445936632</v>
       </c>
       <c r="L100" t="n">
-        <v>2.2987347845407555</v>
+        <v>2.501086962770782</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.9870081954711138</v>
+        <v>2.0072837893024515</v>
       </c>
       <c r="C101" t="n">
-        <v>2.1623869333785684</v>
+        <v>2.214042633351378</v>
       </c>
       <c r="D101" t="n">
-        <v>1.9247605540660366</v>
+        <v>1.960425372411801</v>
       </c>
       <c r="E101" t="n">
-        <v>2.013972633684168</v>
+        <v>2.0611321557325653</v>
       </c>
       <c r="F101" t="n">
-        <v>2.071912481877885</v>
+        <v>2.098258883067262</v>
       </c>
       <c r="G101" t="n">
-        <v>2.015398405217016</v>
+        <v>2.0072837893024515</v>
       </c>
       <c r="H101" t="n">
-        <v>2.203750236973401</v>
+        <v>2.2208508845072874</v>
       </c>
       <c r="I101" t="n">
-        <v>1.9870081954711138</v>
+        <v>2.2099776847346355</v>
       </c>
       <c r="J101" t="n">
-        <v>2.1623869333785684</v>
+        <v>1.9187585211051383</v>
       </c>
       <c r="K101" t="n">
-        <v>1.9247605540660366</v>
+        <v>2.1872220092659584</v>
       </c>
       <c r="L101" t="n">
-        <v>2.013972633684168</v>
+        <v>2.2359774227250786</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.267957756576597</v>
+        <v>2.245278179010831</v>
       </c>
       <c r="C104" t="n">
-        <v>2.4681338655037774</v>
+        <v>2.4765514664924595</v>
       </c>
       <c r="D104" t="n">
-        <v>2.196908718391945</v>
+        <v>2.1928639755442987</v>
       </c>
       <c r="E104" t="n">
-        <v>2.2987347845407555</v>
+        <v>2.305511098125337</v>
       </c>
       <c r="F104" t="n">
-        <v>2.3648669365999746</v>
+        <v>2.3470397704470756</v>
       </c>
       <c r="G104" t="n">
-        <v>2.300362150554846</v>
+        <v>2.245278179010831</v>
       </c>
       <c r="H104" t="n">
-        <v>2.515345661327947</v>
+        <v>2.4841669406167735</v>
       </c>
       <c r="I104" t="n">
-        <v>2.267957756576597</v>
+        <v>2.472004555648754</v>
       </c>
       <c r="J104" t="n">
-        <v>2.4681338655037774</v>
+        <v>2.1462568776712825</v>
       </c>
       <c r="K104" t="n">
-        <v>2.196908718391945</v>
+        <v>2.4465508445936632</v>
       </c>
       <c r="L104" t="n">
-        <v>2.2987347845407555</v>
+        <v>2.501086962770782</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>3.3563626610659814</v>
+        <v>3.424167967350143</v>
       </c>
       <c r="C106" t="n">
-        <v>3.2618573499079657</v>
+        <v>3.3572461175147987</v>
       </c>
       <c r="D106" t="n">
-        <v>3.5071996668613674</v>
+        <v>3.616930749755166</v>
       </c>
       <c r="E106" t="n">
-        <v>3.356352307485798</v>
+        <v>3.4374915787258473</v>
       </c>
       <c r="F106" t="n">
-        <v>3.3844729030680605</v>
+        <v>3.4374915787258473</v>
       </c>
       <c r="G106" t="n">
-        <v>3.4395762556703073</v>
+        <v>3.5297073915163177</v>
       </c>
       <c r="H106" t="n">
-        <v>3.575196912639107</v>
+        <v>3.593287246661274</v>
       </c>
       <c r="I106" t="n">
-        <v>3.3563626610659814</v>
+        <v>3.8698669278091518</v>
       </c>
       <c r="J106" t="n">
-        <v>3.2618573499079657</v>
+        <v>3.431768783098509</v>
       </c>
       <c r="K106" t="n">
-        <v>3.5071996668613674</v>
+        <v>3.2858912591524705</v>
       </c>
       <c r="L106" t="n">
-        <v>3.356352307485798</v>
+        <v>3.784606701321143</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>2.985787299308845</v>
+        <v>3.046106234648418</v>
       </c>
       <c r="C107" t="n">
-        <v>2.9017163015450884</v>
+        <v>2.9865732134995167</v>
       </c>
       <c r="D107" t="n">
-        <v>3.11997042004068</v>
+        <v>3.217586114984579</v>
       </c>
       <c r="E107" t="n">
-        <v>2.9857780888654766</v>
+        <v>3.057958788631327</v>
       </c>
       <c r="F107" t="n">
-        <v>3.010793894848687</v>
+        <v>3.057958788631327</v>
       </c>
       <c r="G107" t="n">
-        <v>3.0598132967916443</v>
+        <v>3.139993071105969</v>
       </c>
       <c r="H107" t="n">
-        <v>3.1804601028709243</v>
+        <v>3.196553086561336</v>
       </c>
       <c r="I107" t="n">
-        <v>2.985787299308845</v>
+        <v>3.442595657823867</v>
       </c>
       <c r="J107" t="n">
-        <v>2.9017163015450884</v>
+        <v>3.0528678457785605</v>
       </c>
       <c r="K107" t="n">
-        <v>3.11997042004068</v>
+        <v>2.9230966314502584</v>
       </c>
       <c r="L107" t="n">
-        <v>2.9857780888654766</v>
+        <v>3.3667489966936173</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.985787299308845</v>
+        <v>3.046106234648418</v>
       </c>
       <c r="C111" t="n">
-        <v>2.9017163015450884</v>
+        <v>2.9865732134995167</v>
       </c>
       <c r="D111" t="n">
-        <v>3.11997042004068</v>
+        <v>3.217586114984579</v>
       </c>
       <c r="E111" t="n">
-        <v>2.9857780888654766</v>
+        <v>3.057958788631327</v>
       </c>
       <c r="F111" t="n">
-        <v>3.010793894848687</v>
+        <v>3.057958788631327</v>
       </c>
       <c r="G111" t="n">
-        <v>3.0598132967916443</v>
+        <v>3.139993071105969</v>
       </c>
       <c r="H111" t="n">
-        <v>3.1804601028709243</v>
+        <v>3.196553086561336</v>
       </c>
       <c r="I111" t="n">
-        <v>2.985787299308845</v>
+        <v>3.442595657823867</v>
       </c>
       <c r="J111" t="n">
-        <v>2.9017163015450884</v>
+        <v>3.0528678457785605</v>
       </c>
       <c r="K111" t="n">
-        <v>3.11997042004068</v>
+        <v>2.9230966314502584</v>
       </c>
       <c r="L111" t="n">
-        <v>2.9857780888654766</v>
+        <v>3.3667489966936173</v>
       </c>
     </row>
     <row r="112">
@@ -4476,34 +4476,34 @@
         <v>2.067837826553305</v>
       </c>
       <c r="C116" t="n">
-        <v>2.115126586234645</v>
+        <v>2.0931945122398252</v>
       </c>
       <c r="D116" t="n">
-        <v>2.014181047321446</v>
+        <v>1.98373053577863</v>
       </c>
       <c r="E116" t="n">
-        <v>2.09836172699035</v>
+        <v>2.03335333681559</v>
       </c>
       <c r="F116" t="n">
-        <v>1.9315195868622899</v>
+        <v>1.897721095783902</v>
       </c>
       <c r="G116" t="n">
-        <v>1.883458831758906</v>
+        <v>1.8903655873264607</v>
       </c>
       <c r="H116" t="n">
-        <v>2.08429604835678</v>
+        <v>2.0893514389362986</v>
       </c>
       <c r="I116" t="n">
-        <v>2.067837826553305</v>
+        <v>1.8140277635987458</v>
       </c>
       <c r="J116" t="n">
-        <v>2.115126586234645</v>
+        <v>2.038209105310245</v>
       </c>
       <c r="K116" t="n">
-        <v>2.014181047321446</v>
+        <v>1.9486302803708209</v>
       </c>
       <c r="L116" t="n">
-        <v>2.09836172699035</v>
+        <v>1.9967833021845744</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>2.1159273533638348</v>
+        <v>2.0947680798301964</v>
       </c>
       <c r="C117" t="n">
-        <v>2.164315857931999</v>
+        <v>2.1204549954598164</v>
       </c>
       <c r="D117" t="n">
-        <v>2.0610227349202628</v>
+        <v>2.009565427217224</v>
       </c>
       <c r="E117" t="n">
-        <v>2.1471611160103725</v>
+        <v>2.0598344852203123</v>
       </c>
       <c r="F117" t="n">
-        <v>1.9764389039212593</v>
+        <v>1.922435852957846</v>
       </c>
       <c r="G117" t="n">
-        <v>1.9272604504464659</v>
+        <v>1.9149845508635945</v>
       </c>
       <c r="H117" t="n">
-        <v>2.1327683267005826</v>
+        <v>2.116561872323514</v>
       </c>
       <c r="I117" t="n">
-        <v>2.1159273533638348</v>
+        <v>1.8376525500775072</v>
       </c>
       <c r="J117" t="n">
-        <v>2.164315857931999</v>
+        <v>2.064753492269624</v>
       </c>
       <c r="K117" t="n">
-        <v>2.0610227349202628</v>
+        <v>1.9740080475823225</v>
       </c>
       <c r="L117" t="n">
-        <v>2.1471611160103725</v>
+        <v>2.0227881848578595</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.280322938393959</v>
+        <v>2.3033565034282413</v>
       </c>
       <c r="C126" t="n">
-        <v>2.5058458814828173</v>
+        <v>2.552674306655454</v>
       </c>
       <c r="D126" t="n">
-        <v>2.4967655719489645</v>
+        <v>2.5401765122810516</v>
       </c>
       <c r="E126" t="n">
-        <v>2.502036384216347</v>
+        <v>2.514020848924856</v>
       </c>
       <c r="F126" t="n">
-        <v>2.473420148418258</v>
+        <v>2.472095546538037</v>
       </c>
       <c r="G126" t="n">
-        <v>2.205377835549185</v>
+        <v>2.253337904485785</v>
       </c>
       <c r="H126" t="n">
-        <v>2.5238215181695978</v>
+        <v>2.570060942438415</v>
       </c>
       <c r="I126" t="n">
-        <v>2.280322938393959</v>
+        <v>2.4276346955333334</v>
       </c>
       <c r="J126" t="n">
-        <v>2.5058458814828173</v>
+        <v>2.2982549393393135</v>
       </c>
       <c r="K126" t="n">
-        <v>2.4967655719489645</v>
+        <v>2.3071975659703745</v>
       </c>
       <c r="L126" t="n">
-        <v>2.502036384216347</v>
+        <v>2.4779990574789617</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>2.093773635603891</v>
+        <v>2.1149228642463545</v>
       </c>
       <c r="C127" t="n">
-        <v>2.141655513481245</v>
+        <v>2.1408569262077406</v>
       </c>
       <c r="D127" t="n">
-        <v>2.039443867435203</v>
+        <v>2.0289004353957956</v>
       </c>
       <c r="E127" t="n">
-        <v>2.1246803813700272</v>
+        <v>2.079653156500595</v>
       </c>
       <c r="F127" t="n">
-        <v>1.9557456274826162</v>
+        <v>1.9409325450467378</v>
       </c>
       <c r="G127" t="n">
-        <v>1.9070820714481431</v>
+        <v>1.9334095503442328</v>
       </c>
       <c r="H127" t="n">
-        <v>2.11043828428114</v>
+        <v>2.1369263454367373</v>
       </c>
       <c r="I127" t="n">
-        <v>2.093773635603891</v>
+        <v>1.8553335006969274</v>
       </c>
       <c r="J127" t="n">
-        <v>2.141655513481245</v>
+        <v>2.0846194917136183</v>
       </c>
       <c r="K127" t="n">
-        <v>2.039443867435203</v>
+        <v>1.9930009408853404</v>
       </c>
       <c r="L127" t="n">
-        <v>2.1246803813700272</v>
+        <v>2.04225041563076</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>6.179076924164633</v>
+        <v>6.118497738633608</v>
       </c>
       <c r="C128" t="n">
-        <v>6.150839886080801</v>
+        <v>6.054092500029592</v>
       </c>
       <c r="D128" t="n">
-        <v>5.9808651301781275</v>
+        <v>6.013136155549096</v>
       </c>
       <c r="E128" t="n">
-        <v>5.250921406934645</v>
+        <v>5.1951962725245995</v>
       </c>
       <c r="F128" t="n">
-        <v>6.057966526743267</v>
+        <v>5.983696074211106</v>
       </c>
       <c r="G128" t="n">
-        <v>5.888896431719964</v>
+        <v>5.823323042858589</v>
       </c>
       <c r="H128" t="n">
-        <v>5.389257822029068</v>
+        <v>5.416819604082347</v>
       </c>
       <c r="I128" t="n">
-        <v>6.179076924164633</v>
+        <v>5.837229484033243</v>
       </c>
       <c r="J128" t="n">
-        <v>6.150839886080801</v>
+        <v>5.580684580608397</v>
       </c>
       <c r="K128" t="n">
-        <v>5.9808651301781275</v>
+        <v>5.434885706241372</v>
       </c>
       <c r="L128" t="n">
-        <v>5.250921406934645</v>
+        <v>5.994702256421853</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>6.179076924164633</v>
+        <v>6.118497738633608</v>
       </c>
       <c r="C132" t="n">
-        <v>6.150839886080801</v>
+        <v>6.054092500029592</v>
       </c>
       <c r="D132" t="n">
-        <v>5.9808651301781275</v>
+        <v>6.013136155549096</v>
       </c>
       <c r="E132" t="n">
-        <v>5.250921406934645</v>
+        <v>5.1951962725245995</v>
       </c>
       <c r="F132" t="n">
-        <v>6.057966526743267</v>
+        <v>5.983696074211106</v>
       </c>
       <c r="G132" t="n">
-        <v>5.888896431719964</v>
+        <v>5.823323042858589</v>
       </c>
       <c r="H132" t="n">
-        <v>5.389257822029068</v>
+        <v>5.416819604082347</v>
       </c>
       <c r="I132" t="n">
-        <v>6.179076924164633</v>
+        <v>5.837229484033243</v>
       </c>
       <c r="J132" t="n">
-        <v>6.150839886080801</v>
+        <v>5.580684580608397</v>
       </c>
       <c r="K132" t="n">
-        <v>5.9808651301781275</v>
+        <v>5.434885706241372</v>
       </c>
       <c r="L132" t="n">
-        <v>5.250921406934645</v>
+        <v>5.994702256421853</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.015537641727926</v>
+        <v>1.9953822653106468</v>
       </c>
       <c r="C133" t="n">
-        <v>2.19343446601727</v>
+        <v>2.200915201316037</v>
       </c>
       <c r="D133" t="n">
-        <v>1.9523962492330813</v>
+        <v>1.9488016798735326</v>
       </c>
       <c r="E133" t="n">
-        <v>2.042889235108532</v>
+        <v>2.048911355697979</v>
       </c>
       <c r="F133" t="n">
-        <v>2.1016609831348405</v>
+        <v>2.085817952407168</v>
       </c>
       <c r="G133" t="n">
-        <v>2.0443354778565537</v>
+        <v>1.9953822653106468</v>
       </c>
       <c r="H133" t="n">
-        <v>2.2353916635626176</v>
+        <v>2.20768308520305</v>
       </c>
       <c r="I133" t="n">
-        <v>2.015537641727926</v>
+        <v>2.1968743544649465</v>
       </c>
       <c r="J133" t="n">
-        <v>2.19343446601727</v>
+        <v>1.9073818783528205</v>
       </c>
       <c r="K133" t="n">
-        <v>1.9523962492330813</v>
+        <v>2.1742536012324694</v>
       </c>
       <c r="L133" t="n">
-        <v>2.042889235108532</v>
+        <v>2.222719935625587</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5.736256805699298</v>
+        <v>5.680018993878718</v>
       </c>
       <c r="C138" t="n">
-        <v>5.710043359278566</v>
+        <v>5.620229320955213</v>
       </c>
       <c r="D138" t="n">
-        <v>5.552249749923945</v>
+        <v>5.582208090171689</v>
       </c>
       <c r="E138" t="n">
-        <v>4.874617038497718</v>
+        <v>4.822885414918464</v>
       </c>
       <c r="F138" t="n">
-        <v>5.623825717694486</v>
+        <v>5.554877815923936</v>
       </c>
       <c r="G138" t="n">
-        <v>5.46687193719939</v>
+        <v>5.405997828858413</v>
       </c>
       <c r="H138" t="n">
-        <v>5.003039651179256</v>
+        <v>5.028626233418107</v>
       </c>
       <c r="I138" t="n">
-        <v>5.736256805699298</v>
+        <v>5.418907672644174</v>
       </c>
       <c r="J138" t="n">
-        <v>5.710043359278566</v>
+        <v>5.180747917344284</v>
       </c>
       <c r="K138" t="n">
-        <v>5.552249749923945</v>
+        <v>5.04539763839235</v>
       </c>
       <c r="L138" t="n">
-        <v>4.874617038497718</v>
+        <v>5.565095246194834</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.5888885980410725</v>
+        <v>3.6251399980212855</v>
       </c>
       <c r="C153" t="n">
-        <v>3.318623867395056</v>
+        <v>3.2926507820615396</v>
       </c>
       <c r="D153" t="n">
-        <v>3.2982249549542826</v>
+        <v>3.3809810255397</v>
       </c>
       <c r="E153" t="n">
-        <v>3.2615402772662443</v>
+        <v>3.281705682455415</v>
       </c>
       <c r="F153" t="n">
-        <v>3.543437342480753</v>
+        <v>3.6429758665346146</v>
       </c>
       <c r="G153" t="n">
-        <v>3.1989951642566186</v>
+        <v>3.2871691199057533</v>
       </c>
       <c r="H153" t="n">
-        <v>3.5620293949175235</v>
+        <v>3.6251399980212855</v>
       </c>
       <c r="I153" t="n">
-        <v>3.5888885980410725</v>
+        <v>3.6318079421920544</v>
       </c>
       <c r="J153" t="n">
-        <v>3.318623867395056</v>
+        <v>3.7068077330528126</v>
       </c>
       <c r="K153" t="n">
-        <v>3.2982249549542826</v>
+        <v>3.6318079421920544</v>
       </c>
       <c r="L153" t="n">
-        <v>3.2615402772662443</v>
+        <v>3.1474382340822706</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>3.980609586388407</v>
+        <v>4.020817764028694</v>
       </c>
       <c r="C154" t="n">
-        <v>3.6808459274496954</v>
+        <v>3.652037924737348</v>
       </c>
       <c r="D154" t="n">
-        <v>3.6582205089683413</v>
+        <v>3.75000926164346</v>
       </c>
       <c r="E154" t="n">
-        <v>3.6175317621071876</v>
+        <v>3.6398981864239612</v>
       </c>
       <c r="F154" t="n">
-        <v>3.930197404830152</v>
+        <v>4.040600386767241</v>
       </c>
       <c r="G154" t="n">
-        <v>3.5481599580997414</v>
+        <v>3.6459579486303784</v>
       </c>
       <c r="H154" t="n">
-        <v>3.950818747660587</v>
+        <v>4.020817764028694</v>
       </c>
       <c r="I154" t="n">
-        <v>3.980609586388407</v>
+        <v>4.028213502782512</v>
       </c>
       <c r="J154" t="n">
-        <v>3.6808459274496954</v>
+        <v>4.11139939120502</v>
       </c>
       <c r="K154" t="n">
-        <v>3.6582205089683413</v>
+        <v>4.028213502782512</v>
       </c>
       <c r="L154" t="n">
-        <v>3.6175317621071876</v>
+        <v>3.490975678094843</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>6.111100890877129</v>
+        <v>6.296285766358254</v>
       </c>
       <c r="C156" t="n">
-        <v>5.650898521507112</v>
+        <v>5.718805415514526</v>
       </c>
       <c r="D156" t="n">
-        <v>5.616163586558789</v>
+        <v>5.8722208574158214</v>
       </c>
       <c r="E156" t="n">
-        <v>5.553697516527171</v>
+        <v>5.699795535923935</v>
       </c>
       <c r="F156" t="n">
-        <v>6.033707235220678</v>
+        <v>6.327263804478825</v>
       </c>
       <c r="G156" t="n">
-        <v>5.447196719583581</v>
+        <v>5.709284649026528</v>
       </c>
       <c r="H156" t="n">
-        <v>6.065365478463892</v>
+        <v>6.296285766358254</v>
       </c>
       <c r="I156" t="n">
-        <v>6.111100890877129</v>
+        <v>6.307866914119775</v>
       </c>
       <c r="J156" t="n">
-        <v>5.650898521507112</v>
+        <v>6.438129501477556</v>
       </c>
       <c r="K156" t="n">
-        <v>5.616163586558789</v>
+        <v>6.307866914119775</v>
       </c>
       <c r="L156" t="n">
-        <v>5.553697516527171</v>
+        <v>5.4665945493307255</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>3.136514631229322</v>
+        <v>3.1685198825683965</v>
       </c>
       <c r="C157" t="n">
-        <v>2.900316360143622</v>
+        <v>2.8779107772419636</v>
       </c>
       <c r="D157" t="n">
-        <v>2.882488699690028</v>
+        <v>2.9551150046222645</v>
       </c>
       <c r="E157" t="n">
-        <v>2.8504280700083853</v>
+        <v>2.8683443147777203</v>
       </c>
       <c r="F157" t="n">
-        <v>3.096792437525539</v>
+        <v>3.184109157475905</v>
       </c>
       <c r="G157" t="n">
-        <v>2.7957666736714635</v>
+        <v>2.873119581442736</v>
       </c>
       <c r="H157" t="n">
-        <v>3.1130409899393263</v>
+        <v>3.1685198825683965</v>
       </c>
       <c r="I157" t="n">
-        <v>3.136514631229322</v>
+        <v>3.174347937124212</v>
       </c>
       <c r="J157" t="n">
-        <v>2.900316360143622</v>
+        <v>3.239900806436982</v>
       </c>
       <c r="K157" t="n">
-        <v>2.882488699690028</v>
+        <v>3.174347937124212</v>
       </c>
       <c r="L157" t="n">
-        <v>2.8504280700083853</v>
+        <v>2.7509891009144636</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>1.2467245206520077</v>
       </c>
       <c r="C159" t="n">
-        <v>1.3227508264414414</v>
+        <v>1.3161794177783546</v>
       </c>
       <c r="D159" t="n">
-        <v>1.3627096676274868</v>
+        <v>1.3434852297707196</v>
       </c>
       <c r="E159" t="n">
-        <v>1.2767832180451517</v>
+        <v>1.2508825791070626</v>
       </c>
       <c r="F159" t="n">
-        <v>1.375845148036581</v>
+        <v>1.3771956914027466</v>
       </c>
       <c r="G159" t="n">
-        <v>1.3890466685222078</v>
+        <v>1.3839715624814883</v>
       </c>
       <c r="H159" t="n">
-        <v>1.38347554467622</v>
+        <v>1.3797288526013514</v>
       </c>
       <c r="I159" t="n">
-        <v>1.2467245206520077</v>
+        <v>1.2844393605844888</v>
       </c>
       <c r="J159" t="n">
-        <v>1.3227508264414414</v>
+        <v>1.3797288526013514</v>
       </c>
       <c r="K159" t="n">
-        <v>1.3627096676274868</v>
+        <v>1.3933979939804482</v>
       </c>
       <c r="L159" t="n">
-        <v>1.2767832180451517</v>
+        <v>1.3402845506869303</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>2.749899999739861</v>
+        <v>2.77739899973726</v>
       </c>
       <c r="C165" t="n">
-        <v>2.9175912056216946</v>
+        <v>2.9321276174953237</v>
       </c>
       <c r="D165" t="n">
-        <v>3.005728412796898</v>
+        <v>2.992958325208481</v>
       </c>
       <c r="E165" t="n">
-        <v>2.816200461938486</v>
+        <v>2.786662142639012</v>
       </c>
       <c r="F165" t="n">
-        <v>3.034701339032968</v>
+        <v>3.068057034559692</v>
       </c>
       <c r="G165" t="n">
-        <v>3.063819929851255</v>
+        <v>3.0831520272743647</v>
       </c>
       <c r="H165" t="n">
-        <v>3.051531703215093</v>
+        <v>3.073700301586716</v>
       </c>
       <c r="I165" t="n">
-        <v>2.749899999739861</v>
+        <v>2.8614184899843456</v>
       </c>
       <c r="J165" t="n">
-        <v>2.9175912056216946</v>
+        <v>3.073700301586716</v>
       </c>
       <c r="K165" t="n">
-        <v>3.005728412796898</v>
+        <v>3.104151823927607</v>
       </c>
       <c r="L165" t="n">
-        <v>2.816200461938486</v>
+        <v>2.985827990689074</v>
       </c>
     </row>
     <row r="166">
@@ -6414,34 +6414,34 @@
         <v>3.8237277504494687</v>
       </c>
       <c r="C167" t="n">
-        <v>3.8805733461134513</v>
+        <v>3.8999482375301837</v>
       </c>
       <c r="D167" t="n">
-        <v>3.944508588778741</v>
+        <v>3.902108874299125</v>
       </c>
       <c r="E167" t="n">
-        <v>4.341450511565804</v>
+        <v>4.3611805075416195</v>
       </c>
       <c r="F167" t="n">
-        <v>4.265248283914246</v>
+        <v>4.266085111383323</v>
       </c>
       <c r="G167" t="n">
-        <v>4.280795969871932</v>
+        <v>4.318397617660278</v>
       </c>
       <c r="H167" t="n">
-        <v>3.9879323862390055</v>
+        <v>4.020152122150174</v>
       </c>
       <c r="I167" t="n">
-        <v>3.8237277504494687</v>
+        <v>4.318397617660278</v>
       </c>
       <c r="J167" t="n">
-        <v>3.8805733461134513</v>
+        <v>4.310469105282952</v>
       </c>
       <c r="K167" t="n">
-        <v>3.944508588778741</v>
+        <v>4.407576044309852</v>
       </c>
       <c r="L167" t="n">
-        <v>4.341450511565804</v>
+        <v>4.331676826980474</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1.2297238663914372</v>
+        <v>1.2421453195873102</v>
       </c>
       <c r="C168" t="n">
-        <v>1.2434239224594803</v>
+        <v>1.2391860696786914</v>
       </c>
       <c r="D168" t="n">
-        <v>1.161953917876808</v>
+        <v>1.156527743335377</v>
       </c>
       <c r="E168" t="n">
-        <v>1.2770665097018004</v>
+        <v>1.273312980540677</v>
       </c>
       <c r="F168" t="n">
-        <v>1.1170200392608398</v>
+        <v>1.1055225346040414</v>
       </c>
       <c r="G168" t="n">
-        <v>1.1478702229988957</v>
+        <v>1.152683329765309</v>
       </c>
       <c r="H168" t="n">
-        <v>1.214463596617367</v>
+        <v>1.216899201645518</v>
       </c>
       <c r="I168" t="n">
-        <v>1.2297238663914372</v>
+        <v>1.1520450774598339</v>
       </c>
       <c r="J168" t="n">
-        <v>1.2434239224594803</v>
+        <v>1.2089444571315382</v>
       </c>
       <c r="K168" t="n">
-        <v>1.161953917876808</v>
+        <v>1.2795777435317988</v>
       </c>
       <c r="L168" t="n">
-        <v>1.2770665097018004</v>
+        <v>1.3019983794945824</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.2455207330373965</v>
+        <v>2.223065525707023</v>
       </c>
       <c r="C171" t="n">
-        <v>2.176480743623892</v>
+        <v>2.143433327378375</v>
       </c>
       <c r="D171" t="n">
-        <v>1.997885012207989</v>
+        <v>1.9923700452512099</v>
       </c>
       <c r="E171" t="n">
-        <v>2.105493792009282</v>
+        <v>2.086142256870577</v>
       </c>
       <c r="F171" t="n">
-        <v>2.0281371664035452</v>
+        <v>2.0492299218974006</v>
       </c>
       <c r="G171" t="n">
-        <v>2.174831996924807</v>
+        <v>2.1972159260569835</v>
       </c>
       <c r="H171" t="n">
-        <v>2.2651567650861684</v>
+        <v>2.246715158680887</v>
       </c>
       <c r="I171" t="n">
-        <v>2.2455207330373965</v>
+        <v>2.2080263373442537</v>
       </c>
       <c r="J171" t="n">
-        <v>2.176480743623892</v>
+        <v>2.1972159260569835</v>
       </c>
       <c r="K171" t="n">
-        <v>1.997885012207989</v>
+        <v>1.9890586278208615</v>
       </c>
       <c r="L171" t="n">
-        <v>2.105493792009282</v>
+        <v>1.9956925087689035</v>
       </c>
     </row>
     <row r="172">
@@ -6718,34 +6718,34 @@
         <v>2.685191571335519</v>
       </c>
       <c r="C175" t="n">
-        <v>2.602633617213459</v>
+        <v>2.5890056041265685</v>
       </c>
       <c r="D175" t="n">
-        <v>2.389069010296735</v>
+        <v>2.4065396141611424</v>
       </c>
       <c r="E175" t="n">
-        <v>2.517747487530514</v>
+        <v>2.519804989991994</v>
       </c>
       <c r="F175" t="n">
-        <v>2.425244507706091</v>
+        <v>2.4752193987882602</v>
       </c>
       <c r="G175" t="n">
-        <v>2.600662047468181</v>
+        <v>2.6539684129085503</v>
       </c>
       <c r="H175" t="n">
-        <v>2.708672319910267</v>
+        <v>2.713757438779486</v>
       </c>
       <c r="I175" t="n">
-        <v>2.685191571335519</v>
+        <v>2.6670260690754852</v>
       </c>
       <c r="J175" t="n">
-        <v>2.602633617213459</v>
+        <v>2.6539684129085503</v>
       </c>
       <c r="K175" t="n">
-        <v>2.389069010296735</v>
+        <v>2.4025398264489395</v>
       </c>
       <c r="L175" t="n">
-        <v>2.517747487530514</v>
+        <v>2.4105527441973984</v>
       </c>
     </row>
     <row r="176">
@@ -6756,34 +6756,34 @@
         <v>2.2486802194606623</v>
       </c>
       <c r="C176" t="n">
-        <v>2.1795430895906014</v>
+        <v>2.168130479858701</v>
       </c>
       <c r="D176" t="n">
-        <v>2.000696070898495</v>
+        <v>2.0153266103919534</v>
       </c>
       <c r="E176" t="n">
-        <v>2.108456258110018</v>
+        <v>2.1101792879064805</v>
       </c>
       <c r="F176" t="n">
-        <v>2.0309907903970785</v>
+        <v>2.0728416401635563</v>
       </c>
       <c r="G176" t="n">
-        <v>2.1778920230764576</v>
+        <v>2.2225327745284966</v>
       </c>
       <c r="H176" t="n">
-        <v>2.2683438797453936</v>
+        <v>2.2726023491733796</v>
       </c>
       <c r="I176" t="n">
-        <v>2.2486802194606623</v>
+        <v>2.2334677459653767</v>
       </c>
       <c r="J176" t="n">
-        <v>2.1795430895906014</v>
+        <v>2.2225327745284966</v>
       </c>
       <c r="K176" t="n">
-        <v>2.000696070898495</v>
+        <v>2.0119770380163784</v>
       </c>
       <c r="L176" t="n">
-        <v>2.108456258110018</v>
+        <v>2.0186873561305396</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6.369556260091876</v>
+        <v>6.243426433159365</v>
       </c>
       <c r="C177" t="n">
-        <v>6.537428541516408</v>
+        <v>6.372358272120776</v>
       </c>
       <c r="D177" t="n">
-        <v>5.560423116982808</v>
+        <v>5.4107484151667515</v>
       </c>
       <c r="E177" t="n">
-        <v>6.401415857206452</v>
+        <v>6.231963597141256</v>
       </c>
       <c r="F177" t="n">
-        <v>6.437776045296719</v>
+        <v>6.305280817405908</v>
       </c>
       <c r="G177" t="n">
-        <v>5.874563942944716</v>
+        <v>5.6603827226276735</v>
       </c>
       <c r="H177" t="n">
-        <v>5.577160460304835</v>
+        <v>5.528245665181653</v>
       </c>
       <c r="I177" t="n">
-        <v>6.369556260091876</v>
+        <v>6.0649365822399615</v>
       </c>
       <c r="J177" t="n">
-        <v>6.537428541516408</v>
+        <v>5.641567045895275</v>
       </c>
       <c r="K177" t="n">
-        <v>5.560423116982808</v>
+        <v>6.079420010891986</v>
       </c>
       <c r="L177" t="n">
-        <v>6.401415857206452</v>
+        <v>5.6603827226276735</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>3.2125075639773635</v>
+        <v>3.3098562780372838</v>
       </c>
       <c r="C178" t="n">
-        <v>2.860815111071718</v>
+        <v>3.0007646428056765</v>
       </c>
       <c r="D178" t="n">
-        <v>3.1755032062920656</v>
+        <v>3.2697611101878596</v>
       </c>
       <c r="E178" t="n">
-        <v>2.8423643839227055</v>
+        <v>2.989133771568599</v>
       </c>
       <c r="F178" t="n">
-        <v>2.8899167770819285</v>
+        <v>2.990789801838946</v>
       </c>
       <c r="G178" t="n">
-        <v>3.161439067431674</v>
+        <v>3.3037794322275627</v>
       </c>
       <c r="H178" t="n">
-        <v>3.1214283255876802</v>
+        <v>3.222910801512236</v>
       </c>
       <c r="I178" t="n">
-        <v>3.2125075639773635</v>
+        <v>2.930714218758673</v>
       </c>
       <c r="J178" t="n">
-        <v>2.860815111071718</v>
+        <v>3.215232635081572</v>
       </c>
       <c r="K178" t="n">
-        <v>3.1755032062920656</v>
+        <v>3.136766759795941</v>
       </c>
       <c r="L178" t="n">
-        <v>2.8423643839227055</v>
+        <v>2.995768917759308</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.604194073786007</v>
       </c>
       <c r="C179" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.267615640652592</v>
       </c>
       <c r="D179" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.560533336215842</v>
       </c>
       <c r="E179" t="n">
-        <v>3.095129216350594</v>
+        <v>3.254950463175309</v>
       </c>
       <c r="F179" t="n">
-        <v>3.1469103328770327</v>
+        <v>3.256753760353497</v>
       </c>
       <c r="G179" t="n">
-        <v>3.4425784669507182</v>
+        <v>3.597576828257843</v>
       </c>
       <c r="H179" t="n">
-        <v>3.39900966319365</v>
+        <v>3.509516738907919</v>
       </c>
       <c r="I179" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.19133579584733</v>
       </c>
       <c r="J179" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.501155771052435</v>
       </c>
       <c r="K179" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.4157121085660975</v>
       </c>
       <c r="L179" t="n">
-        <v>3.095129216350594</v>
+        <v>3.2621756574346312</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.604194073786007</v>
       </c>
       <c r="C184" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.267615640652592</v>
       </c>
       <c r="D184" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.560533336215842</v>
       </c>
       <c r="E184" t="n">
-        <v>3.095129216350594</v>
+        <v>3.254950463175309</v>
       </c>
       <c r="F184" t="n">
-        <v>3.1469103328770327</v>
+        <v>3.256753760353497</v>
       </c>
       <c r="G184" t="n">
-        <v>3.4425784669507182</v>
+        <v>3.597576828257843</v>
       </c>
       <c r="H184" t="n">
-        <v>3.39900966319365</v>
+        <v>3.509516738907919</v>
       </c>
       <c r="I184" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.19133579584733</v>
       </c>
       <c r="J184" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.501155771052435</v>
       </c>
       <c r="K184" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.4157121085660975</v>
       </c>
       <c r="L184" t="n">
-        <v>3.095129216350594</v>
+        <v>3.2621756574346312</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.604194073786007</v>
       </c>
       <c r="C187" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.267615640652592</v>
       </c>
       <c r="D187" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.560533336215842</v>
       </c>
       <c r="E187" t="n">
-        <v>3.095129216350594</v>
+        <v>3.254950463175309</v>
       </c>
       <c r="F187" t="n">
-        <v>3.1469103328770327</v>
+        <v>3.256753760353497</v>
       </c>
       <c r="G187" t="n">
-        <v>3.4425784669507182</v>
+        <v>3.597576828257843</v>
       </c>
       <c r="H187" t="n">
-        <v>3.39900966319365</v>
+        <v>3.509516738907919</v>
       </c>
       <c r="I187" t="n">
-        <v>3.4981883657334776</v>
+        <v>3.19133579584733</v>
       </c>
       <c r="J187" t="n">
-        <v>3.1152207236129414</v>
+        <v>3.501155771052435</v>
       </c>
       <c r="K187" t="n">
-        <v>3.4578932968633884</v>
+        <v>3.4157121085660975</v>
       </c>
       <c r="L187" t="n">
-        <v>3.095129216350594</v>
+        <v>3.2621756574346312</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.6765243874147013</v>
+        <v>1.6934589771865671</v>
       </c>
       <c r="C200" t="n">
-        <v>1.6952021399856283</v>
+        <v>1.6894245311000542</v>
       </c>
       <c r="D200" t="n">
-        <v>1.5841313107868393</v>
+        <v>1.576733622413292</v>
       </c>
       <c r="E200" t="n">
-        <v>1.7410682238349944</v>
+        <v>1.7359509098188313</v>
       </c>
       <c r="F200" t="n">
-        <v>1.522871425230692</v>
+        <v>1.5071964859387512</v>
       </c>
       <c r="G200" t="n">
-        <v>1.5649305303734165</v>
+        <v>1.5714924025901456</v>
       </c>
       <c r="H200" t="n">
-        <v>1.6557195424133337</v>
+        <v>1.65904008561771</v>
       </c>
       <c r="I200" t="n">
-        <v>1.6765243874147013</v>
+        <v>1.570622251506071</v>
       </c>
       <c r="J200" t="n">
-        <v>1.6952021399856283</v>
+        <v>1.6481951117680316</v>
       </c>
       <c r="K200" t="n">
-        <v>1.5841313107868393</v>
+        <v>1.7444918743581381</v>
       </c>
       <c r="L200" t="n">
-        <v>1.7410682238349944</v>
+        <v>1.775058690210266</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.25445382634937824</v>
+        <v>0.2570770616725677</v>
       </c>
       <c r="C213" t="n">
-        <v>0.24968564234624777</v>
+        <v>0.2558184223519217</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2298459496996251</v>
+        <v>0.23235536527763595</v>
       </c>
       <c r="E213" t="n">
-        <v>0.25447048522660726</v>
+        <v>0.2562889649955239</v>
       </c>
       <c r="F213" t="n">
-        <v>0.24203719621850922</v>
+        <v>0.24448445801132282</v>
       </c>
       <c r="G213" t="n">
-        <v>0.25181216363938547</v>
+        <v>0.24955659829503957</v>
       </c>
       <c r="H213" t="n">
-        <v>0.25241346452460345</v>
+        <v>0.2489620621090922</v>
       </c>
       <c r="I213" t="n">
-        <v>0.25445382634937824</v>
+        <v>0.25882805091071737</v>
       </c>
       <c r="J213" t="n">
-        <v>0.24968564234624777</v>
+        <v>0.2562889649955239</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2298459496996251</v>
+        <v>0.2558184223519217</v>
       </c>
       <c r="L213" t="n">
-        <v>0.25447048522660726</v>
+        <v>0.22693121716714754</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.23840077196191037</v>
+        <v>0.2408088605675862</v>
       </c>
       <c r="C214" t="n">
-        <v>0.23393340448895306</v>
+        <v>0.23962986972842545</v>
       </c>
       <c r="D214" t="n">
-        <v>0.21534536393833614</v>
+        <v>0.21765158818618735</v>
       </c>
       <c r="E214" t="n">
-        <v>0.23841637985921887</v>
+        <v>0.24007063576611504</v>
       </c>
       <c r="F214" t="n">
-        <v>0.2267674856764046</v>
+        <v>0.22901313472758147</v>
       </c>
       <c r="G214" t="n">
-        <v>0.23592576721012268</v>
+        <v>0.23376430277973725</v>
       </c>
       <c r="H214" t="n">
-        <v>0.23648913305639027</v>
+        <v>0.23320738968693655</v>
       </c>
       <c r="I214" t="n">
-        <v>0.23840077196191037</v>
+        <v>0.24244904472311377</v>
       </c>
       <c r="J214" t="n">
-        <v>0.23393340448895306</v>
+        <v>0.24007063576611504</v>
       </c>
       <c r="K214" t="n">
-        <v>0.21534536393833614</v>
+        <v>0.23962986972842545</v>
       </c>
       <c r="L214" t="n">
-        <v>0.23841637985921887</v>
+        <v>0.21257068786183175</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.23718174148580243</v>
+        <v>0.23962691407843956</v>
       </c>
       <c r="C221" t="n">
-        <v>0.21964215274195587</v>
+        <v>0.22307457675401607</v>
       </c>
       <c r="D221" t="n">
-        <v>0.22684393302180203</v>
+        <v>0.2324619897033084</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2204609934385501</v>
+        <v>0.22791875861310315</v>
       </c>
       <c r="F221" t="n">
-        <v>0.25004676466197867</v>
+        <v>0.2574042631824971</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2468915880888139</v>
+        <v>0.2542861014647383</v>
       </c>
       <c r="H221" t="n">
-        <v>0.23148035180589843</v>
+        <v>0.23336651110528472</v>
       </c>
       <c r="I221" t="n">
-        <v>0.23718174148580243</v>
+        <v>0.24394326180815754</v>
       </c>
       <c r="J221" t="n">
-        <v>0.21964215274195587</v>
+        <v>0.2581957894367569</v>
       </c>
       <c r="K221" t="n">
-        <v>0.22684393302180203</v>
+        <v>0.23297799848823983</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2204609934385501</v>
+        <v>0.2574042631824971</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>0.7429027331715101</v>
+        <v>0.750561524235134</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6879650793079313</v>
+        <v>0.6987161479356809</v>
       </c>
       <c r="D222" t="n">
-        <v>0.7105225587331284</v>
+        <v>0.7281194851982854</v>
       </c>
       <c r="E222" t="n">
-        <v>0.6905298593273423</v>
+        <v>0.7138891368873245</v>
       </c>
       <c r="F222" t="n">
-        <v>0.7831986717206766</v>
+        <v>0.8062438931865357</v>
       </c>
       <c r="G222" t="n">
-        <v>0.7733159999553073</v>
+        <v>0.7964771596762649</v>
       </c>
       <c r="H222" t="n">
-        <v>0.7250447903570965</v>
+        <v>0.7309526350753831</v>
       </c>
       <c r="I222" t="n">
-        <v>0.7429027331715101</v>
+        <v>0.7640812264923083</v>
       </c>
       <c r="J222" t="n">
-        <v>0.6879650793079313</v>
+        <v>0.8087231186698424</v>
       </c>
       <c r="K222" t="n">
-        <v>0.7105225587331284</v>
+        <v>0.7297357324450786</v>
       </c>
       <c r="L222" t="n">
-        <v>0.6905298593273423</v>
+        <v>0.8062438931865357</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>0.7429027331715101</v>
+        <v>0.750561524235134</v>
       </c>
       <c r="C224" t="n">
-        <v>0.6879650793079313</v>
+        <v>0.6987161479356809</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7105225587331284</v>
+        <v>0.7281194851982854</v>
       </c>
       <c r="E224" t="n">
-        <v>0.6905298593273423</v>
+        <v>0.7138891368873245</v>
       </c>
       <c r="F224" t="n">
-        <v>0.7831986717206766</v>
+        <v>0.8062438931865357</v>
       </c>
       <c r="G224" t="n">
-        <v>0.7733159999553073</v>
+        <v>0.7964771596762649</v>
       </c>
       <c r="H224" t="n">
-        <v>0.7250447903570965</v>
+        <v>0.7309526350753831</v>
       </c>
       <c r="I224" t="n">
-        <v>0.7429027331715101</v>
+        <v>0.7640812264923083</v>
       </c>
       <c r="J224" t="n">
-        <v>0.6879650793079313</v>
+        <v>0.8087231186698424</v>
       </c>
       <c r="K224" t="n">
-        <v>0.7105225587331284</v>
+        <v>0.7297357324450786</v>
       </c>
       <c r="L224" t="n">
-        <v>0.6905298593273423</v>
+        <v>0.8062438931865357</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>5.966194422182262</v>
+        <v>5.907123190279467</v>
       </c>
       <c r="C230" t="n">
-        <v>6.123435936061222</v>
+        <v>6.029110093472452</v>
       </c>
       <c r="D230" t="n">
-        <v>5.2083008660068915</v>
+        <v>5.11929751750525</v>
       </c>
       <c r="E230" t="n">
-        <v>5.996036461852889</v>
+        <v>5.896277801902772</v>
       </c>
       <c r="F230" t="n">
-        <v>6.030094085730526</v>
+        <v>5.965645777438122</v>
       </c>
       <c r="G230" t="n">
-        <v>5.502548246374112</v>
+        <v>5.3554852298902205</v>
       </c>
       <c r="H230" t="n">
-        <v>5.223978291606487</v>
+        <v>5.230465757859749</v>
       </c>
       <c r="I230" t="n">
-        <v>5.966194422182262</v>
+        <v>5.738247725999833</v>
       </c>
       <c r="J230" t="n">
-        <v>6.123435936061222</v>
+        <v>5.337683062833932</v>
       </c>
       <c r="K230" t="n">
-        <v>5.2083008660068915</v>
+        <v>5.75195100226665</v>
       </c>
       <c r="L230" t="n">
-        <v>5.996036461852889</v>
+        <v>5.3554852298902205</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5.092052210493111</v>
+        <v>4.991219493453643</v>
       </c>
       <c r="C238" t="n">
-        <v>5.226255345971182</v>
+        <v>5.094292239619627</v>
       </c>
       <c r="D238" t="n">
-        <v>4.445202093827001</v>
+        <v>4.325546757549879</v>
       </c>
       <c r="E238" t="n">
-        <v>5.117521917532067</v>
+        <v>4.982055690340664</v>
       </c>
       <c r="F238" t="n">
-        <v>5.146589558758352</v>
+        <v>5.040668111405997</v>
       </c>
       <c r="G238" t="n">
-        <v>4.696337561028668</v>
+        <v>4.525113395352521</v>
       </c>
       <c r="H238" t="n">
-        <v>4.458582527656389</v>
+        <v>4.419478282327182</v>
       </c>
       <c r="I238" t="n">
-        <v>5.092052210493111</v>
+        <v>4.848528291302048</v>
       </c>
       <c r="J238" t="n">
-        <v>5.226255345971182</v>
+        <v>4.510071467094908</v>
       </c>
       <c r="K238" t="n">
-        <v>4.445202093827001</v>
+        <v>4.8601068647334715</v>
       </c>
       <c r="L238" t="n">
-        <v>5.117521917532067</v>
+        <v>4.525113395352521</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.7808525602538743</v>
+        <v>2.6982529792562344</v>
       </c>
       <c r="C242" t="n">
-        <v>3.103133976944932</v>
+        <v>2.97072038528107</v>
       </c>
       <c r="D242" t="n">
-        <v>3.0975305573220213</v>
+        <v>3.005670037575614</v>
       </c>
       <c r="E242" t="n">
-        <v>3.150088018979746</v>
+        <v>3.037645250364988</v>
       </c>
       <c r="F242" t="n">
-        <v>3.0432278505941066</v>
+        <v>2.898004244653665</v>
       </c>
       <c r="G242" t="n">
-        <v>2.951716294524236</v>
+        <v>2.839103441500739</v>
       </c>
       <c r="H242" t="n">
-        <v>2.762572219767856</v>
+        <v>2.6877946339001495</v>
       </c>
       <c r="I242" t="n">
-        <v>2.7808525602538743</v>
+        <v>2.6982529792562344</v>
       </c>
       <c r="J242" t="n">
-        <v>3.103133976944932</v>
+        <v>2.9401315022065537</v>
       </c>
       <c r="K242" t="n">
-        <v>3.0975305573220213</v>
+        <v>2.97072038528107</v>
       </c>
       <c r="L242" t="n">
-        <v>3.150088018979746</v>
+        <v>2.8205445152598796</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.7826875959824046</v>
+        <v>0.7907565402708829</v>
       </c>
       <c r="C250" t="n">
-        <v>0.8733956295060155</v>
+        <v>0.8706064968839841</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8718185135176957</v>
+        <v>0.8808489264651133</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8866111256481519</v>
+        <v>0.8902196596150939</v>
       </c>
       <c r="F250" t="n">
-        <v>0.8565346917172586</v>
+        <v>0.8492961289435296</v>
       </c>
       <c r="G250" t="n">
-        <v>0.8307782165813036</v>
+        <v>0.8320345171975387</v>
       </c>
       <c r="H250" t="n">
-        <v>0.7775424847480875</v>
+        <v>0.7876915923010988</v>
       </c>
       <c r="I250" t="n">
-        <v>0.7826875959824046</v>
+        <v>0.7907565402708829</v>
       </c>
       <c r="J250" t="n">
-        <v>0.8733956295060155</v>
+        <v>0.8616420448712515</v>
       </c>
       <c r="K250" t="n">
-        <v>0.8718185135176957</v>
+        <v>0.8706064968839841</v>
       </c>
       <c r="L250" t="n">
-        <v>0.8866111256481519</v>
+        <v>0.8265955934130796</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>3.5564057175086528</v>
+        <v>3.5919697746837396</v>
       </c>
       <c r="C253" t="n">
-        <v>3.6677424141395436</v>
+        <v>3.6528874925198584</v>
       </c>
       <c r="D253" t="n">
-        <v>3.717509920308484</v>
+        <v>3.6976807150862707</v>
       </c>
       <c r="E253" t="n">
-        <v>3.2911089123014667</v>
+        <v>3.3467909248984866</v>
       </c>
       <c r="F253" t="n">
-        <v>3.3095606817961043</v>
+        <v>3.3393783214347152</v>
       </c>
       <c r="G253" t="n">
-        <v>3.2378312206802637</v>
+        <v>3.204525637186284</v>
       </c>
       <c r="H253" t="n">
-        <v>3.344208227796571</v>
+        <v>3.3523720119941425</v>
       </c>
       <c r="I253" t="n">
-        <v>3.5564057175086528</v>
+        <v>3.6908918295058726</v>
       </c>
       <c r="J253" t="n">
-        <v>3.6677424141395436</v>
+        <v>3.527367889376652</v>
       </c>
       <c r="K253" t="n">
-        <v>3.717509920308484</v>
+        <v>3.6976807150862707</v>
       </c>
       <c r="L253" t="n">
-        <v>3.2911089123014667</v>
+        <v>3.34122839306317</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>2.7225421640972662</v>
+        <v>2.7775430158972108</v>
       </c>
       <c r="C254" t="n">
-        <v>2.807773961329121</v>
+        <v>2.8246485296776007</v>
       </c>
       <c r="D254" t="n">
-        <v>2.8458725768160593</v>
+        <v>2.8592855423205656</v>
       </c>
       <c r="E254" t="n">
-        <v>2.519448986448559</v>
+        <v>2.5879548944529818</v>
       </c>
       <c r="F254" t="n">
-        <v>2.533574405324149</v>
+        <v>2.582222990714391</v>
       </c>
       <c r="G254" t="n">
-        <v>2.478663211886789</v>
+        <v>2.4779461858400516</v>
       </c>
       <c r="H254" t="n">
-        <v>2.5600982083886796</v>
+        <v>2.592270551447901</v>
       </c>
       <c r="I254" t="n">
-        <v>2.7225421640972662</v>
+        <v>2.8540359375320006</v>
       </c>
       <c r="J254" t="n">
-        <v>2.807773961329121</v>
+        <v>2.7275886658876</v>
       </c>
       <c r="K254" t="n">
-        <v>2.8458725768160593</v>
+        <v>2.8592855423205656</v>
       </c>
       <c r="L254" t="n">
-        <v>2.519448986448559</v>
+        <v>2.583653585583742</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>6.031150348778974</v>
+        <v>6.212084859242343</v>
       </c>
       <c r="C260" t="n">
-        <v>6.219961302886789</v>
+        <v>6.317438204723283</v>
       </c>
       <c r="D260" t="n">
-        <v>6.3043598040788655</v>
+        <v>6.3949052540460976</v>
       </c>
       <c r="E260" t="n">
-        <v>5.5812452911591315</v>
+        <v>5.7880635238480265</v>
       </c>
       <c r="F260" t="n">
-        <v>5.612536826732618</v>
+        <v>5.775243894331819</v>
       </c>
       <c r="G260" t="n">
-        <v>5.490894022511286</v>
+        <v>5.542024694116909</v>
       </c>
       <c r="H260" t="n">
-        <v>5.671294059664814</v>
+        <v>5.797715661482756</v>
       </c>
       <c r="I260" t="n">
-        <v>6.031150348778974</v>
+        <v>6.3831643052156375</v>
       </c>
       <c r="J260" t="n">
-        <v>6.219961302886789</v>
+        <v>6.100359978809571</v>
       </c>
       <c r="K260" t="n">
-        <v>6.3043598040788655</v>
+        <v>6.3949052540460976</v>
       </c>
       <c r="L260" t="n">
-        <v>5.5812452911591315</v>
+        <v>5.778443476364117</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>1.2326451973827128</v>
+        <v>1.2452232096009037</v>
       </c>
       <c r="C265" t="n">
-        <v>1.1342493445873756</v>
+        <v>1.1613554363473662</v>
       </c>
       <c r="D265" t="n">
-        <v>1.2509122513777127</v>
+        <v>1.2732757976919298</v>
       </c>
       <c r="E265" t="n">
-        <v>1.2003339657495873</v>
+        <v>1.2513497695263989</v>
       </c>
       <c r="F265" t="n">
-        <v>1.2383533629488865</v>
+        <v>1.2475136256527795</v>
       </c>
       <c r="G265" t="n">
-        <v>1.1687591779679714</v>
+        <v>1.1822746804162219</v>
       </c>
       <c r="H265" t="n">
-        <v>1.1909934696607165</v>
+        <v>1.232401408077987</v>
       </c>
       <c r="I265" t="n">
-        <v>1.2326451973827128</v>
+        <v>1.129131367126304</v>
       </c>
       <c r="J265" t="n">
-        <v>1.1342493445873756</v>
+        <v>1.1310142993571421</v>
       </c>
       <c r="K265" t="n">
-        <v>1.2509122513777127</v>
+        <v>1.10461168512242</v>
       </c>
       <c r="L265" t="n">
-        <v>1.2003339657495873</v>
+        <v>1.1266305228038378</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>1.7149306873403558</v>
+        <v>1.7324299800683187</v>
       </c>
       <c r="C266" t="n">
-        <v>1.5780364149057249</v>
+        <v>1.6157480521812153</v>
       </c>
       <c r="D266" t="n">
-        <v>1.740344919700036</v>
+        <v>1.7714584403898839</v>
       </c>
       <c r="E266" t="n">
-        <v>1.6699773440822427</v>
+        <v>1.7409536214586963</v>
       </c>
       <c r="F266" t="n">
-        <v>1.722872233146591</v>
+        <v>1.7356165456611419</v>
       </c>
       <c r="G266" t="n">
-        <v>1.6260485861331373</v>
+        <v>1.6448521720737983</v>
       </c>
       <c r="H266" t="n">
-        <v>1.656982279961765</v>
+        <v>1.71459151288788</v>
       </c>
       <c r="I266" t="n">
-        <v>1.7149306873403558</v>
+        <v>1.5709159745521308</v>
       </c>
       <c r="J266" t="n">
-        <v>1.5780364149057249</v>
+        <v>1.573535623962767</v>
       </c>
       <c r="K266" t="n">
-        <v>1.740344919700036</v>
+        <v>1.536802707245714</v>
       </c>
       <c r="L266" t="n">
-        <v>1.6699773440822427</v>
+        <v>1.5674366483989408</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>1.2297238663914372</v>
+        <v>1.2421453195873102</v>
       </c>
       <c r="C268" t="n">
-        <v>1.2434239224594803</v>
+        <v>1.2391860696786914</v>
       </c>
       <c r="D268" t="n">
-        <v>1.161953917876808</v>
+        <v>1.156527743335377</v>
       </c>
       <c r="E268" t="n">
-        <v>1.2770665097018004</v>
+        <v>1.273312980540677</v>
       </c>
       <c r="F268" t="n">
-        <v>1.1170200392608398</v>
+        <v>1.1055225346040414</v>
       </c>
       <c r="G268" t="n">
-        <v>1.1478702229988957</v>
+        <v>1.152683329765309</v>
       </c>
       <c r="H268" t="n">
-        <v>1.214463596617367</v>
+        <v>1.216899201645518</v>
       </c>
       <c r="I268" t="n">
-        <v>1.2297238663914372</v>
+        <v>1.1520450774598339</v>
       </c>
       <c r="J268" t="n">
-        <v>1.2434239224594803</v>
+        <v>1.2089444571315382</v>
       </c>
       <c r="K268" t="n">
-        <v>1.161953917876808</v>
+        <v>1.2795777435317988</v>
       </c>
       <c r="L268" t="n">
-        <v>1.2770665097018004</v>
+        <v>1.3019983794945824</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.2970756904085237</v>
+        <v>2.320278475160125</v>
       </c>
       <c r="C269" t="n">
-        <v>2.1137117167581163</v>
+        <v>2.1640040116427275</v>
       </c>
       <c r="D269" t="n">
-        <v>2.3311169585336824</v>
+        <v>2.3725500806187174</v>
       </c>
       <c r="E269" t="n">
-        <v>2.236862625960452</v>
+        <v>2.331694360290038</v>
       </c>
       <c r="F269" t="n">
-        <v>2.307713048495608</v>
+        <v>2.324546306841508</v>
       </c>
       <c r="G269" t="n">
-        <v>2.178021949343238</v>
+        <v>2.2029837474486023</v>
       </c>
       <c r="H269" t="n">
-        <v>2.2194562980506376</v>
+        <v>2.29638705564833</v>
       </c>
       <c r="I269" t="n">
-        <v>2.2970756904085237</v>
+        <v>2.1039595042650787</v>
       </c>
       <c r="J269" t="n">
-        <v>2.1137117167581163</v>
+        <v>2.1074680536494093</v>
       </c>
       <c r="K269" t="n">
-        <v>2.3311169585336824</v>
+        <v>2.0582709161206147</v>
       </c>
       <c r="L269" t="n">
-        <v>2.236862625960452</v>
+        <v>2.09929957245012</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.4756874243100102</v>
+        <v>1.4907454592519491</v>
       </c>
       <c r="C272" t="n">
-        <v>1.35789073562567</v>
+        <v>1.3903413700964362</v>
       </c>
       <c r="D272" t="n">
-        <v>1.497556216657435</v>
+        <v>1.524329211943457</v>
       </c>
       <c r="E272" t="n">
-        <v>1.4370053458934364</v>
+        <v>1.4980800008179502</v>
       </c>
       <c r="F272" t="n">
-        <v>1.4825210761668197</v>
+        <v>1.4934874795602808</v>
       </c>
       <c r="G272" t="n">
-        <v>1.3992049169025778</v>
+        <v>1.4153852882198583</v>
       </c>
       <c r="H272" t="n">
-        <v>1.42582317226843</v>
+        <v>1.475395566756897</v>
       </c>
       <c r="I272" t="n">
-        <v>1.4756874243100102</v>
+        <v>1.351763640015967</v>
       </c>
       <c r="J272" t="n">
-        <v>1.35789073562567</v>
+        <v>1.3540178323981513</v>
       </c>
       <c r="K272" t="n">
-        <v>1.497556216657435</v>
+        <v>1.322409381014236</v>
       </c>
       <c r="L272" t="n">
-        <v>1.4370053458934364</v>
+        <v>1.3487697010263404</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>1.7644439577262225</v>
+        <v>1.7822666239658813</v>
       </c>
       <c r="C274" t="n">
-        <v>1.710194985374333</v>
+        <v>1.7184242371207872</v>
       </c>
       <c r="D274" t="n">
-        <v>1.569861318204742</v>
+        <v>1.5973144260384706</v>
       </c>
       <c r="E274" t="n">
-        <v>1.6544161648936242</v>
+        <v>1.6724930841086194</v>
       </c>
       <c r="F274" t="n">
-        <v>1.5936322992040353</v>
+        <v>1.6428998841446114</v>
       </c>
       <c r="G274" t="n">
-        <v>1.7088994635346897</v>
+        <v>1.7615425930426398</v>
       </c>
       <c r="H274" t="n">
-        <v>1.77987319763144</v>
+        <v>1.801226906976413</v>
       </c>
       <c r="I274" t="n">
-        <v>1.7644439577262225</v>
+        <v>1.7702094699321629</v>
       </c>
       <c r="J274" t="n">
-        <v>1.710194985374333</v>
+        <v>1.7615425930426398</v>
       </c>
       <c r="K274" t="n">
-        <v>1.569861318204742</v>
+        <v>1.5946596105614272</v>
       </c>
       <c r="L274" t="n">
-        <v>1.6544161648936242</v>
+        <v>1.599978097337609</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>4.150186395139561</v>
+        <v>4.109498293226428</v>
       </c>
       <c r="C275" t="n">
-        <v>3.966021328772145</v>
+        <v>3.8926397271817463</v>
       </c>
       <c r="D275" t="n">
-        <v>4.378371908253285</v>
+        <v>4.300009000909219</v>
       </c>
       <c r="E275" t="n">
-        <v>4.334902888584086</v>
+        <v>4.194755049457426</v>
       </c>
       <c r="F275" t="n">
-        <v>4.553060923114298</v>
+        <v>4.396880293027899</v>
       </c>
       <c r="G275" t="n">
-        <v>4.476639608816624</v>
+        <v>4.307918273369735</v>
       </c>
       <c r="H275" t="n">
-        <v>3.982041680133392</v>
+        <v>3.8991202576509645</v>
       </c>
       <c r="I275" t="n">
-        <v>4.150186395139561</v>
+        <v>3.9056224056018545</v>
       </c>
       <c r="J275" t="n">
-        <v>3.966021328772145</v>
+        <v>4.350597343113955</v>
       </c>
       <c r="K275" t="n">
-        <v>4.378371908253285</v>
+        <v>4.184761590317791</v>
       </c>
       <c r="L275" t="n">
-        <v>4.334902888584086</v>
+        <v>4.255732712504601</v>
       </c>
     </row>
     <row r="276">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7962169494164109</v>
+        <v>0.8045108759728318</v>
       </c>
       <c r="C280" t="n">
-        <v>0.7090503089000492</v>
+        <v>0.7293814560442078</v>
       </c>
       <c r="D280" t="n">
-        <v>0.7870454545002018</v>
+        <v>0.7947651360073653</v>
       </c>
       <c r="E280" t="n">
-        <v>0.7044773136953584</v>
+        <v>0.7265543960085928</v>
       </c>
       <c r="F280" t="n">
-        <v>0.7162631291882906</v>
+        <v>0.7269569193363502</v>
       </c>
       <c r="G280" t="n">
-        <v>0.7835596710377263</v>
+        <v>0.8030338062347978</v>
       </c>
       <c r="H280" t="n">
-        <v>0.773643046662383</v>
+        <v>0.7833774563904805</v>
       </c>
       <c r="I280" t="n">
-        <v>0.7962169494164109</v>
+        <v>0.7123546357601132</v>
       </c>
       <c r="J280" t="n">
-        <v>0.7090503089000492</v>
+        <v>0.7815111613365268</v>
       </c>
       <c r="K280" t="n">
-        <v>0.7870454545002018</v>
+        <v>0.7624388377196682</v>
       </c>
       <c r="L280" t="n">
-        <v>0.7044773136953584</v>
+        <v>0.7281671691400173</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>2.486091513024862</v>
+        <v>2.5109524281551105</v>
       </c>
       <c r="C282" t="n">
-        <v>2.375770875612552</v>
+        <v>2.378449260098404</v>
       </c>
       <c r="D282" t="n">
-        <v>2.6227817754698517</v>
+        <v>2.627356740777438</v>
       </c>
       <c r="E282" t="n">
-        <v>2.596742472510913</v>
+        <v>2.56304532217765</v>
       </c>
       <c r="F282" t="n">
-        <v>2.727425961517316</v>
+        <v>2.6865462546324137</v>
       </c>
       <c r="G282" t="n">
-        <v>2.68164720297477</v>
+        <v>2.6321894005019617</v>
       </c>
       <c r="H282" t="n">
-        <v>2.385367567366329</v>
+        <v>2.3824089414405862</v>
       </c>
       <c r="I282" t="n">
-        <v>2.486091513024862</v>
+        <v>2.3863818313216747</v>
       </c>
       <c r="J282" t="n">
-        <v>2.375770875612552</v>
+        <v>2.658266820702449</v>
       </c>
       <c r="K282" t="n">
-        <v>2.6227817754698517</v>
+        <v>2.5569391995558948</v>
       </c>
       <c r="L282" t="n">
-        <v>2.596742472510913</v>
+        <v>2.600303400942131</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>0.6461745264054245</v>
+        <v>0.652905511055481</v>
       </c>
       <c r="C284" t="n">
-        <v>0.7023959686978083</v>
+        <v>0.7139849925391765</v>
       </c>
       <c r="D284" t="n">
-        <v>0.745652523101797</v>
+        <v>0.7533833054689508</v>
       </c>
       <c r="E284" t="n">
-        <v>0.7145062751575633</v>
+        <v>0.71868294881745</v>
       </c>
       <c r="F284" t="n">
-        <v>0.6743252367630955</v>
+        <v>0.6818913270219117</v>
       </c>
       <c r="G284" t="n">
-        <v>0.776194559121327</v>
+        <v>0.7689412840976483</v>
       </c>
       <c r="H284" t="n">
-        <v>0.7671398646440108</v>
+        <v>0.7533833054689508</v>
       </c>
       <c r="I284" t="n">
-        <v>0.6461745264054245</v>
+        <v>0.744256918233296</v>
       </c>
       <c r="J284" t="n">
-        <v>0.7023959686978083</v>
+        <v>0.667083697912877</v>
       </c>
       <c r="K284" t="n">
-        <v>0.745652523101797</v>
+        <v>0.6803810474358777</v>
       </c>
       <c r="L284" t="n">
-        <v>0.7145062751575633</v>
+        <v>0.7520001051731157</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>1.5306611673990902</v>
+        <v>1.545967779073081</v>
       </c>
       <c r="C299" t="n">
-        <v>1.6638387765054683</v>
+        <v>1.690593469525034</v>
       </c>
       <c r="D299" t="n">
-        <v>1.7663051000078733</v>
+        <v>1.7838818876926266</v>
       </c>
       <c r="E299" t="n">
-        <v>1.6925257257208246</v>
+        <v>1.7017174207105028</v>
       </c>
       <c r="F299" t="n">
-        <v>1.5973446985789483</v>
+        <v>1.6146011981137667</v>
       </c>
       <c r="G299" t="n">
-        <v>1.8386532143299585</v>
+        <v>1.8207205010297867</v>
       </c>
       <c r="H299" t="n">
-        <v>1.8172044127249338</v>
+        <v>1.7838818876926266</v>
       </c>
       <c r="I299" t="n">
-        <v>1.5306611673990902</v>
+        <v>1.7622721748524677</v>
       </c>
       <c r="J299" t="n">
-        <v>1.6638387765054683</v>
+        <v>1.5795392831821176</v>
       </c>
       <c r="K299" t="n">
-        <v>1.7663051000078733</v>
+        <v>1.6110251162185076</v>
       </c>
       <c r="L299" t="n">
-        <v>1.6925257257208246</v>
+        <v>1.7806067076655678</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>0.6461745264054245</v>
+        <v>0.652905511055481</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7023959686978083</v>
+        <v>0.7139849925391765</v>
       </c>
       <c r="D302" t="n">
-        <v>0.745652523101797</v>
+        <v>0.7533833054689508</v>
       </c>
       <c r="E302" t="n">
-        <v>0.7145062751575633</v>
+        <v>0.71868294881745</v>
       </c>
       <c r="F302" t="n">
-        <v>0.6743252367630955</v>
+        <v>0.6818913270219117</v>
       </c>
       <c r="G302" t="n">
-        <v>0.776194559121327</v>
+        <v>0.7689412840976483</v>
       </c>
       <c r="H302" t="n">
-        <v>0.7671398646440108</v>
+        <v>0.7533833054689508</v>
       </c>
       <c r="I302" t="n">
-        <v>0.6461745264054245</v>
+        <v>0.744256918233296</v>
       </c>
       <c r="J302" t="n">
-        <v>0.7023959686978083</v>
+        <v>0.667083697912877</v>
       </c>
       <c r="K302" t="n">
-        <v>0.745652523101797</v>
+        <v>0.6803810474358777</v>
       </c>
       <c r="L302" t="n">
-        <v>0.7145062751575633</v>
+        <v>0.7520001051731157</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.3489051949611701</v>
+        <v>1.3354161430115585</v>
       </c>
       <c r="C305" t="n">
-        <v>1.4662688366359333</v>
+        <v>1.4603446727895393</v>
       </c>
       <c r="D305" t="n">
-        <v>1.556567956405089</v>
+        <v>1.5409277620772799</v>
       </c>
       <c r="E305" t="n">
-        <v>1.4915493988193549</v>
+        <v>1.4699536078451294</v>
       </c>
       <c r="F305" t="n">
-        <v>1.4076704942597138</v>
+        <v>1.3947020977239923</v>
       </c>
       <c r="G305" t="n">
-        <v>1.6203252067575835</v>
+        <v>1.572749174918174</v>
       </c>
       <c r="H305" t="n">
-        <v>1.6014233096382677</v>
+        <v>1.5409277620772799</v>
       </c>
       <c r="I305" t="n">
-        <v>1.3489051949611701</v>
+        <v>1.5222611638704953</v>
       </c>
       <c r="J305" t="n">
-        <v>1.4662688366359333</v>
+        <v>1.3644154075106323</v>
       </c>
       <c r="K305" t="n">
-        <v>1.556567956405089</v>
+        <v>1.3916130569585219</v>
       </c>
       <c r="L305" t="n">
-        <v>1.4915493988193549</v>
+        <v>1.5380986421314389</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>1.5681978522216966</v>
       </c>
       <c r="C310" t="n">
-        <v>1.7046414002863022</v>
+        <v>1.7149031718363241</v>
       </c>
       <c r="D310" t="n">
-        <v>1.8096205242517753</v>
+        <v>1.8095330205226225</v>
       </c>
       <c r="E310" t="n">
-        <v>1.7340318448239112</v>
+        <v>1.7261870786508187</v>
       </c>
       <c r="F310" t="n">
-        <v>1.6365166758791252</v>
+        <v>1.6378181779407537</v>
       </c>
       <c r="G310" t="n">
-        <v>1.88374284466379</v>
+        <v>1.8469013506367193</v>
       </c>
       <c r="H310" t="n">
-        <v>1.8617680501592142</v>
+        <v>1.8095330205226225</v>
       </c>
       <c r="I310" t="n">
-        <v>1.5681978522216966</v>
+        <v>1.787612573200374</v>
       </c>
       <c r="J310" t="n">
-        <v>1.7046414002863022</v>
+        <v>1.602252094070908</v>
       </c>
       <c r="K310" t="n">
-        <v>1.8096205242517753</v>
+        <v>1.6341906741703474</v>
       </c>
       <c r="L310" t="n">
-        <v>1.7340318448239112</v>
+        <v>1.806210745405639</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.9993947510244298</v>
+        <v>1.009592656647128</v>
       </c>
       <c r="C312" t="n">
-        <v>1.0876040450301059</v>
+        <v>1.1135850326933596</v>
       </c>
       <c r="D312" t="n">
-        <v>0.9680863919418264</v>
+        <v>0.9860245324750346</v>
       </c>
       <c r="E312" t="n">
-        <v>1.012956908480987</v>
+        <v>1.0366764778835755</v>
       </c>
       <c r="F312" t="n">
-        <v>1.0420986001418127</v>
+        <v>1.0553499068636778</v>
       </c>
       <c r="G312" t="n">
-        <v>1.0136740210673045</v>
+        <v>1.009592656647128</v>
       </c>
       <c r="H312" t="n">
-        <v>1.1084083218277185</v>
+        <v>1.1170093419057625</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9993947510244298</v>
+        <v>1.111540507502162</v>
       </c>
       <c r="J312" t="n">
-        <v>1.0876040450301059</v>
+        <v>0.965067581928728</v>
       </c>
       <c r="K312" t="n">
-        <v>0.9680863919418264</v>
+        <v>1.1000952086497238</v>
       </c>
       <c r="L312" t="n">
-        <v>1.012956908480987</v>
+        <v>1.1246174549122852</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>1.5317582127247633</v>
       </c>
       <c r="C314" t="n">
-        <v>1.4184846996039822</v>
+        <v>1.4259513223177163</v>
       </c>
       <c r="D314" t="n">
-        <v>1.4649949664600586</v>
+        <v>1.4859581330577252</v>
       </c>
       <c r="E314" t="n">
-        <v>1.423772905829572</v>
+        <v>1.456916605892499</v>
       </c>
       <c r="F314" t="n">
-        <v>1.6148426221044878</v>
+        <v>1.6453957003806852</v>
       </c>
       <c r="G314" t="n">
-        <v>1.5944659792892937</v>
+        <v>1.6254635911760507</v>
       </c>
       <c r="H314" t="n">
-        <v>1.4949377120764877</v>
+        <v>1.4917400715824145</v>
       </c>
       <c r="I314" t="n">
-        <v>1.5317582127247633</v>
+        <v>1.5593494418210372</v>
       </c>
       <c r="J314" t="n">
-        <v>1.4184846996039822</v>
+        <v>1.650455344224168</v>
       </c>
       <c r="K314" t="n">
-        <v>1.4649949664600586</v>
+        <v>1.489256596826691</v>
       </c>
       <c r="L314" t="n">
-        <v>1.423772905829572</v>
+        <v>1.6453957003806852</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>2.5023483044104924</v>
+        <v>2.452796852838007</v>
       </c>
       <c r="C315" t="n">
-        <v>2.7232123594418907</v>
+        <v>2.7054454542377453</v>
       </c>
       <c r="D315" t="n">
-        <v>2.42395643854976</v>
+        <v>2.395538293738947</v>
       </c>
       <c r="E315" t="n">
-        <v>2.5363060990464725</v>
+        <v>2.518596768332841</v>
       </c>
       <c r="F315" t="n">
-        <v>2.6092729248581663</v>
+        <v>2.5639637067040035</v>
       </c>
       <c r="G315" t="n">
-        <v>2.538101651267058</v>
+        <v>2.452796852838007</v>
       </c>
       <c r="H315" t="n">
-        <v>2.7753034342805654</v>
+        <v>2.7137647846172075</v>
       </c>
       <c r="I315" t="n">
-        <v>2.5023483044104924</v>
+        <v>2.7004782975122086</v>
       </c>
       <c r="J315" t="n">
-        <v>2.7232123594418907</v>
+        <v>2.344623558962871</v>
       </c>
       <c r="K315" t="n">
-        <v>2.42395643854976</v>
+        <v>2.672672040384426</v>
       </c>
       <c r="L315" t="n">
-        <v>2.5363060990464725</v>
+        <v>2.7322486310631677</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>0.989007010874671</v>
+        <v>0.959336800548431</v>
       </c>
       <c r="C316" t="n">
-        <v>1.07629945473281</v>
+        <v>1.0581526077561991</v>
       </c>
       <c r="D316" t="n">
-        <v>0.9580240718508904</v>
+        <v>0.9369418586980497</v>
       </c>
       <c r="E316" t="n">
-        <v>1.002428202844483</v>
+        <v>0.9850724338660182</v>
       </c>
       <c r="F316" t="n">
-        <v>1.0312669948551088</v>
+        <v>1.002816330372291</v>
       </c>
       <c r="G316" t="n">
-        <v>1.0031378617402573</v>
+        <v>0.959336800548431</v>
       </c>
       <c r="H316" t="n">
-        <v>1.096887491229825</v>
+        <v>1.0614064605078868</v>
       </c>
       <c r="I316" t="n">
-        <v>0.989007010874671</v>
+        <v>1.056209855654497</v>
       </c>
       <c r="J316" t="n">
-        <v>1.07629945473281</v>
+        <v>0.9170281105601484</v>
       </c>
       <c r="K316" t="n">
-        <v>0.9580240718508904</v>
+        <v>1.04533428488828</v>
       </c>
       <c r="L316" t="n">
-        <v>1.002428202844483</v>
+        <v>1.06863585420626</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2.49894456977586</v>
+        <v>2.474202544332535</v>
       </c>
       <c r="C319" t="n">
-        <v>2.719508201947527</v>
+        <v>2.7290560238133215</v>
       </c>
       <c r="D319" t="n">
-        <v>2.420659333798919</v>
+        <v>2.4164442866750404</v>
       </c>
       <c r="E319" t="n">
-        <v>2.5328561744703704</v>
+        <v>2.5405766992674668</v>
       </c>
       <c r="F319" t="n">
-        <v>2.605723749625488</v>
+        <v>2.586339557376418</v>
       </c>
       <c r="G319" t="n">
-        <v>2.5346492843517856</v>
+        <v>2.474202544332535</v>
       </c>
       <c r="H319" t="n">
-        <v>2.771528421663727</v>
+        <v>2.737447957441331</v>
       </c>
       <c r="I319" t="n">
-        <v>2.49894456977586</v>
+        <v>2.724045518440974</v>
       </c>
       <c r="J319" t="n">
-        <v>2.719508201947527</v>
+        <v>2.3650852162403138</v>
       </c>
       <c r="K319" t="n">
-        <v>2.420659333798919</v>
+        <v>2.695996594595397</v>
       </c>
       <c r="L319" t="n">
-        <v>2.5328561744703704</v>
+        <v>2.7560931134202016</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.1033865714902278</v>
+        <v>1.070284974345521</v>
       </c>
       <c r="C323" t="n">
-        <v>1.0827103243497158</v>
+        <v>1.0650449006328238</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9966795864243226</v>
+        <v>0.967361516221016</v>
       </c>
       <c r="E323" t="n">
-        <v>1.1034588092777051</v>
+        <v>1.0670039035790984</v>
       </c>
       <c r="F323" t="n">
-        <v>1.049544414167938</v>
+        <v>1.017858381327724</v>
       </c>
       <c r="G323" t="n">
-        <v>1.0919315456317824</v>
+        <v>1.0389751449087117</v>
       </c>
       <c r="H323" t="n">
-        <v>1.0945389629840518</v>
+        <v>1.0364999215559</v>
       </c>
       <c r="I323" t="n">
-        <v>1.1033865714902278</v>
+        <v>1.0775748408923045</v>
       </c>
       <c r="J323" t="n">
-        <v>1.0827103243497158</v>
+        <v>1.0670039035790984</v>
       </c>
       <c r="K323" t="n">
-        <v>0.9966795864243226</v>
+        <v>1.0650449006328238</v>
       </c>
       <c r="L323" t="n">
-        <v>1.1034588092777051</v>
+        <v>0.9447792438723668</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>3.437408101735219</v>
+        <v>3.4721293956921406</v>
       </c>
       <c r="C327" t="n">
-        <v>3.4216998940741705</v>
+        <v>3.435580665636793</v>
       </c>
       <c r="D327" t="n">
-        <v>3.3271432782234456</v>
+        <v>3.4123387304942985</v>
       </c>
       <c r="E327" t="n">
-        <v>2.9210770487716844</v>
+        <v>2.948173630975511</v>
       </c>
       <c r="F327" t="n">
-        <v>3.3700346305177753</v>
+        <v>3.3956320524514574</v>
       </c>
       <c r="G327" t="n">
-        <v>3.275981275700087</v>
+        <v>3.3046234519384035</v>
       </c>
       <c r="H327" t="n">
-        <v>2.9980333190765505</v>
+        <v>3.0739405948846503</v>
       </c>
       <c r="I327" t="n">
-        <v>3.437408101735219</v>
+        <v>3.3125150889471247</v>
       </c>
       <c r="J327" t="n">
-        <v>3.4216998940741705</v>
+        <v>3.166930806898287</v>
       </c>
       <c r="K327" t="n">
-        <v>3.3271432782234456</v>
+        <v>3.084192759231439</v>
       </c>
       <c r="L327" t="n">
-        <v>2.9210770487716844</v>
+        <v>3.4018778484655643</v>
       </c>
     </row>
     <row r="328">
@@ -12567,37 +12567,37 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="n">
-        <v>4.418133379906339</v>
+        <v>4.4623147137054024</v>
       </c>
       <c r="C329" t="n">
-        <v>4.0854215680851755</v>
+        <v>4.0530418245658435</v>
       </c>
       <c r="D329" t="n">
-        <v>4.060309304634713</v>
+        <v>4.161770686169235</v>
       </c>
       <c r="E329" t="n">
-        <v>4.0151483043425635</v>
+        <v>4.039569109293595</v>
       </c>
       <c r="F329" t="n">
-        <v>4.362180205583985</v>
+        <v>4.484269523324393</v>
       </c>
       <c r="G329" t="n">
-        <v>3.9381515840518655</v>
+        <v>4.046294250208252</v>
       </c>
       <c r="H329" t="n">
-        <v>4.385068117879926</v>
+        <v>4.4623147137054024</v>
       </c>
       <c r="I329" t="n">
-        <v>4.418133379906339</v>
+        <v>4.470522525100171</v>
       </c>
       <c r="J329" t="n">
-        <v>4.0854215680851755</v>
+        <v>4.562842454941629</v>
       </c>
       <c r="K329" t="n">
-        <v>4.060309304634713</v>
+        <v>4.470522525100171</v>
       </c>
       <c r="L329" t="n">
-        <v>4.0151483043425635</v>
+        <v>3.8742944962374937</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>3.73140180299819</v>
+        <v>3.806783657604214</v>
       </c>
       <c r="C331" t="n">
-        <v>3.626336491511282</v>
+        <v>3.7323839766542815</v>
       </c>
       <c r="D331" t="n">
-        <v>3.8990932988882667</v>
+        <v>4.021085706116638</v>
       </c>
       <c r="E331" t="n">
-        <v>3.731390292511492</v>
+        <v>3.8215960460527145</v>
       </c>
       <c r="F331" t="n">
-        <v>3.7626530765587063</v>
+        <v>3.8215960460527145</v>
       </c>
       <c r="G331" t="n">
-        <v>3.823913664288509</v>
+        <v>3.924116031185078</v>
       </c>
       <c r="H331" t="n">
-        <v>3.974688540259885</v>
+        <v>3.994800283776217</v>
       </c>
       <c r="I331" t="n">
-        <v>3.73140180299819</v>
+        <v>4.302284910774207</v>
       </c>
       <c r="J331" t="n">
-        <v>3.626336491511282</v>
+        <v>3.8152337866432204</v>
       </c>
       <c r="K331" t="n">
-        <v>3.8990932988882667</v>
+        <v>3.653055943889994</v>
       </c>
       <c r="L331" t="n">
-        <v>3.731390292511492</v>
+        <v>4.207497727454646</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.642736699005695</v>
       </c>
       <c r="C333" t="n">
-        <v>2.568324998224553</v>
+        <v>2.591087121586724</v>
       </c>
       <c r="D333" t="n">
-        <v>2.761502914411333</v>
+        <v>2.791508980074147</v>
       </c>
       <c r="E333" t="n">
-        <v>2.6427285467918016</v>
+        <v>2.6530197216499123</v>
       </c>
       <c r="F333" t="n">
-        <v>2.6648701737396894</v>
+        <v>2.6530197216499123</v>
       </c>
       <c r="G333" t="n">
-        <v>2.7082575149973707</v>
+        <v>2.724190912728663</v>
       </c>
       <c r="H333" t="n">
-        <v>2.815042664132857</v>
+        <v>2.7732611739165427</v>
       </c>
       <c r="I333" t="n">
-        <v>2.642736699005695</v>
+        <v>2.9867224528427725</v>
       </c>
       <c r="J333" t="n">
-        <v>2.568324998224553</v>
+        <v>2.648602928382326</v>
       </c>
       <c r="K333" t="n">
-        <v>2.761502914411333</v>
+        <v>2.5360161949719853</v>
       </c>
       <c r="L333" t="n">
-        <v>2.6427285467918016</v>
+        <v>2.9209195098639658</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.6771474999458957</v>
+        <v>1.694261249945344</v>
       </c>
       <c r="C341" t="n">
-        <v>1.7155016803640466</v>
+        <v>1.7150369845963167</v>
       </c>
       <c r="D341" t="n">
-        <v>1.6336284521809858</v>
+        <v>1.6253488227870996</v>
       </c>
       <c r="E341" t="n">
-        <v>1.7019043172597161</v>
+        <v>1.6660067447145672</v>
       </c>
       <c r="F341" t="n">
-        <v>1.5665847701423274</v>
+        <v>1.5548778896020448</v>
       </c>
       <c r="G341" t="n">
-        <v>1.5276044525216246</v>
+        <v>1.5488512308413527</v>
       </c>
       <c r="H341" t="n">
-        <v>1.6904961606565196</v>
+        <v>1.711888202764756</v>
       </c>
       <c r="I341" t="n">
-        <v>1.6771474999458957</v>
+        <v>1.486304635075376</v>
       </c>
       <c r="J341" t="n">
-        <v>1.7155016803640466</v>
+        <v>1.6699852677368066</v>
       </c>
       <c r="K341" t="n">
-        <v>1.6336284521809858</v>
+        <v>1.5965897964084406</v>
       </c>
       <c r="L341" t="n">
-        <v>1.7019043172597161</v>
+        <v>1.6360434701342959</v>
       </c>
     </row>
     <row r="342">
@@ -13292,34 +13292,34 @@
         <v>2.5194752176653976</v>
       </c>
       <c r="C348" t="n">
-        <v>2.5770923366489784</v>
+        <v>2.5503700684941033</v>
       </c>
       <c r="D348" t="n">
-        <v>2.4540992371129273</v>
+        <v>2.4169980156282445</v>
       </c>
       <c r="E348" t="n">
-        <v>2.556665856945754</v>
+        <v>2.4774589549912465</v>
       </c>
       <c r="F348" t="n">
-        <v>2.3533836498417493</v>
+        <v>2.3122032151031027</v>
       </c>
       <c r="G348" t="n">
-        <v>2.294825923568267</v>
+        <v>2.3032411867303355</v>
       </c>
       <c r="H348" t="n">
-        <v>2.539528087106234</v>
+        <v>2.5456876278193206</v>
       </c>
       <c r="I348" t="n">
-        <v>2.5194752176653976</v>
+        <v>2.210230384537464</v>
       </c>
       <c r="J348" t="n">
-        <v>2.5770923366489784</v>
+        <v>2.4833752740699993</v>
       </c>
       <c r="K348" t="n">
-        <v>2.4540992371129273</v>
+        <v>2.374231497626635</v>
       </c>
       <c r="L348" t="n">
-        <v>2.556665856945754</v>
+        <v>2.432901642624259</v>
       </c>
     </row>
     <row r="349">
@@ -13406,34 +13406,34 @@
         <v>2.067837826553305</v>
       </c>
       <c r="C351" t="n">
-        <v>2.115126586234645</v>
+        <v>2.0931945122398252</v>
       </c>
       <c r="D351" t="n">
-        <v>2.014181047321446</v>
+        <v>1.98373053577863</v>
       </c>
       <c r="E351" t="n">
-        <v>2.09836172699035</v>
+        <v>2.03335333681559</v>
       </c>
       <c r="F351" t="n">
-        <v>1.9315195868622899</v>
+        <v>1.897721095783902</v>
       </c>
       <c r="G351" t="n">
-        <v>1.883458831758906</v>
+        <v>1.8903655873264607</v>
       </c>
       <c r="H351" t="n">
-        <v>2.08429604835678</v>
+        <v>2.0893514389362986</v>
       </c>
       <c r="I351" t="n">
-        <v>2.067837826553305</v>
+        <v>1.8140277635987458</v>
       </c>
       <c r="J351" t="n">
-        <v>2.115126586234645</v>
+        <v>2.038209105310245</v>
       </c>
       <c r="K351" t="n">
-        <v>2.014181047321446</v>
+        <v>1.9486302803708209</v>
       </c>
       <c r="L351" t="n">
-        <v>2.09836172699035</v>
+        <v>1.9967833021845744</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>4.541118000546895</v>
+        <v>4.361271743099493</v>
       </c>
       <c r="C353" t="n">
-        <v>4.644967458688595</v>
+        <v>4.414751467361819</v>
       </c>
       <c r="D353" t="n">
-        <v>4.423283921446358</v>
+        <v>4.183881260183504</v>
       </c>
       <c r="E353" t="n">
-        <v>4.608150643020898</v>
+        <v>4.288540589458213</v>
       </c>
       <c r="F353" t="n">
-        <v>4.241753512619159</v>
+        <v>4.002478958962398</v>
       </c>
       <c r="G353" t="n">
-        <v>4.1362086979739825</v>
+        <v>3.9869654739203733</v>
       </c>
       <c r="H353" t="n">
-        <v>4.577261418724582</v>
+        <v>4.406646050781222</v>
       </c>
       <c r="I353" t="n">
-        <v>4.541118000546895</v>
+        <v>3.8259615551032367</v>
       </c>
       <c r="J353" t="n">
-        <v>4.644967458688595</v>
+        <v>4.298781879009469</v>
       </c>
       <c r="K353" t="n">
-        <v>4.423283921446358</v>
+        <v>4.109851396661368</v>
       </c>
       <c r="L353" t="n">
-        <v>4.608150643020898</v>
+        <v>4.211410818142316</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>4.2872575030485205</v>
+        <v>4.244809408958931</v>
       </c>
       <c r="C356" t="n">
-        <v>4.267665668398372</v>
+        <v>4.20012720517444</v>
       </c>
       <c r="D356" t="n">
-        <v>4.14973129785789</v>
+        <v>4.171713061076677</v>
       </c>
       <c r="E356" t="n">
-        <v>3.6432710704345403</v>
+        <v>3.604253684651293</v>
       </c>
       <c r="F356" t="n">
-        <v>4.203226916212585</v>
+        <v>4.151288515771227</v>
       </c>
       <c r="G356" t="n">
-        <v>4.085920230711534</v>
+        <v>4.04002706214185</v>
       </c>
       <c r="H356" t="n">
-        <v>3.739253664734186</v>
+        <v>3.7580085511606076</v>
       </c>
       <c r="I356" t="n">
-        <v>4.2872575030485205</v>
+        <v>4.049674886634874</v>
       </c>
       <c r="J356" t="n">
-        <v>4.267665668398372</v>
+        <v>3.871692599740798</v>
       </c>
       <c r="K356" t="n">
-        <v>4.14973129785789</v>
+        <v>3.7705422095361953</v>
       </c>
       <c r="L356" t="n">
-        <v>3.6432710704345403</v>
+        <v>4.1589242374468105</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6.988290689346152</v>
+        <v>6.919099692421932</v>
       </c>
       <c r="C362" t="n">
-        <v>6.956355720295312</v>
+        <v>6.84626706492881</v>
       </c>
       <c r="D362" t="n">
-        <v>6.764121019436797</v>
+        <v>6.799951606036279</v>
       </c>
       <c r="E362" t="n">
-        <v>5.938583647513123</v>
+        <v>5.8749847539085716</v>
       </c>
       <c r="F362" t="n">
-        <v>6.851319637994955</v>
+        <v>6.766659306777204</v>
       </c>
       <c r="G362" t="n">
-        <v>6.660108072675602</v>
+        <v>6.585301555364228</v>
       </c>
       <c r="H362" t="n">
-        <v>6.09503664097259</v>
+        <v>6.125607372518412</v>
       </c>
       <c r="I362" t="n">
-        <v>6.988290689346152</v>
+        <v>6.601027646467715</v>
       </c>
       <c r="J362" t="n">
-        <v>6.956355720295312</v>
+        <v>6.310913988147449</v>
       </c>
       <c r="K362" t="n">
-        <v>6.764121019436797</v>
+        <v>6.146037413883383</v>
       </c>
       <c r="L362" t="n">
-        <v>5.938583647513123</v>
+        <v>6.779105641678707</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>2.606948424475518</v>
+        <v>2.555325683396795</v>
       </c>
       <c r="C364" t="n">
-        <v>2.4141645999058836</v>
+        <v>2.3788154076291015</v>
       </c>
       <c r="D364" t="n">
-        <v>2.4933219146146453</v>
+        <v>2.4789205961561556</v>
       </c>
       <c r="E364" t="n">
-        <v>2.423164767669685</v>
+        <v>2.4304726363973113</v>
       </c>
       <c r="F364" t="n">
-        <v>2.748352445248261</v>
+        <v>2.744899199890185</v>
       </c>
       <c r="G364" t="n">
-        <v>2.7136727833787306</v>
+        <v>2.7116478485008098</v>
       </c>
       <c r="H364" t="n">
-        <v>2.544282433618729</v>
+        <v>2.4885662020286894</v>
       </c>
       <c r="I364" t="n">
-        <v>2.606948424475518</v>
+        <v>2.6013542117640607</v>
       </c>
       <c r="J364" t="n">
-        <v>2.4141645999058836</v>
+        <v>2.7533398517859524</v>
       </c>
       <c r="K364" t="n">
-        <v>2.4933219146146453</v>
+        <v>2.4844231938341528</v>
       </c>
       <c r="L364" t="n">
-        <v>2.423164767669685</v>
+        <v>2.744899199890185</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>2.5387963041500017</v>
+        <v>2.564184267191502</v>
       </c>
       <c r="C366" t="n">
-        <v>2.4261368847092966</v>
+        <v>2.428872050570307</v>
       </c>
       <c r="D366" t="n">
-        <v>2.6783843809728047</v>
+        <v>2.6830563349027643</v>
       </c>
       <c r="E366" t="n">
-        <v>2.6517930484460464</v>
+        <v>2.617381523255494</v>
       </c>
       <c r="F366" t="n">
-        <v>2.7852470090764836</v>
+        <v>2.7435006581435495</v>
       </c>
       <c r="G366" t="n">
-        <v>2.738497747278401</v>
+        <v>2.6879914463351295</v>
       </c>
       <c r="H366" t="n">
-        <v>2.4359370249812495</v>
+        <v>2.4329156766011577</v>
       </c>
       <c r="I366" t="n">
-        <v>2.5387963041500017</v>
+        <v>2.436972791190086</v>
       </c>
       <c r="J366" t="n">
-        <v>2.4261368847092966</v>
+        <v>2.714621704183607</v>
       </c>
       <c r="K366" t="n">
-        <v>2.6783843809728047</v>
+        <v>2.6111459516912205</v>
       </c>
       <c r="L366" t="n">
-        <v>2.6517930484460464</v>
+        <v>2.65542946806019</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>3.568903651678711</v>
       </c>
       <c r="C381" t="n">
-        <v>3.300143906767985</v>
+        <v>3.2415722996122462</v>
       </c>
       <c r="D381" t="n">
-        <v>3.2798585869227583</v>
+        <v>3.328532286998925</v>
       </c>
       <c r="E381" t="n">
-        <v>3.243378190113295</v>
+        <v>3.2307969899763127</v>
       </c>
       <c r="F381" t="n">
-        <v>3.523705494223741</v>
+        <v>3.586462834580013</v>
       </c>
       <c r="G381" t="n">
-        <v>3.1811813634030566</v>
+        <v>3.2361756738003513</v>
       </c>
       <c r="H381" t="n">
-        <v>3.542194015675761</v>
+        <v>3.568903651678711</v>
       </c>
       <c r="I381" t="n">
-        <v>3.568903651678711</v>
+        <v>3.5754681568600937</v>
       </c>
       <c r="J381" t="n">
-        <v>3.300143906767985</v>
+        <v>3.6493044852844303</v>
       </c>
       <c r="K381" t="n">
-        <v>3.2798585869227583</v>
+        <v>3.5754681568600937</v>
       </c>
       <c r="L381" t="n">
-        <v>3.243378190113295</v>
+        <v>3.098612415846196</v>
       </c>
     </row>
     <row r="382">
@@ -14774,34 +14774,34 @@
         <v>3.144288787564897</v>
       </c>
       <c r="C387" t="n">
-        <v>2.9075050761093895</v>
+        <v>2.855902100623397</v>
       </c>
       <c r="D387" t="n">
-        <v>2.889633228066781</v>
+        <v>2.9325159125928257</v>
       </c>
       <c r="E387" t="n">
-        <v>2.857493132998661</v>
+        <v>2.846408797195363</v>
       </c>
       <c r="F387" t="n">
-        <v>3.1044681385436186</v>
+        <v>3.159758844283686</v>
       </c>
       <c r="G387" t="n">
-        <v>2.802696253078652</v>
+        <v>2.851147545250897</v>
       </c>
       <c r="H387" t="n">
-        <v>3.120756964573679</v>
+        <v>3.144288787564897</v>
       </c>
       <c r="I387" t="n">
-        <v>3.144288787564897</v>
+        <v>3.1500722723692633</v>
       </c>
       <c r="J387" t="n">
-        <v>2.9075050761093895</v>
+        <v>3.21512382944069</v>
       </c>
       <c r="K387" t="n">
-        <v>2.889633228066781</v>
+        <v>3.1500722723692633</v>
       </c>
       <c r="L387" t="n">
-        <v>2.857493132998661</v>
+        <v>2.7299510513744947</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>1.3005939818273209</v>
+        <v>1.3140021672069842</v>
       </c>
       <c r="C389" t="n">
-        <v>1.2026514927876073</v>
+        <v>1.1934850146052842</v>
       </c>
       <c r="D389" t="n">
-        <v>1.1952590363121476</v>
+        <v>1.2255020212377385</v>
       </c>
       <c r="E389" t="n">
-        <v>1.1819647058466156</v>
+        <v>1.1895177513794242</v>
       </c>
       <c r="F389" t="n">
-        <v>1.2841226905533278</v>
+        <v>1.3204671230137461</v>
       </c>
       <c r="G389" t="n">
-        <v>1.1592986923020798</v>
+        <v>1.1914980800437138</v>
       </c>
       <c r="H389" t="n">
-        <v>1.29086035065297</v>
+        <v>1.3140021672069842</v>
       </c>
       <c r="I389" t="n">
-        <v>1.3005939818273209</v>
+        <v>1.316419092648757</v>
       </c>
       <c r="J389" t="n">
-        <v>1.2026514927876073</v>
+        <v>1.3436042186811026</v>
       </c>
       <c r="K389" t="n">
-        <v>1.1952590363121476</v>
+        <v>1.316419092648757</v>
       </c>
       <c r="L389" t="n">
-        <v>1.1819647058466156</v>
+        <v>1.1408499155871614</v>
       </c>
     </row>
     <row r="390">
@@ -15040,34 +15040,34 @@
         <v>1.8124825153440105</v>
       </c>
       <c r="C394" t="n">
-        <v>1.732053365675207</v>
+        <v>1.7168376625632176</v>
       </c>
       <c r="D394" t="n">
-        <v>1.912136413602119</v>
+        <v>1.896506720252433</v>
       </c>
       <c r="E394" t="n">
-        <v>1.8931524859882083</v>
+        <v>1.8500847648055398</v>
       </c>
       <c r="F394" t="n">
-        <v>1.9884271521166748</v>
+        <v>1.9392315276804568</v>
       </c>
       <c r="G394" t="n">
-        <v>1.9550521942771037</v>
+        <v>1.8999950823396996</v>
       </c>
       <c r="H394" t="n">
-        <v>1.739049824139322</v>
+        <v>1.7196958820653339</v>
       </c>
       <c r="I394" t="n">
-        <v>1.8124825153440105</v>
+        <v>1.7225636358961585</v>
       </c>
       <c r="J394" t="n">
-        <v>1.732053365675207</v>
+        <v>1.9188185644689049</v>
       </c>
       <c r="K394" t="n">
-        <v>1.912136413602119</v>
+        <v>1.8456771781207495</v>
       </c>
       <c r="L394" t="n">
-        <v>1.8931524859882083</v>
+        <v>1.8769787893831171</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>1.2082119244322849</v>
+        <v>1.2204160852851362</v>
       </c>
       <c r="C395" t="n">
-        <v>1.2818896998379457</v>
+        <v>1.2884053421343467</v>
       </c>
       <c r="D395" t="n">
-        <v>1.3206141715297572</v>
+        <v>1.3151349456876849</v>
       </c>
       <c r="E395" t="n">
-        <v>1.2373420779038031</v>
+        <v>1.2244864002087976</v>
       </c>
       <c r="F395" t="n">
-        <v>1.3333438835074396</v>
+        <v>1.3481340476838481</v>
       </c>
       <c r="G395" t="n">
-        <v>1.3461375955161117</v>
+        <v>1.3547669340347077</v>
       </c>
       <c r="H395" t="n">
-        <v>1.3407385693866734</v>
+        <v>1.3506137540040386</v>
       </c>
       <c r="I395" t="n">
-        <v>1.2082119244322849</v>
+        <v>1.2573350650157047</v>
       </c>
       <c r="J395" t="n">
-        <v>1.2818896998379457</v>
+        <v>1.3506137540040386</v>
       </c>
       <c r="K395" t="n">
-        <v>1.3206141715297572</v>
+        <v>1.3639944485638618</v>
       </c>
       <c r="L395" t="n">
-        <v>1.2373420779038031</v>
+        <v>1.3120018074739204</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>0.7152483799267295</v>
+        <v>0.7226220745651495</v>
       </c>
       <c r="C397" t="n">
-        <v>0.7588648253779413</v>
+        <v>0.7628792773543445</v>
       </c>
       <c r="D397" t="n">
-        <v>0.7817892934128858</v>
+        <v>0.7787061759055091</v>
       </c>
       <c r="E397" t="n">
-        <v>0.7324931154372738</v>
+        <v>0.7250321537584129</v>
       </c>
       <c r="F397" t="n">
-        <v>0.7893251450998731</v>
+        <v>0.7982453149178265</v>
       </c>
       <c r="G397" t="n">
-        <v>0.7968988841123825</v>
+        <v>0.8021727214417197</v>
       </c>
       <c r="H397" t="n">
-        <v>0.7937027190901929</v>
+        <v>0.7997135768876691</v>
       </c>
       <c r="I397" t="n">
-        <v>0.7152483799267295</v>
+        <v>0.7444822172209216</v>
       </c>
       <c r="J397" t="n">
-        <v>0.7588648253779413</v>
+        <v>0.7997135768876691</v>
       </c>
       <c r="K397" t="n">
-        <v>0.7817892934128858</v>
+        <v>0.8076364364587004</v>
       </c>
       <c r="L397" t="n">
-        <v>0.7324931154372738</v>
+        <v>0.7768510095706596</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>2.773816671074971</v>
+        <v>2.746353139678189</v>
       </c>
       <c r="C398" t="n">
-        <v>2.9429663356124807</v>
+        <v>2.8993521957079937</v>
       </c>
       <c r="D398" t="n">
-        <v>3.031870097432072</v>
+        <v>2.959502935710665</v>
       </c>
       <c r="E398" t="n">
-        <v>2.8406937674653556</v>
+        <v>2.7555127388549443</v>
       </c>
       <c r="F398" t="n">
-        <v>3.061095009541981</v>
+        <v>3.0337621891459796</v>
       </c>
       <c r="G398" t="n">
-        <v>3.0904668531208808</v>
+        <v>3.048688449520986</v>
       </c>
       <c r="H398" t="n">
-        <v>3.0780717522428276</v>
+        <v>3.0393423755431006</v>
       </c>
       <c r="I398" t="n">
-        <v>2.773816671074971</v>
+        <v>2.829433457218475</v>
       </c>
       <c r="J398" t="n">
-        <v>2.9429663356124807</v>
+        <v>3.0393423755431006</v>
       </c>
       <c r="K398" t="n">
-        <v>3.031870097432072</v>
+        <v>3.069453509736206</v>
       </c>
       <c r="L398" t="n">
-        <v>2.8406937674653556</v>
+        <v>2.9524523043119424</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>2.2600845294293097</v>
+        <v>2.2377074548805047</v>
       </c>
       <c r="C403" t="n">
-        <v>2.397906377558598</v>
+        <v>2.362369911183445</v>
       </c>
       <c r="D403" t="n">
-        <v>2.4703444801887398</v>
+        <v>2.411380272369672</v>
       </c>
       <c r="E403" t="n">
-        <v>2.3145754741630453</v>
+        <v>2.2451706259728956</v>
       </c>
       <c r="F403" t="n">
-        <v>2.494156714220753</v>
+        <v>2.471886141991936</v>
       </c>
       <c r="G403" t="n">
-        <v>2.5180886668857294</v>
+        <v>2.4840479443588936</v>
       </c>
       <c r="H403" t="n">
-        <v>2.5079892338455685</v>
+        <v>2.47643283503008</v>
       </c>
       <c r="I403" t="n">
-        <v>2.2600845294293097</v>
+        <v>2.305400659817552</v>
       </c>
       <c r="J403" t="n">
-        <v>2.397906377558598</v>
+        <v>2.47643283503008</v>
       </c>
       <c r="K403" t="n">
-        <v>2.4703444801887398</v>
+        <v>2.5009671560120914</v>
       </c>
       <c r="L403" t="n">
-        <v>2.3145754741630453</v>
+        <v>2.4056354720326016</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>3.5024125858277526</v>
+        <v>3.5731683956424543</v>
       </c>
       <c r="C406" t="n">
-        <v>3.3947286422819745</v>
+        <v>3.445174303226775</v>
       </c>
       <c r="D406" t="n">
-        <v>3.1161670025325745</v>
+        <v>3.2023678995481712</v>
       </c>
       <c r="E406" t="n">
-        <v>3.284007957717974</v>
+        <v>3.3530894590673204</v>
       </c>
       <c r="F406" t="n">
-        <v>3.1633522830085186</v>
+        <v>3.2937596789909667</v>
       </c>
       <c r="G406" t="n">
-        <v>3.3921570377963164</v>
+        <v>3.5316199250996645</v>
       </c>
       <c r="H406" t="n">
-        <v>3.5330395512222377</v>
+        <v>3.6111808249359547</v>
       </c>
       <c r="I406" t="n">
-        <v>3.5024125858277526</v>
+        <v>3.548995670217787</v>
       </c>
       <c r="J406" t="n">
-        <v>3.3947286422819745</v>
+        <v>3.5316199250996645</v>
       </c>
       <c r="K406" t="n">
-        <v>3.1161670025325745</v>
+        <v>3.1970454059149094</v>
       </c>
       <c r="L406" t="n">
-        <v>3.284007957717974</v>
+        <v>3.2077081477324088</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>7.353480662802573</v>
+        <v>7.281387715128038</v>
       </c>
       <c r="C407" t="n">
-        <v>7.127393136803389</v>
+        <v>7.020561885239625</v>
       </c>
       <c r="D407" t="n">
-        <v>6.54253981609969</v>
+        <v>6.525772004344039</v>
       </c>
       <c r="E407" t="n">
-        <v>6.894929829593905</v>
+        <v>6.832911772295095</v>
       </c>
       <c r="F407" t="n">
-        <v>6.641607541287974</v>
+        <v>6.712009792887675</v>
       </c>
       <c r="G407" t="n">
-        <v>7.1219939317142495</v>
+        <v>7.196720414431667</v>
       </c>
       <c r="H407" t="n">
-        <v>7.41778342333398</v>
+        <v>7.358849285653907</v>
       </c>
       <c r="I407" t="n">
-        <v>7.353480662802573</v>
+        <v>7.232128635661482</v>
       </c>
       <c r="J407" t="n">
-        <v>7.127393136803389</v>
+        <v>7.196720414431667</v>
       </c>
       <c r="K407" t="n">
-        <v>6.54253981609969</v>
+        <v>6.514925848925687</v>
       </c>
       <c r="L407" t="n">
-        <v>6.894929829593905</v>
+        <v>6.536654339912623</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>3.9376867157428923</v>
+        <v>4.017235942323557</v>
       </c>
       <c r="C410" t="n">
-        <v>3.8166199871356445</v>
+        <v>3.8733349526348526</v>
       </c>
       <c r="D410" t="n">
-        <v>3.503439160640432</v>
+        <v>3.60035296469565</v>
       </c>
       <c r="E410" t="n">
-        <v>3.692139116283993</v>
+        <v>3.769805954071069</v>
       </c>
       <c r="F410" t="n">
-        <v>3.556488550898038</v>
+        <v>3.7031027655889526</v>
       </c>
       <c r="G410" t="n">
-        <v>3.8137287878342554</v>
+        <v>3.9705238955539124</v>
       </c>
       <c r="H410" t="n">
-        <v>3.972119950498094</v>
+        <v>4.059972494398491</v>
       </c>
       <c r="I410" t="n">
-        <v>3.9376867157428923</v>
+        <v>3.990059069966151</v>
       </c>
       <c r="J410" t="n">
-        <v>3.8166199871356445</v>
+        <v>3.9705238955539124</v>
       </c>
       <c r="K410" t="n">
-        <v>3.503439160640432</v>
+        <v>3.5943690002252366</v>
       </c>
       <c r="L410" t="n">
-        <v>3.692139116283993</v>
+        <v>3.6063568902237075</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>7.059783549353879</v>
+        <v>7.200979220340957</v>
       </c>
       <c r="C414" t="n">
-        <v>6.8427259313421605</v>
+        <v>6.943033694757635</v>
       </c>
       <c r="D414" t="n">
-        <v>6.281231580350648</v>
+        <v>6.453707787367544</v>
       </c>
       <c r="E414" t="n">
-        <v>6.6195471800376815</v>
+        <v>6.757455805367023</v>
       </c>
       <c r="F414" t="n">
-        <v>6.376342552776815</v>
+        <v>6.637888948680884</v>
       </c>
       <c r="G414" t="n">
-        <v>6.837542369840366</v>
+        <v>7.117246902160699</v>
       </c>
       <c r="H414" t="n">
-        <v>7.1215180655366765</v>
+        <v>7.277585381357882</v>
       </c>
       <c r="I414" t="n">
-        <v>7.059783549353879</v>
+        <v>7.152264109770094</v>
       </c>
       <c r="J414" t="n">
-        <v>6.8427259313421605</v>
+        <v>7.117246902160699</v>
       </c>
       <c r="K414" t="n">
-        <v>6.281231580350648</v>
+        <v>6.442981406237492</v>
       </c>
       <c r="L414" t="n">
-        <v>6.6195471800376815</v>
+        <v>6.464469949109782</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7.954922658066449</v>
+        <v>8.034471884647115</v>
       </c>
       <c r="C416" t="n">
-        <v>7.710343408354838</v>
+        <v>7.746669905269705</v>
       </c>
       <c r="D416" t="n">
-        <v>7.0776548699806705</v>
+        <v>7.2007059293913</v>
       </c>
       <c r="E416" t="n">
-        <v>7.458866901583825</v>
+        <v>7.539611908142138</v>
       </c>
       <c r="F416" t="n">
-        <v>7.184825355349572</v>
+        <v>7.406205531177905</v>
       </c>
       <c r="G416" t="n">
-        <v>7.704502601685365</v>
+        <v>7.941047791107825</v>
       </c>
       <c r="H416" t="n">
-        <v>8.024484748481</v>
+        <v>8.119944988796982</v>
       </c>
       <c r="I416" t="n">
-        <v>7.954922658066449</v>
+        <v>7.980118139932302</v>
       </c>
       <c r="J416" t="n">
-        <v>7.710343408354838</v>
+        <v>7.941047791107825</v>
       </c>
       <c r="K416" t="n">
-        <v>7.0776548699806705</v>
+        <v>7.188738000450473</v>
       </c>
       <c r="L416" t="n">
-        <v>7.458866901583825</v>
+        <v>7.212713780447415</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.6296094705202089</v>
+        <v>1.6460701722426352</v>
       </c>
       <c r="C420" t="n">
-        <v>1.4512063568926885</v>
+        <v>1.492351557745526</v>
       </c>
       <c r="D420" t="n">
-        <v>1.6108382612596712</v>
+        <v>1.6261298925737138</v>
       </c>
       <c r="E420" t="n">
-        <v>1.4418468521751995</v>
+        <v>1.4865672491193216</v>
       </c>
       <c r="F420" t="n">
-        <v>1.4659687658812106</v>
+        <v>1.48739083232154</v>
       </c>
       <c r="G420" t="n">
-        <v>1.6037039422191182</v>
+        <v>1.6430480124301157</v>
       </c>
       <c r="H420" t="n">
-        <v>1.5834076837565274</v>
+        <v>1.6028301208636757</v>
       </c>
       <c r="I420" t="n">
-        <v>1.6296094705202089</v>
+        <v>1.4575138174056048</v>
       </c>
       <c r="J420" t="n">
-        <v>1.4512063568926885</v>
+        <v>1.599011586257537</v>
       </c>
       <c r="K420" t="n">
-        <v>1.6108382612596712</v>
+        <v>1.559988642057924</v>
       </c>
       <c r="L420" t="n">
-        <v>1.4418468521751995</v>
+        <v>1.4898670649770276</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.891934583744795</v>
+        <v>1.9110450340856517</v>
       </c>
       <c r="C423" t="n">
-        <v>1.684813168077082</v>
+        <v>1.732581685538974</v>
       </c>
       <c r="D423" t="n">
-        <v>1.8701416937173552</v>
+        <v>1.8878948834528544</v>
       </c>
       <c r="E423" t="n">
-        <v>1.6739470243892403</v>
+        <v>1.7258662523441264</v>
       </c>
       <c r="F423" t="n">
-        <v>1.7019519443360678</v>
+        <v>1.7268224112098274</v>
       </c>
       <c r="G423" t="n">
-        <v>1.86185893323488</v>
+        <v>1.9075363844549618</v>
       </c>
       <c r="H423" t="n">
-        <v>1.8382955003998094</v>
+        <v>1.860844449168432</v>
       </c>
       <c r="I423" t="n">
-        <v>1.891934583744795</v>
+        <v>1.6921359671254832</v>
       </c>
       <c r="J423" t="n">
-        <v>1.684813168077082</v>
+        <v>1.8564112289329886</v>
       </c>
       <c r="K423" t="n">
-        <v>1.8701416937173552</v>
+        <v>1.8111065967334574</v>
       </c>
       <c r="L423" t="n">
-        <v>1.6739470243892403</v>
+        <v>1.7296972534852713</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>3.7724556439895514</v>
+        <v>3.8101802004294467</v>
       </c>
       <c r="C425" t="n">
-        <v>3.6662343769612096</v>
+        <v>3.735714137534739</v>
       </c>
       <c r="D425" t="n">
-        <v>3.9419921247864647</v>
+        <v>4.0246734565729785</v>
       </c>
       <c r="E425" t="n">
-        <v>3.7724440068615226</v>
+        <v>3.8250058049984927</v>
       </c>
       <c r="F425" t="n">
-        <v>3.8040507520882025</v>
+        <v>3.8250058049984927</v>
       </c>
       <c r="G425" t="n">
-        <v>3.865985344538075</v>
+        <v>3.927617261974613</v>
       </c>
       <c r="H425" t="n">
-        <v>4.018419084419161</v>
+        <v>3.9983645814780298</v>
       </c>
       <c r="I425" t="n">
-        <v>3.7724556439895514</v>
+        <v>4.306123556796711</v>
       </c>
       <c r="J425" t="n">
-        <v>3.6662343769612096</v>
+        <v>3.81863786896314</v>
       </c>
       <c r="K425" t="n">
-        <v>3.9419921247864647</v>
+        <v>3.6563153255813092</v>
       </c>
       <c r="L425" t="n">
-        <v>3.7724440068615226</v>
+        <v>4.211251801104149</v>
       </c>
     </row>
     <row r="426">
@@ -16332,34 +16332,34 @@
         <v>2.199611500505968</v>
       </c>
       <c r="C428" t="n">
-        <v>1.9588068491093986</v>
+        <v>1.994200310879087</v>
       </c>
       <c r="D428" t="n">
-        <v>2.1742745295845225</v>
+        <v>2.1729656932842087</v>
       </c>
       <c r="E428" t="n">
-        <v>1.9461735927445736</v>
+        <v>1.9864708519585472</v>
       </c>
       <c r="F428" t="n">
-        <v>1.9787328284153243</v>
+        <v>1.9875713901456615</v>
       </c>
       <c r="G428" t="n">
-        <v>2.1646447805595184</v>
+        <v>2.195573047229746</v>
       </c>
       <c r="H428" t="n">
-        <v>2.1372493313189684</v>
+        <v>2.1418306623014542</v>
       </c>
       <c r="I428" t="n">
-        <v>2.199611500505968</v>
+        <v>1.9476473172124014</v>
       </c>
       <c r="J428" t="n">
-        <v>1.9588068491093986</v>
+        <v>2.1367280289044226</v>
       </c>
       <c r="K428" t="n">
-        <v>2.1742745295845225</v>
+        <v>2.0845824288610615</v>
       </c>
       <c r="L428" t="n">
-        <v>1.9461735927445736</v>
+        <v>1.9908803315983328</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>3.452989430718461</v>
+        <v>3.522746792955198</v>
       </c>
       <c r="C429" t="n">
-        <v>3.29976257121668</v>
+        <v>3.336851152283453</v>
       </c>
       <c r="D429" t="n">
-        <v>3.6428416662584167</v>
+        <v>3.686056505388797</v>
       </c>
       <c r="E429" t="n">
-        <v>3.606675082112408</v>
+        <v>3.5958306448418256</v>
       </c>
       <c r="F429" t="n">
-        <v>3.7881843724761737</v>
+        <v>3.7690965772639906</v>
       </c>
       <c r="G429" t="n">
-        <v>3.7246012064621064</v>
+        <v>3.6928364970585386</v>
       </c>
       <c r="H429" t="n">
-        <v>3.313091636145322</v>
+        <v>3.3424063968165187</v>
       </c>
       <c r="I429" t="n">
-        <v>3.452989430718461</v>
+        <v>3.3479801723012472</v>
       </c>
       <c r="J429" t="n">
-        <v>3.29976257121668</v>
+        <v>3.729421876912711</v>
       </c>
       <c r="K429" t="n">
-        <v>3.6428416662584167</v>
+        <v>3.5872640453148943</v>
       </c>
       <c r="L429" t="n">
-        <v>3.606675082112408</v>
+        <v>3.6481019567183632</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>2.180609322197786</v>
+        <v>2.1588032289758075</v>
       </c>
       <c r="C446" t="n">
-        <v>2.2049029630655297</v>
+        <v>2.1536601606428722</v>
       </c>
       <c r="D446" t="n">
-        <v>2.0604361796454524</v>
+        <v>2.0100030063648457</v>
       </c>
       <c r="E446" t="n">
-        <v>2.2645597212764037</v>
+        <v>2.212971486139234</v>
       </c>
       <c r="F446" t="n">
-        <v>1.9807571254525702</v>
+        <v>1.9213578152044626</v>
       </c>
       <c r="G446" t="n">
-        <v>2.035462250797601</v>
+        <v>2.003321555895477</v>
       </c>
       <c r="H446" t="n">
-        <v>2.153549030503001</v>
+        <v>2.1149263974389365</v>
       </c>
       <c r="I446" t="n">
-        <v>2.180609322197786</v>
+        <v>2.002212296683826</v>
       </c>
       <c r="J446" t="n">
-        <v>2.2049029630655297</v>
+        <v>2.1011013418100486</v>
       </c>
       <c r="K446" t="n">
-        <v>2.0604361796454524</v>
+        <v>2.22385941556322</v>
       </c>
       <c r="L446" t="n">
-        <v>2.2645597212764037</v>
+        <v>2.262825662546487</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.6632840355471445</v>
+        <v>1.6800848843910552</v>
       </c>
       <c r="C447" t="n">
-        <v>1.6818142805613725</v>
+        <v>1.6760823003437568</v>
       </c>
       <c r="D447" t="n">
-        <v>1.5716206332704954</v>
+        <v>1.5642813681431635</v>
       </c>
       <c r="E447" t="n">
-        <v>1.727318136999368</v>
+        <v>1.7222412369722284</v>
       </c>
       <c r="F447" t="n">
-        <v>1.5108445476794534</v>
+        <v>1.4952934012254133</v>
       </c>
       <c r="G447" t="n">
-        <v>1.5525714910263193</v>
+        <v>1.5590815408551897</v>
       </c>
       <c r="H447" t="n">
-        <v>1.642643496815603</v>
+        <v>1.6459378160289968</v>
       </c>
       <c r="I447" t="n">
-        <v>1.6632840355471445</v>
+        <v>1.5582182617895703</v>
       </c>
       <c r="J447" t="n">
-        <v>1.6818142805613725</v>
+        <v>1.6351784903636466</v>
       </c>
       <c r="K447" t="n">
-        <v>1.5716206332704954</v>
+        <v>1.7307147492414476</v>
       </c>
       <c r="L447" t="n">
-        <v>1.727318136999368</v>
+        <v>1.7610401636559398</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>2.144772634785824</v>
       </c>
       <c r="C449" t="n">
-        <v>2.1686670277896734</v>
+        <v>2.139662992521417</v>
       </c>
       <c r="D449" t="n">
-        <v>2.0265744481786574</v>
+        <v>1.996939501491207</v>
       </c>
       <c r="E449" t="n">
-        <v>2.227343371685039</v>
+        <v>2.198588839096985</v>
       </c>
       <c r="F449" t="n">
-        <v>1.9482048597985298</v>
+        <v>1.908870437273461</v>
       </c>
       <c r="G449" t="n">
-        <v>2.0020109472201386</v>
+        <v>1.9903014754149824</v>
       </c>
       <c r="H449" t="n">
-        <v>2.118157058797274</v>
+        <v>2.101180969589902</v>
       </c>
       <c r="I449" t="n">
-        <v>2.144772634785824</v>
+        <v>1.9891994255523084</v>
       </c>
       <c r="J449" t="n">
-        <v>2.1686670277896734</v>
+        <v>2.087445766404525</v>
       </c>
       <c r="K449" t="n">
-        <v>2.0265744481786574</v>
+        <v>2.2094060051844773</v>
       </c>
       <c r="L449" t="n">
-        <v>2.227343371685039</v>
+        <v>2.2481190009259495</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>1.694709751306558</v>
+        <v>1.7120027079525435</v>
       </c>
       <c r="C450" t="n">
-        <v>1.7135901026167186</v>
+        <v>1.7079240838357233</v>
       </c>
       <c r="D450" t="n">
-        <v>1.601314481252714</v>
+        <v>1.59399918607771</v>
       </c>
       <c r="E450" t="n">
-        <v>1.7599536987190267</v>
+        <v>1.754959936153861</v>
       </c>
       <c r="F450" t="n">
-        <v>1.539390105922857</v>
+        <v>1.5237006033831</v>
       </c>
       <c r="G450" t="n">
-        <v>1.5819054287846481</v>
+        <v>1.5887005737988886</v>
       </c>
       <c r="H450" t="n">
-        <v>1.6736792348625897</v>
+        <v>1.6772069223064667</v>
       </c>
       <c r="I450" t="n">
-        <v>1.694709751306558</v>
+        <v>1.587820894378051</v>
       </c>
       <c r="J450" t="n">
-        <v>1.7135901026167186</v>
+        <v>1.6662431937199202</v>
       </c>
       <c r="K450" t="n">
-        <v>1.601314481252714</v>
+        <v>1.7635944260451442</v>
       </c>
       <c r="L450" t="n">
-        <v>1.7599536987190267</v>
+        <v>1.7944959549379604</v>
       </c>
     </row>
     <row r="451">
@@ -17244,34 +17244,34 @@
         <v>2.9848150769813517</v>
       </c>
       <c r="C452" t="n">
-        <v>3.0180681795883464</v>
+        <v>2.9777041426932955</v>
       </c>
       <c r="D452" t="n">
-        <v>2.820322242759716</v>
+        <v>2.779080185562789</v>
       </c>
       <c r="E452" t="n">
-        <v>3.0997262691594676</v>
+        <v>3.0597094575830996</v>
       </c>
       <c r="F452" t="n">
-        <v>2.71125766165684</v>
+        <v>2.656517137886168</v>
       </c>
       <c r="G452" t="n">
-        <v>2.786137962889997</v>
+        <v>2.769842245842577</v>
       </c>
       <c r="H452" t="n">
-        <v>2.947774986481922</v>
+        <v>2.9241498776044006</v>
       </c>
       <c r="I452" t="n">
-        <v>2.9848150769813517</v>
+        <v>2.768308556447094</v>
       </c>
       <c r="J452" t="n">
-        <v>3.0180681795883464</v>
+        <v>2.9050350115863486</v>
       </c>
       <c r="K452" t="n">
-        <v>2.820322242759716</v>
+        <v>3.0747633798052014</v>
       </c>
       <c r="L452" t="n">
-        <v>3.0997262691594676</v>
+        <v>3.1286390827539194</v>
       </c>
     </row>
     <row r="453">
@@ -17396,34 +17396,34 @@
         <v>1.0818718997388674</v>
       </c>
       <c r="C456" t="n">
-        <v>1.0615988138129036</v>
+        <v>1.076575096888959</v>
       </c>
       <c r="D456" t="n">
-        <v>0.9772455687398044</v>
+        <v>0.977834190308309</v>
       </c>
       <c r="E456" t="n">
-        <v>1.0819427289789454</v>
+        <v>1.078555308038215</v>
       </c>
       <c r="F456" t="n">
-        <v>1.0290795978082465</v>
+        <v>1.0288777354325955</v>
       </c>
       <c r="G456" t="n">
-        <v>1.0706402326991855</v>
+        <v>1.0502231094958632</v>
       </c>
       <c r="H456" t="n">
-        <v>1.073196808642014</v>
+        <v>1.0477210893281765</v>
       </c>
       <c r="I456" t="n">
-        <v>1.0818718997388674</v>
+        <v>1.0892406865188877</v>
       </c>
       <c r="J456" t="n">
-        <v>1.0615988138129036</v>
+        <v>1.078555308038215</v>
       </c>
       <c r="K456" t="n">
-        <v>0.9772455687398044</v>
+        <v>1.076575096888959</v>
       </c>
       <c r="L456" t="n">
-        <v>1.0819427289789454</v>
+        <v>0.9550074418517186</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>2.19908587080545</v>
+        <v>2.221525522548363</v>
       </c>
       <c r="C458" t="n">
-        <v>2.1578774275247135</v>
+        <v>2.210649019774034</v>
       </c>
       <c r="D458" t="n">
-        <v>1.9864153261043735</v>
+        <v>2.007893551089226</v>
       </c>
       <c r="E458" t="n">
-        <v>2.1992298431011843</v>
+        <v>2.2147152032188293</v>
       </c>
       <c r="F458" t="n">
-        <v>2.091776673394051</v>
+        <v>2.1127068273027243</v>
       </c>
       <c r="G458" t="n">
-        <v>2.176255626024606</v>
+        <v>2.156537611040925</v>
       </c>
       <c r="H458" t="n">
-        <v>2.181452294904602</v>
+        <v>2.151399940248488</v>
       </c>
       <c r="I458" t="n">
-        <v>2.19908587080545</v>
+        <v>2.236656655823923</v>
       </c>
       <c r="J458" t="n">
-        <v>2.1578774275247135</v>
+        <v>2.2147152032188293</v>
       </c>
       <c r="K458" t="n">
-        <v>1.9864153261043735</v>
+        <v>2.210649019774034</v>
       </c>
       <c r="L458" t="n">
-        <v>2.1992298431011843</v>
+        <v>1.9610208998027412</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>3.184700394504629</v>
       </c>
       <c r="C460" t="n">
-        <v>3.284400499005537</v>
+        <v>3.2387110605721325</v>
       </c>
       <c r="D460" t="n">
-        <v>3.328966448202347</v>
+        <v>3.278425479825827</v>
       </c>
       <c r="E460" t="n">
-        <v>2.947131650296218</v>
+        <v>2.967320731363105</v>
       </c>
       <c r="F460" t="n">
-        <v>2.9636548937775737</v>
+        <v>2.9607485933284923</v>
       </c>
       <c r="G460" t="n">
-        <v>2.899422390160622</v>
+        <v>2.841185951194679</v>
       </c>
       <c r="H460" t="n">
-        <v>2.994681177666691</v>
+        <v>2.972269016396173</v>
       </c>
       <c r="I460" t="n">
-        <v>3.184700394504629</v>
+        <v>3.272406340483808</v>
       </c>
       <c r="J460" t="n">
-        <v>3.284400499005537</v>
+        <v>3.1274232840252294</v>
       </c>
       <c r="K460" t="n">
-        <v>3.328966448202347</v>
+        <v>3.278425479825827</v>
       </c>
       <c r="L460" t="n">
-        <v>2.947131650296218</v>
+        <v>2.96238889773376</v>
       </c>
     </row>
     <row r="461">
@@ -17586,34 +17586,34 @@
         <v>1.6495483078794815</v>
       </c>
       <c r="C461" t="n">
-        <v>1.6186375923014718</v>
+        <v>1.641472183358319</v>
       </c>
       <c r="D461" t="n">
-        <v>1.490022778747243</v>
+        <v>1.4909202599671012</v>
       </c>
       <c r="E461" t="n">
-        <v>1.6496563024148303</v>
+        <v>1.6444914446509804</v>
       </c>
       <c r="F461" t="n">
-        <v>1.5690549959266176</v>
+        <v>1.5687472129624236</v>
       </c>
       <c r="G461" t="n">
-        <v>1.6324231959651738</v>
+        <v>1.6012928643243052</v>
       </c>
       <c r="H461" t="n">
-        <v>1.636321250366509</v>
+        <v>1.5974779920322306</v>
       </c>
       <c r="I461" t="n">
-        <v>1.6495483078794815</v>
+        <v>1.6607836211980371</v>
       </c>
       <c r="J461" t="n">
-        <v>1.6186375923014718</v>
+        <v>1.6444914446509804</v>
       </c>
       <c r="K461" t="n">
-        <v>1.490022778747243</v>
+        <v>1.641472183358319</v>
       </c>
       <c r="L461" t="n">
-        <v>1.6496563024148303</v>
+        <v>1.4561159321164123</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.0762267093961004</v>
+        <v>1.0870976862586874</v>
       </c>
       <c r="C466" t="n">
-        <v>1.0560594081096257</v>
+        <v>1.0817752981607125</v>
       </c>
       <c r="D466" t="n">
-        <v>0.9721463169258945</v>
+        <v>0.9825574414913426</v>
       </c>
       <c r="E466" t="n">
-        <v>1.076297169050332</v>
+        <v>1.0837650743617393</v>
       </c>
       <c r="F466" t="n">
-        <v>1.0237098768561748</v>
+        <v>1.0338475432274596</v>
       </c>
       <c r="G466" t="n">
-        <v>1.0650536490161544</v>
+        <v>1.0552960222591319</v>
       </c>
       <c r="H466" t="n">
-        <v>1.0675968847864297</v>
+        <v>1.0527819165355974</v>
       </c>
       <c r="I466" t="n">
-        <v>1.0762267093961004</v>
+        <v>1.0945020666303629</v>
       </c>
       <c r="J466" t="n">
-        <v>1.0560594081096257</v>
+        <v>1.0837650743617393</v>
       </c>
       <c r="K466" t="n">
-        <v>0.9721463169258945</v>
+        <v>1.0817752981607125</v>
       </c>
       <c r="L466" t="n">
-        <v>1.076297169050332</v>
+        <v>0.9596204325552956</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>2.0281964621959188</v>
+        <v>2.069170128098867</v>
       </c>
       <c r="C468" t="n">
-        <v>1.8782113427015061</v>
+        <v>1.926241266899654</v>
       </c>
       <c r="D468" t="n">
-        <v>1.9397954477577999</v>
+        <v>2.0073012535439165</v>
       </c>
       <c r="E468" t="n">
-        <v>1.885213440727816</v>
+        <v>1.9680706099701089</v>
       </c>
       <c r="F468" t="n">
-        <v>2.1382082798364057</v>
+        <v>2.2226769237122346</v>
       </c>
       <c r="G468" t="n">
-        <v>2.1112276281082907</v>
+        <v>2.195751704957984</v>
       </c>
       <c r="H468" t="n">
-        <v>1.9794425475566937</v>
+        <v>2.0151117646144003</v>
       </c>
       <c r="I468" t="n">
-        <v>2.0281964621959188</v>
+        <v>2.106441641689766</v>
       </c>
       <c r="J468" t="n">
-        <v>1.8782113427015061</v>
+        <v>2.229511725584216</v>
       </c>
       <c r="K468" t="n">
-        <v>1.9397954477577999</v>
+        <v>2.011756971582614</v>
       </c>
       <c r="L468" t="n">
-        <v>1.885213440727816</v>
+        <v>2.2226769237122346</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>2.6836664611656076</v>
       </c>
       <c r="C471" t="n">
-        <v>2.72356329182529</v>
+        <v>2.7371614739337566</v>
       </c>
       <c r="D471" t="n">
-        <v>2.768435959971487</v>
+        <v>2.738677907322846</v>
       </c>
       <c r="E471" t="n">
-        <v>3.0470278981891092</v>
+        <v>3.0608753088665575</v>
       </c>
       <c r="F471" t="n">
-        <v>2.9935457007208</v>
+        <v>2.994133024390034</v>
       </c>
       <c r="G471" t="n">
-        <v>3.0044577755536572</v>
+        <v>3.030848326251804</v>
       </c>
       <c r="H471" t="n">
-        <v>2.7989127607444657</v>
+        <v>2.8215260403228175</v>
       </c>
       <c r="I471" t="n">
-        <v>2.6836664611656076</v>
+        <v>3.030848326251804</v>
       </c>
       <c r="J471" t="n">
-        <v>2.72356329182529</v>
+        <v>3.025283734800055</v>
       </c>
       <c r="K471" t="n">
-        <v>2.768435959971487</v>
+        <v>3.0934378117691366</v>
       </c>
       <c r="L471" t="n">
-        <v>3.0470278981891092</v>
+        <v>3.0401682807593446</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>3.954312880169754</v>
+        <v>3.9155451068347564</v>
       </c>
       <c r="C473" t="n">
-        <v>3.661891460003967</v>
+        <v>3.645077060010478</v>
       </c>
       <c r="D473" t="n">
-        <v>3.781960114287176</v>
+        <v>3.798469006740664</v>
       </c>
       <c r="E473" t="n">
-        <v>3.6755432372995798</v>
+        <v>3.724231827111294</v>
       </c>
       <c r="F473" t="n">
-        <v>4.168799570968765</v>
+        <v>4.206030057427995</v>
       </c>
       <c r="G473" t="n">
-        <v>4.116196215903079</v>
+        <v>4.155078757140026</v>
       </c>
       <c r="H473" t="n">
-        <v>3.8592588574406865</v>
+        <v>3.8132490424605927</v>
       </c>
       <c r="I473" t="n">
-        <v>3.954312880169754</v>
+        <v>3.986074973220976</v>
       </c>
       <c r="J473" t="n">
-        <v>3.661891460003967</v>
+        <v>4.218963732944861</v>
       </c>
       <c r="K473" t="n">
-        <v>3.781960114287176</v>
+        <v>3.8069006792875157</v>
       </c>
       <c r="L473" t="n">
-        <v>3.6755432372995798</v>
+        <v>4.206030057427995</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.0276692210807252</v>
+        <v>0.9968391444483033</v>
       </c>
       <c r="C475" t="n">
-        <v>0.9516730866837442</v>
+        <v>0.9279820302941858</v>
       </c>
       <c r="D475" t="n">
-        <v>0.982877208401634</v>
+        <v>0.9670333227124169</v>
       </c>
       <c r="E475" t="n">
-        <v>0.9552209878652884</v>
+        <v>0.9481336485651772</v>
       </c>
       <c r="F475" t="n">
-        <v>1.0834112367343118</v>
+        <v>1.0707922625260442</v>
       </c>
       <c r="G475" t="n">
-        <v>1.06974037897349</v>
+        <v>1.0578208245265353</v>
       </c>
       <c r="H475" t="n">
-        <v>1.0029660434468965</v>
+        <v>0.9707960984588262</v>
       </c>
       <c r="I475" t="n">
-        <v>1.0276692210807252</v>
+        <v>1.0147949921650794</v>
       </c>
       <c r="J475" t="n">
-        <v>0.9516730866837442</v>
+        <v>1.0740849826161025</v>
       </c>
       <c r="K475" t="n">
-        <v>0.982877208401634</v>
+        <v>0.9691799002689366</v>
       </c>
       <c r="L475" t="n">
-        <v>0.9552209878652884</v>
+        <v>1.0707922625260442</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>5.558323726884632</v>
+        <v>5.393225002323702</v>
       </c>
       <c r="C482" t="n">
-        <v>5.704815640422541</v>
+        <v>5.504599489542636</v>
       </c>
       <c r="D482" t="n">
-        <v>4.852242523751181</v>
+        <v>4.6739372917050614</v>
       </c>
       <c r="E482" t="n">
-        <v>5.586125656460236</v>
+        <v>5.383323123207764</v>
       </c>
       <c r="F482" t="n">
-        <v>5.617854977612855</v>
+        <v>5.446656337695902</v>
       </c>
       <c r="G482" t="n">
-        <v>5.126374085704294</v>
+        <v>4.8895775339421625</v>
       </c>
       <c r="H482" t="n">
-        <v>4.866848183661076</v>
+        <v>4.775434300321848</v>
       </c>
       <c r="I482" t="n">
-        <v>5.558323726884632</v>
+        <v>5.23904108793866</v>
       </c>
       <c r="J482" t="n">
-        <v>5.704815640422541</v>
+        <v>4.873324090536494</v>
       </c>
       <c r="K482" t="n">
-        <v>4.852242523751181</v>
+        <v>5.251552229114378</v>
       </c>
       <c r="L482" t="n">
-        <v>5.586125656460236</v>
+        <v>4.8895775339421625</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>2.995830171264428</v>
       </c>
       <c r="C484" t="n">
-        <v>3.074786510619118</v>
+        <v>3.057696503371067</v>
       </c>
       <c r="D484" t="n">
-        <v>2.615265908431274</v>
+        <v>2.596280027452033</v>
       </c>
       <c r="E484" t="n">
-        <v>3.0108148795208236</v>
+        <v>2.990329872612887</v>
       </c>
       <c r="F484" t="n">
-        <v>3.0279163767155595</v>
+        <v>3.025510224763034</v>
       </c>
       <c r="G484" t="n">
-        <v>2.7630175768385548</v>
+        <v>2.716063931063385</v>
       </c>
       <c r="H484" t="n">
-        <v>2.623138079751136</v>
+        <v>2.6526596149115296</v>
       </c>
       <c r="I484" t="n">
-        <v>2.995830171264428</v>
+        <v>2.910184046276254</v>
       </c>
       <c r="J484" t="n">
-        <v>3.074786510619118</v>
+        <v>2.707035463658324</v>
       </c>
       <c r="K484" t="n">
-        <v>2.615265908431274</v>
+        <v>2.9171337385651936</v>
       </c>
       <c r="L484" t="n">
-        <v>3.0108148795208236</v>
+        <v>2.716063931063385</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>5.996522047076213</v>
+        <v>5.937150541659617</v>
       </c>
       <c r="C485" t="n">
-        <v>6.154562858013436</v>
+        <v>6.059757534105519</v>
       </c>
       <c r="D485" t="n">
-        <v>5.2347759326610745</v>
+        <v>5.145320158379002</v>
       </c>
       <c r="E485" t="n">
-        <v>6.0265157811304215</v>
+        <v>5.926250023522266</v>
       </c>
       <c r="F485" t="n">
-        <v>6.060746528236812</v>
+        <v>5.995970613436702</v>
       </c>
       <c r="G485" t="n">
-        <v>5.530519044401821</v>
+        <v>5.3827084706504165</v>
       </c>
       <c r="H485" t="n">
-        <v>5.250533050447892</v>
+        <v>5.257053494078208</v>
       </c>
       <c r="I485" t="n">
-        <v>5.996522047076213</v>
+        <v>5.767416642107504</v>
       </c>
       <c r="J485" t="n">
-        <v>6.154562858013436</v>
+        <v>5.364815810826615</v>
       </c>
       <c r="K485" t="n">
-        <v>5.2347759326610745</v>
+        <v>5.781189575477832</v>
       </c>
       <c r="L485" t="n">
-        <v>6.0265157811304215</v>
+        <v>5.3827084706504165</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>3.886578063290812</v>
+        <v>3.965094791842141</v>
       </c>
       <c r="C486" t="n">
-        <v>3.9890104305982566</v>
+        <v>4.0469772274953195</v>
       </c>
       <c r="D486" t="n">
-        <v>3.3928609194463375</v>
+        <v>3.4362750311273165</v>
       </c>
       <c r="E486" t="n">
-        <v>3.906018163384849</v>
+        <v>3.9578149380820733</v>
       </c>
       <c r="F486" t="n">
-        <v>3.9282044356522245</v>
+        <v>4.004377467701984</v>
       </c>
       <c r="G486" t="n">
-        <v>3.5845434783425203</v>
+        <v>3.5948135680949953</v>
       </c>
       <c r="H486" t="n">
-        <v>3.4030737174399333</v>
+        <v>3.510895552259029</v>
       </c>
       <c r="I486" t="n">
-        <v>3.886578063290812</v>
+        <v>3.851738898911555</v>
       </c>
       <c r="J486" t="n">
-        <v>3.9890104305982566</v>
+        <v>3.582864049250603</v>
       </c>
       <c r="K486" t="n">
-        <v>3.3928609194463375</v>
+        <v>3.860937080091548</v>
       </c>
       <c r="L486" t="n">
-        <v>3.906018163384849</v>
+        <v>3.5948135680949953</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>5.043867959591204</v>
       </c>
       <c r="C491" t="n">
-        <v>5.176801179270225</v>
+        <v>5.148027939446939</v>
       </c>
       <c r="D491" t="n">
-        <v>4.403138751947423</v>
+        <v>4.371173563241353</v>
       </c>
       <c r="E491" t="n">
-        <v>5.069096655991693</v>
+        <v>5.034607494694764</v>
       </c>
       <c r="F491" t="n">
-        <v>5.097889240627811</v>
+        <v>5.093838172294346</v>
       </c>
       <c r="G491" t="n">
-        <v>4.651897814928984</v>
+        <v>4.5728452732385385</v>
       </c>
       <c r="H491" t="n">
-        <v>4.416392571564276</v>
+        <v>4.466095898121872</v>
       </c>
       <c r="I491" t="n">
-        <v>5.043867959591204</v>
+        <v>4.899671619680298</v>
       </c>
       <c r="J491" t="n">
-        <v>5.176801179270225</v>
+        <v>4.5576446794580905</v>
       </c>
       <c r="K491" t="n">
-        <v>4.403138751947423</v>
+        <v>4.911372326416423</v>
       </c>
       <c r="L491" t="n">
-        <v>5.069096655991693</v>
+        <v>4.5728452732385385</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.6226701548816445</v>
+        <v>1.5902167517840116</v>
       </c>
       <c r="C494" t="n">
-        <v>1.8107263085274934</v>
+        <v>1.7507955547008762</v>
       </c>
       <c r="D494" t="n">
-        <v>1.807456627165262</v>
+        <v>1.7713931498763775</v>
       </c>
       <c r="E494" t="n">
-        <v>1.8381247127974396</v>
+        <v>1.790237757631999</v>
       </c>
       <c r="F494" t="n">
-        <v>1.7757701642451877</v>
+        <v>1.7079402606125302</v>
       </c>
       <c r="G494" t="n">
-        <v>1.7223717665797607</v>
+        <v>1.6732270426202225</v>
       </c>
       <c r="H494" t="n">
-        <v>1.612003295605571</v>
+        <v>1.5840531206830564</v>
       </c>
       <c r="I494" t="n">
-        <v>1.6226701548816445</v>
+        <v>1.5902167517840116</v>
       </c>
       <c r="J494" t="n">
-        <v>1.8107263085274934</v>
+        <v>1.7327679810606658</v>
       </c>
       <c r="K494" t="n">
-        <v>1.807456627165262</v>
+        <v>1.7507955547008762</v>
       </c>
       <c r="L494" t="n">
-        <v>1.8381247127974396</v>
+        <v>1.6622893300965162</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>7.749875230007352</v>
+        <v>7.673143792086488</v>
       </c>
       <c r="C496" t="n">
-        <v>8.648031717698915</v>
+        <v>8.447971653357548</v>
       </c>
       <c r="D496" t="n">
-        <v>8.632415714333757</v>
+        <v>8.547359557160913</v>
       </c>
       <c r="E496" t="n">
-        <v>8.778886539890966</v>
+        <v>8.638288913081817</v>
       </c>
       <c r="F496" t="n">
-        <v>8.481081117236455</v>
+        <v>8.241185481961026</v>
       </c>
       <c r="G496" t="n">
-        <v>8.22605028540387</v>
+        <v>8.07368660934369</v>
       </c>
       <c r="H496" t="n">
-        <v>7.698930293208631</v>
+        <v>7.643402923323818</v>
       </c>
       <c r="I496" t="n">
-        <v>7.749875230007352</v>
+        <v>7.673143792086488</v>
       </c>
       <c r="J496" t="n">
-        <v>8.648031717698915</v>
+        <v>8.360984665823569</v>
       </c>
       <c r="K496" t="n">
-        <v>8.632415714333757</v>
+        <v>8.447971653357548</v>
       </c>
       <c r="L496" t="n">
-        <v>8.778886539890966</v>
+        <v>8.020909753071269</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.1801652641257394</v>
+        <v>1.192458652293716</v>
       </c>
       <c r="C508" t="n">
-        <v>1.3169381871811412</v>
+        <v>1.3128721636583545</v>
       </c>
       <c r="D508" t="n">
-        <v>1.314560153446524</v>
+        <v>1.3283177188356061</v>
       </c>
       <c r="E508" t="n">
-        <v>1.3368650003505271</v>
+        <v>1.3424487582313753</v>
       </c>
       <c r="F508" t="n">
-        <v>1.291514642460339</v>
+        <v>1.2807361883739106</v>
       </c>
       <c r="G508" t="n">
-        <v>1.2526780779896585</v>
+        <v>1.2547057261130603</v>
       </c>
       <c r="H508" t="n">
-        <v>1.172407275382884</v>
+        <v>1.1878367193228583</v>
       </c>
       <c r="I508" t="n">
-        <v>1.1801652641257394</v>
+        <v>1.192458652293716</v>
       </c>
       <c r="J508" t="n">
-        <v>1.3169381871811412</v>
+        <v>1.2993537950818608</v>
       </c>
       <c r="K508" t="n">
-        <v>1.314560153446524</v>
+        <v>1.3128721636583545</v>
       </c>
       <c r="L508" t="n">
-        <v>1.3368650003505271</v>
+        <v>1.246503844249747</v>
       </c>
     </row>
     <row r="509">
@@ -19448,34 +19448,34 @@
         <v>5.197281597517008</v>
       </c>
       <c r="C510" t="n">
-        <v>5.173531150613269</v>
+        <v>5.14257337081182</v>
       </c>
       <c r="D510" t="n">
-        <v>5.030563733030126</v>
+        <v>5.107783514778044</v>
       </c>
       <c r="E510" t="n">
-        <v>4.416600979920481</v>
+        <v>4.412994682042807</v>
       </c>
       <c r="F510" t="n">
-        <v>5.09541446630774</v>
+        <v>5.082776004846119</v>
       </c>
       <c r="G510" t="n">
-        <v>4.953207967774166</v>
+        <v>4.9465491334486655</v>
       </c>
       <c r="H510" t="n">
-        <v>4.532957081852957</v>
+        <v>4.601249857069272</v>
       </c>
       <c r="I510" t="n">
-        <v>5.197281597517008</v>
+        <v>4.958361786470928</v>
       </c>
       <c r="J510" t="n">
-        <v>5.173531150613269</v>
+        <v>4.740442917744748</v>
       </c>
       <c r="K510" t="n">
-        <v>5.030563733030126</v>
+        <v>4.616595882237686</v>
       </c>
       <c r="L510" t="n">
-        <v>4.416600979920481</v>
+        <v>5.0921250690619395</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>1.1510905065758983</v>
+        <v>1.1630810326860639</v>
       </c>
       <c r="C517" t="n">
-        <v>1.1871265004149583</v>
+        <v>1.182806210405843</v>
       </c>
       <c r="D517" t="n">
-        <v>1.2032345905591715</v>
+        <v>1.197310271082263</v>
       </c>
       <c r="E517" t="n">
-        <v>1.0652227349671983</v>
+        <v>1.0836920378757942</v>
       </c>
       <c r="F517" t="n">
-        <v>1.0711949604054376</v>
+        <v>1.081291834357296</v>
       </c>
       <c r="G517" t="n">
-        <v>1.0479785142823868</v>
+        <v>1.0376264894087954</v>
       </c>
       <c r="H517" t="n">
-        <v>1.0824092212196472</v>
+        <v>1.0854991957724103</v>
       </c>
       <c r="I517" t="n">
-        <v>1.1510905065758983</v>
+        <v>1.1951120276261826</v>
       </c>
       <c r="J517" t="n">
-        <v>1.1871265004149583</v>
+        <v>1.1421629202882362</v>
       </c>
       <c r="K517" t="n">
-        <v>1.2032345905591715</v>
+        <v>1.197310271082263</v>
       </c>
       <c r="L517" t="n">
-        <v>1.0652227349671983</v>
+        <v>1.0818908881787763</v>
       </c>
     </row>
     <row r="518">
@@ -19752,34 +19752,34 @@
         <v>2.6836664611656076</v>
       </c>
       <c r="C518" t="n">
-        <v>2.72356329182529</v>
+        <v>2.7371614739337566</v>
       </c>
       <c r="D518" t="n">
-        <v>2.768435959971487</v>
+        <v>2.738677907322846</v>
       </c>
       <c r="E518" t="n">
-        <v>3.0470278981891092</v>
+        <v>3.0608753088665575</v>
       </c>
       <c r="F518" t="n">
-        <v>2.9935457007208</v>
+        <v>2.994133024390034</v>
       </c>
       <c r="G518" t="n">
-        <v>3.0044577755536572</v>
+        <v>3.030848326251804</v>
       </c>
       <c r="H518" t="n">
-        <v>2.7989127607444657</v>
+        <v>2.8215260403228175</v>
       </c>
       <c r="I518" t="n">
-        <v>2.6836664611656076</v>
+        <v>3.030848326251804</v>
       </c>
       <c r="J518" t="n">
-        <v>2.72356329182529</v>
+        <v>3.025283734800055</v>
       </c>
       <c r="K518" t="n">
-        <v>2.768435959971487</v>
+        <v>3.0934378117691366</v>
       </c>
       <c r="L518" t="n">
-        <v>3.0470278981891092</v>
+        <v>3.0401682807593446</v>
       </c>
     </row>
     <row r="519">
@@ -19866,34 +19866,34 @@
         <v>2.7907947055382674</v>
       </c>
       <c r="C521" t="n">
-        <v>2.8781632141310602</v>
+        <v>2.8381249602661165</v>
       </c>
       <c r="D521" t="n">
-        <v>2.917216939649592</v>
+        <v>2.872927226494358</v>
       </c>
       <c r="E521" t="n">
-        <v>2.5826101005806836</v>
+        <v>2.600302056988381</v>
       </c>
       <c r="F521" t="n">
-        <v>2.597089635454877</v>
+        <v>2.5945428062711975</v>
       </c>
       <c r="G521" t="n">
-        <v>2.5408018504792547</v>
+        <v>2.489768495562728</v>
       </c>
       <c r="H521" t="n">
-        <v>2.6242783747660186</v>
+        <v>2.604638304032407</v>
       </c>
       <c r="I521" t="n">
-        <v>2.7907947055382674</v>
+        <v>2.8676525757810323</v>
       </c>
       <c r="J521" t="n">
-        <v>2.8781632141310602</v>
+        <v>2.740602022750817</v>
       </c>
       <c r="K521" t="n">
-        <v>2.917216939649592</v>
+        <v>2.872927226494358</v>
       </c>
       <c r="L521" t="n">
-        <v>2.5826101005806836</v>
+        <v>2.595980226525106</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.9841575377360925</v>
+        <v>2.0041995330667604</v>
       </c>
       <c r="C522" t="n">
-        <v>2.046273495080119</v>
+        <v>2.038189591252423</v>
       </c>
       <c r="D522" t="n">
-        <v>2.0740393295610633</v>
+        <v>2.0631827179721665</v>
       </c>
       <c r="E522" t="n">
-        <v>1.8361455566514677</v>
+        <v>1.8673978985650574</v>
       </c>
       <c r="F522" t="n">
-        <v>1.8464400000967451</v>
+        <v>1.86326191264847</v>
       </c>
       <c r="G522" t="n">
-        <v>1.806421351422869</v>
+        <v>1.7880186050047406</v>
       </c>
       <c r="H522" t="n">
-        <v>1.8657702438938566</v>
+        <v>1.8705119593319253</v>
       </c>
       <c r="I522" t="n">
-        <v>1.9841575377360925</v>
+        <v>2.059394745866673</v>
       </c>
       <c r="J522" t="n">
-        <v>2.046273495080119</v>
+        <v>1.9681538321033947</v>
       </c>
       <c r="K522" t="n">
-        <v>2.0740393295610633</v>
+        <v>2.0631827179721665</v>
       </c>
       <c r="L522" t="n">
-        <v>1.8361455566514677</v>
+        <v>1.8642941910156274</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>7.133013376757821</v>
+        <v>7.063760819701921</v>
       </c>
       <c r="C523" t="n">
-        <v>6.563620873791924</v>
+        <v>6.588005239355923</v>
       </c>
       <c r="D523" t="n">
-        <v>7.238720307492599</v>
+        <v>7.222894355858973</v>
       </c>
       <c r="E523" t="n">
-        <v>6.94603625799893</v>
+        <v>7.098514873133947</v>
       </c>
       <c r="F523" t="n">
-        <v>7.16604512135612</v>
+        <v>7.076753631788391</v>
       </c>
       <c r="G523" t="n">
-        <v>6.763320757956602</v>
+        <v>6.7066735515846405</v>
       </c>
       <c r="H523" t="n">
-        <v>6.8919851136072285</v>
+        <v>6.9910267600271085</v>
       </c>
       <c r="I523" t="n">
-        <v>7.133013376757821</v>
+        <v>6.405208198744982</v>
       </c>
       <c r="J523" t="n">
-        <v>6.563620873791924</v>
+        <v>6.415889482884083</v>
       </c>
       <c r="K523" t="n">
-        <v>7.238720307492599</v>
+        <v>6.266115731053108</v>
       </c>
       <c r="L523" t="n">
-        <v>6.94603625799893</v>
+        <v>6.391021693060695</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.0762267093961004</v>
+        <v>1.0870976862586874</v>
       </c>
       <c r="C524" t="n">
-        <v>1.0560594081096257</v>
+        <v>1.0817752981607125</v>
       </c>
       <c r="D524" t="n">
-        <v>0.9721463169258945</v>
+        <v>0.9825574414913426</v>
       </c>
       <c r="E524" t="n">
-        <v>1.076297169050332</v>
+        <v>1.0837650743617393</v>
       </c>
       <c r="F524" t="n">
-        <v>1.0237098768561748</v>
+        <v>1.0338475432274596</v>
       </c>
       <c r="G524" t="n">
-        <v>1.0650536490161544</v>
+        <v>1.0552960222591319</v>
       </c>
       <c r="H524" t="n">
-        <v>1.0675968847864297</v>
+        <v>1.0527819165355974</v>
       </c>
       <c r="I524" t="n">
-        <v>1.0762267093961004</v>
+        <v>1.0945020666303629</v>
       </c>
       <c r="J524" t="n">
-        <v>1.0560594081096257</v>
+        <v>1.0837650743617393</v>
       </c>
       <c r="K524" t="n">
-        <v>0.9721463169258945</v>
+        <v>1.0817752981607125</v>
       </c>
       <c r="L524" t="n">
-        <v>1.076297169050332</v>
+        <v>0.9596204325552956</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.7987310829206098</v>
       </c>
       <c r="C531" t="n">
-        <v>1.655147447313824</v>
+        <v>1.6775836697955164</v>
       </c>
       <c r="D531" t="n">
-        <v>1.825387186302152</v>
+        <v>1.8392531851161424</v>
       </c>
       <c r="E531" t="n">
-        <v>1.7515810864825792</v>
+        <v>1.8075809290240215</v>
       </c>
       <c r="F531" t="n">
-        <v>1.8070606937868468</v>
+        <v>1.8020396002318553</v>
       </c>
       <c r="G531" t="n">
-        <v>1.7055057418984223</v>
+        <v>1.7078016212822327</v>
       </c>
       <c r="H531" t="n">
-        <v>1.7379510162234129</v>
+        <v>1.7802099272270047</v>
       </c>
       <c r="I531" t="n">
-        <v>1.7987310829206098</v>
+        <v>1.6310358424829436</v>
       </c>
       <c r="J531" t="n">
-        <v>1.655147447313824</v>
+        <v>1.6337557474000128</v>
       </c>
       <c r="K531" t="n">
-        <v>1.825387186302152</v>
+        <v>1.5956170405977375</v>
       </c>
       <c r="L531" t="n">
-        <v>1.7515810864825792</v>
+        <v>1.627423360494428</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.5135564817386882</v>
+        <v>1.4984209169213012</v>
       </c>
       <c r="C534" t="n">
-        <v>1.392736897083827</v>
+        <v>1.3974998734250186</v>
       </c>
       <c r="D534" t="n">
-        <v>1.535986470542529</v>
+        <v>1.5321775835536577</v>
       </c>
       <c r="E534" t="n">
-        <v>1.473881744697472</v>
+        <v>1.5057932221195607</v>
       </c>
       <c r="F534" t="n">
-        <v>1.520565498615454</v>
+        <v>1.501177055173561</v>
       </c>
       <c r="G534" t="n">
-        <v>1.4351112819496659</v>
+        <v>1.4226727361192513</v>
       </c>
       <c r="H534" t="n">
-        <v>1.4624126143848861</v>
+        <v>1.4829919918527512</v>
       </c>
       <c r="I534" t="n">
-        <v>1.5135564817386882</v>
+        <v>1.3587235167229659</v>
       </c>
       <c r="J534" t="n">
-        <v>1.392736897083827</v>
+        <v>1.3609893153509385</v>
       </c>
       <c r="K534" t="n">
-        <v>1.535986470542529</v>
+        <v>1.3292181203349127</v>
       </c>
       <c r="L534" t="n">
-        <v>1.473881744697472</v>
+        <v>1.3557141627261446</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>4.156329525200414</v>
+        <v>4.07402597024595</v>
       </c>
       <c r="C537" t="n">
-        <v>4.2181197579407135</v>
+        <v>4.1552357906352615</v>
       </c>
       <c r="D537" t="n">
-        <v>4.287616321015676</v>
+        <v>4.157537860992624</v>
       </c>
       <c r="E537" t="n">
-        <v>4.719085698843572</v>
+        <v>4.64665996332151</v>
       </c>
       <c r="F537" t="n">
-        <v>4.636255123723002</v>
+        <v>4.545339697108995</v>
       </c>
       <c r="G537" t="n">
-        <v>4.653155204066556</v>
+        <v>4.6010765390209</v>
       </c>
       <c r="H537" t="n">
-        <v>4.334817278630717</v>
+        <v>4.283308127272911</v>
       </c>
       <c r="I537" t="n">
-        <v>4.156329525200414</v>
+        <v>4.6010765390209</v>
       </c>
       <c r="J537" t="n">
-        <v>4.2181197579407135</v>
+        <v>4.592629032441268</v>
       </c>
       <c r="K537" t="n">
-        <v>4.287616321015676</v>
+        <v>4.69609251554102</v>
       </c>
       <c r="L537" t="n">
-        <v>4.719085698843572</v>
+        <v>4.615224994969013</v>
       </c>
     </row>
     <row r="538">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>1.2871857964476578</v>
+        <v>1.3005939818273209</v>
       </c>
       <c r="C547" t="n">
-        <v>1.190253023789797</v>
+        <v>1.1813065960889038</v>
       </c>
       <c r="D547" t="n">
-        <v>1.1829367782058369</v>
+        <v>1.2129968985720474</v>
       </c>
       <c r="E547" t="n">
-        <v>1.1697795026935578</v>
+        <v>1.1773798151408585</v>
       </c>
       <c r="F547" t="n">
-        <v>1.2708843123002007</v>
+        <v>1.3069929686972794</v>
       </c>
       <c r="G547" t="n">
-        <v>1.147347159391749</v>
+        <v>1.1793399363697985</v>
       </c>
       <c r="H547" t="n">
-        <v>1.2775525119864446</v>
+        <v>1.3005939818273209</v>
       </c>
       <c r="I547" t="n">
-        <v>1.2871857964476578</v>
+        <v>1.302986244764586</v>
       </c>
       <c r="J547" t="n">
-        <v>1.190253023789797</v>
+        <v>1.3298939715517037</v>
       </c>
       <c r="K547" t="n">
-        <v>1.1829367782058369</v>
+        <v>1.302986244764586</v>
       </c>
       <c r="L547" t="n">
-        <v>1.1697795026935578</v>
+        <v>1.1292085899179047</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>2.4153013519940467</v>
+        <v>2.439454365513987</v>
       </c>
       <c r="C549" t="n">
-        <v>2.654173601260563</v>
+        <v>2.7035035487723134</v>
       </c>
       <c r="D549" t="n">
-        <v>2.6445558039195047</v>
+        <v>2.690267300279926</v>
       </c>
       <c r="E549" t="n">
-        <v>2.650138609662134</v>
+        <v>2.6625661836433054</v>
       </c>
       <c r="F549" t="n">
-        <v>2.619828502331116</v>
+        <v>2.6181636511734956</v>
       </c>
       <c r="G549" t="n">
-        <v>2.3359200480661895</v>
+        <v>2.3864803298553903</v>
       </c>
       <c r="H549" t="n">
-        <v>2.6732132639598793</v>
+        <v>2.7219175044492654</v>
       </c>
       <c r="I549" t="n">
-        <v>2.4153013519940467</v>
+        <v>2.5710757527450663</v>
       </c>
       <c r="J549" t="n">
-        <v>2.654173601260563</v>
+        <v>2.434051366556092</v>
       </c>
       <c r="K549" t="n">
-        <v>2.6445558039195047</v>
+        <v>2.4435223839786375</v>
       </c>
       <c r="L549" t="n">
-        <v>2.650138609662134</v>
+        <v>2.624415981420795</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.6646611385243295</v>
+        <v>2.6913077499095728</v>
       </c>
       <c r="C550" t="n">
-        <v>2.8965042185381464</v>
+        <v>2.9430802944723946</v>
       </c>
       <c r="D550" t="n">
-        <v>3.074883363485208</v>
+        <v>3.105482025083999</v>
       </c>
       <c r="E550" t="n">
-        <v>2.946444074846692</v>
+        <v>2.962445494989716</v>
       </c>
       <c r="F550" t="n">
-        <v>2.7807475839761824</v>
+        <v>2.810788669930906</v>
       </c>
       <c r="G550" t="n">
-        <v>3.2008310341948234</v>
+        <v>3.169612757245613</v>
       </c>
       <c r="H550" t="n">
-        <v>3.1634917527639472</v>
+        <v>3.105482025083999</v>
       </c>
       <c r="I550" t="n">
-        <v>2.6646611385243295</v>
+        <v>3.067862620315479</v>
       </c>
       <c r="J550" t="n">
-        <v>2.8965042185381464</v>
+        <v>2.749750914384154</v>
       </c>
       <c r="K550" t="n">
-        <v>3.074883363485208</v>
+        <v>2.80456322522934</v>
       </c>
       <c r="L550" t="n">
-        <v>2.946444074846692</v>
+        <v>3.099780407295783</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>2.2565426250414116</v>
+        <v>2.234200618852883</v>
       </c>
       <c r="C552" t="n">
-        <v>2.4528767047517457</v>
+        <v>2.4432106716390503</v>
       </c>
       <c r="D552" t="n">
-        <v>2.6039353658970787</v>
+        <v>2.57802916166399</v>
       </c>
       <c r="E552" t="n">
-        <v>2.495167791156482</v>
+        <v>2.459286775526264</v>
       </c>
       <c r="F552" t="n">
-        <v>2.3548493134846256</v>
+        <v>2.3333882147202614</v>
       </c>
       <c r="G552" t="n">
-        <v>2.7105929379883347</v>
+        <v>2.6312675627676096</v>
       </c>
       <c r="H552" t="n">
-        <v>2.6789725270779066</v>
+        <v>2.57802916166399</v>
       </c>
       <c r="I552" t="n">
-        <v>2.2565426250414116</v>
+        <v>2.54679925218317</v>
       </c>
       <c r="J552" t="n">
-        <v>2.4528767047517457</v>
+        <v>2.282717461358619</v>
       </c>
       <c r="K552" t="n">
-        <v>2.6039353658970787</v>
+        <v>2.3282201352223515</v>
       </c>
       <c r="L552" t="n">
-        <v>2.495167791156482</v>
+        <v>2.5732959393146233</v>
       </c>
     </row>
     <row r="553">
@@ -21120,34 +21120,34 @@
         <v>2.520377871425268</v>
       </c>
       <c r="C554" t="n">
-        <v>2.742833264990285</v>
+        <v>2.7799876077463455</v>
       </c>
       <c r="D554" t="n">
-        <v>2.4414211875508087</v>
+        <v>2.461541688096025</v>
       </c>
       <c r="E554" t="n">
-        <v>2.554580333972979</v>
+        <v>2.587990748033025</v>
       </c>
       <c r="F554" t="n">
-        <v>2.628072890065109</v>
+        <v>2.634607665138367</v>
       </c>
       <c r="G554" t="n">
-        <v>2.5563888232531387</v>
+        <v>2.520377871425268</v>
       </c>
       <c r="H554" t="n">
-        <v>2.7952996590932764</v>
+        <v>2.7885361576065635</v>
       </c>
       <c r="I554" t="n">
-        <v>2.520377871425268</v>
+        <v>2.7748835927601636</v>
       </c>
       <c r="J554" t="n">
-        <v>2.742833264990285</v>
+        <v>2.409224118171459</v>
       </c>
       <c r="K554" t="n">
-        <v>2.4414211875508087</v>
+        <v>2.7463111999544014</v>
       </c>
       <c r="L554" t="n">
-        <v>2.554580333972979</v>
+        <v>2.807529282743412</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>2.5777489266381286</v>
+        <v>2.604052487114028</v>
       </c>
       <c r="C557" t="n">
-        <v>2.5051670905853443</v>
+        <v>2.5531589529277188</v>
       </c>
       <c r="D557" t="n">
-        <v>2.6935945515155297</v>
+        <v>2.7506470489845647</v>
       </c>
       <c r="E557" t="n">
-        <v>2.5777409748960496</v>
+        <v>2.614184987526119</v>
       </c>
       <c r="F557" t="n">
-        <v>2.599338115133446</v>
+        <v>2.614184987526119</v>
       </c>
       <c r="G557" t="n">
-        <v>2.641658514437224</v>
+        <v>2.684314379231777</v>
       </c>
       <c r="H557" t="n">
-        <v>2.745817700506899</v>
+        <v>2.732666353054107</v>
       </c>
       <c r="I557" t="n">
-        <v>2.5777489266381286</v>
+        <v>2.9430029993418465</v>
       </c>
       <c r="J557" t="n">
-        <v>2.5051670905853443</v>
+        <v>2.6098328469977594</v>
       </c>
       <c r="K557" t="n">
-        <v>2.6935945515155297</v>
+        <v>2.4988941510377916</v>
       </c>
       <c r="L557" t="n">
-        <v>2.5777409748960496</v>
+        <v>2.878163275661521</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>7.481937436986461</v>
+        <v>7.40999573086159</v>
       </c>
       <c r="C558" t="n">
-        <v>7.271268061549349</v>
+        <v>7.265174966719868</v>
       </c>
       <c r="D558" t="n">
-        <v>7.818180314919388</v>
+        <v>7.827139810331383</v>
       </c>
       <c r="E558" t="n">
-        <v>7.481914356989749</v>
+        <v>7.438828400390368</v>
       </c>
       <c r="F558" t="n">
-        <v>7.544600233959452</v>
+        <v>7.438828400390368</v>
       </c>
       <c r="G558" t="n">
-        <v>7.6674355406206445</v>
+        <v>7.638386011351876</v>
       </c>
       <c r="H558" t="n">
-        <v>7.969758433904557</v>
+        <v>7.775974605043883</v>
       </c>
       <c r="I558" t="n">
-        <v>7.481937436986461</v>
+        <v>8.374500809392101</v>
       </c>
       <c r="J558" t="n">
-        <v>7.271268061549349</v>
+        <v>7.42644410979145</v>
       </c>
       <c r="K558" t="n">
-        <v>7.818180314919388</v>
+        <v>7.110761047518859</v>
       </c>
       <c r="L558" t="n">
-        <v>7.481914356989749</v>
+        <v>8.189995282702839</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>2.7004453251793303</v>
+        <v>2.727722550686192</v>
       </c>
       <c r="C568" t="n">
-        <v>2.404811393916595</v>
+        <v>2.4729935978781</v>
       </c>
       <c r="D568" t="n">
-        <v>2.6693393300236936</v>
+        <v>2.6946792749880473</v>
       </c>
       <c r="E568" t="n">
-        <v>2.3893016468161017</v>
+        <v>2.463408350939125</v>
       </c>
       <c r="F568" t="n">
-        <v>2.429274358241854</v>
+        <v>2.464773120504202</v>
       </c>
       <c r="G568" t="n">
-        <v>2.657516964696343</v>
+        <v>2.7227144935502343</v>
       </c>
       <c r="H568" t="n">
-        <v>2.6238837922857545</v>
+        <v>2.6560689448872825</v>
       </c>
       <c r="I568" t="n">
-        <v>2.7004453251793303</v>
+        <v>2.415263562097982</v>
       </c>
       <c r="J568" t="n">
-        <v>2.404811393916595</v>
+        <v>2.6497412055652405</v>
       </c>
       <c r="K568" t="n">
-        <v>2.6693393300236936</v>
+        <v>2.5850758184618265</v>
       </c>
       <c r="L568" t="n">
-        <v>2.3893016468161017</v>
+        <v>2.4688765152251677</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>2.6638294570912295</v>
+        <v>2.6907368253446764</v>
       </c>
       <c r="C576" t="n">
-        <v>2.463227200698916</v>
+        <v>2.4439488453215077</v>
       </c>
       <c r="D576" t="n">
-        <v>2.4480862392653355</v>
+        <v>2.509511399884387</v>
       </c>
       <c r="E576" t="n">
-        <v>2.4208572734226417</v>
+        <v>2.43582491560201</v>
       </c>
       <c r="F576" t="n">
-        <v>2.6300935552609395</v>
+        <v>2.7039753839236598</v>
       </c>
       <c r="G576" t="n">
-        <v>2.3744335659486673</v>
+        <v>2.4398801168766138</v>
       </c>
       <c r="H576" t="n">
-        <v>2.643893386488882</v>
+        <v>2.6907368253446764</v>
       </c>
       <c r="I576" t="n">
-        <v>2.6638294570912295</v>
+        <v>2.69568606397806</v>
       </c>
       <c r="J576" t="n">
-        <v>2.463227200698916</v>
+        <v>2.751354175905418</v>
       </c>
       <c r="K576" t="n">
-        <v>2.4480862392653355</v>
+        <v>2.69568606397806</v>
       </c>
       <c r="L576" t="n">
-        <v>2.4208572734226417</v>
+        <v>2.3361657664436652</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>6.318190468894133</v>
+        <v>6.256247425081445</v>
       </c>
       <c r="C577" t="n">
-        <v>5.84239301834692</v>
+        <v>5.682439295643434</v>
       </c>
       <c r="D577" t="n">
-        <v>5.806481005299358</v>
+        <v>5.834879162412356</v>
       </c>
       <c r="E577" t="n">
-        <v>5.741898119932135</v>
+        <v>5.663550300662425</v>
       </c>
       <c r="F577" t="n">
-        <v>6.238174140207522</v>
+        <v>6.287028472577959</v>
       </c>
       <c r="G577" t="n">
-        <v>5.631788283391368</v>
+        <v>5.6729790721028195</v>
       </c>
       <c r="H577" t="n">
-        <v>6.2709052003377534</v>
+        <v>6.256247425081445</v>
       </c>
       <c r="I577" t="n">
-        <v>6.318190468894133</v>
+        <v>6.267754927845953</v>
       </c>
       <c r="J577" t="n">
-        <v>5.84239301834692</v>
+        <v>6.397189170029808</v>
       </c>
       <c r="K577" t="n">
-        <v>5.806481005299358</v>
+        <v>6.267754927845953</v>
       </c>
       <c r="L577" t="n">
-        <v>5.741898119932135</v>
+        <v>5.431832248776086</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>4.0581470251891245</v>
+        <v>4.0179673516724</v>
       </c>
       <c r="C578" t="n">
-        <v>4.305616230747186</v>
+        <v>4.241807907019368</v>
       </c>
       <c r="D578" t="n">
-        <v>4.435684140540402</v>
+        <v>4.32980959406315</v>
       </c>
       <c r="E578" t="n">
-        <v>4.155989500721131</v>
+        <v>4.031368021060068</v>
       </c>
       <c r="F578" t="n">
-        <v>4.478440747845052</v>
+        <v>4.438452307031091</v>
       </c>
       <c r="G578" t="n">
-        <v>4.52141231870876</v>
+        <v>4.46028971242622</v>
       </c>
       <c r="H578" t="n">
-        <v>4.503278048235975</v>
+        <v>4.446616226825653</v>
       </c>
       <c r="I578" t="n">
-        <v>4.0581470251891245</v>
+        <v>4.1395154507207845</v>
       </c>
       <c r="J578" t="n">
-        <v>4.305616230747186</v>
+        <v>4.446616226825653</v>
       </c>
       <c r="K578" t="n">
-        <v>4.435684140540402</v>
+        <v>4.490669394046494</v>
       </c>
       <c r="L578" t="n">
-        <v>4.155989500721131</v>
+        <v>4.3194943850102945</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>4.778608282870988</v>
+        <v>4.731295329575236</v>
       </c>
       <c r="C584" t="n">
-        <v>4.255465399933335</v>
+        <v>4.289462305015852</v>
       </c>
       <c r="D584" t="n">
-        <v>4.723564263015559</v>
+        <v>4.6739810341953145</v>
       </c>
       <c r="E584" t="n">
-        <v>4.228019924452461</v>
+        <v>4.272836481372686</v>
       </c>
       <c r="F584" t="n">
-        <v>4.298754157849772</v>
+        <v>4.2752037044861835</v>
       </c>
       <c r="G584" t="n">
-        <v>4.7026438420947425</v>
+        <v>4.722608743275744</v>
       </c>
       <c r="H584" t="n">
-        <v>4.643127822732346</v>
+        <v>4.6070105593450945</v>
       </c>
       <c r="I584" t="n">
-        <v>4.778608282870988</v>
+        <v>4.189328276137448</v>
       </c>
       <c r="J584" t="n">
-        <v>4.255465399933335</v>
+        <v>4.596034954992073</v>
       </c>
       <c r="K584" t="n">
-        <v>4.723564263015559</v>
+        <v>4.483871405253266</v>
       </c>
       <c r="L584" t="n">
-        <v>4.228019924452461</v>
+        <v>4.282321133740059</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>7.378336233796176</v>
+        <v>7.305283399798194</v>
       </c>
       <c r="C585" t="n">
-        <v>7.344618841411197</v>
+        <v>7.228385680695818</v>
       </c>
       <c r="D585" t="n">
-        <v>7.14165472303248</v>
+        <v>7.179485163570416</v>
       </c>
       <c r="E585" t="n">
-        <v>6.270040679715226</v>
+        <v>6.202892067562157</v>
       </c>
       <c r="F585" t="n">
-        <v>7.233720258861646</v>
+        <v>7.144334682737656</v>
       </c>
       <c r="G585" t="n">
-        <v>7.03183638146835</v>
+        <v>6.952854601554119</v>
       </c>
       <c r="H585" t="n">
-        <v>6.435225964907745</v>
+        <v>6.467502976023218</v>
       </c>
       <c r="I585" t="n">
-        <v>7.378336233796176</v>
+        <v>6.969458431154644</v>
       </c>
       <c r="J585" t="n">
-        <v>7.344618841411197</v>
+        <v>6.66315232394492</v>
       </c>
       <c r="K585" t="n">
-        <v>7.14165472303248</v>
+        <v>6.489073302897419</v>
       </c>
       <c r="L585" t="n">
-        <v>6.270040679715226</v>
+        <v>7.157475699312958</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.694709751306558</v>
+        <v>1.7120027079525435</v>
       </c>
       <c r="C596" t="n">
-        <v>1.7135901026167186</v>
+        <v>1.7079240838357233</v>
       </c>
       <c r="D596" t="n">
-        <v>1.601314481252714</v>
+        <v>1.59399918607771</v>
       </c>
       <c r="E596" t="n">
-        <v>1.7599536987190267</v>
+        <v>1.754959936153861</v>
       </c>
       <c r="F596" t="n">
-        <v>1.539390105922857</v>
+        <v>1.5237006033831</v>
       </c>
       <c r="G596" t="n">
-        <v>1.5819054287846481</v>
+        <v>1.5887005737988886</v>
       </c>
       <c r="H596" t="n">
-        <v>1.6736792348625897</v>
+        <v>1.6772069223064667</v>
       </c>
       <c r="I596" t="n">
-        <v>1.694709751306558</v>
+        <v>1.587820894378051</v>
       </c>
       <c r="J596" t="n">
-        <v>1.7135901026167186</v>
+        <v>1.6662431937199202</v>
       </c>
       <c r="K596" t="n">
-        <v>1.601314481252714</v>
+        <v>1.7635944260451442</v>
       </c>
       <c r="L596" t="n">
-        <v>1.7599536987190267</v>
+        <v>1.7944959549379604</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>1.592958299982922</v>
+        <v>1.5610991339832634</v>
       </c>
       <c r="C598" t="n">
-        <v>1.642827389473392</v>
+        <v>1.5875744671635308</v>
       </c>
       <c r="D598" t="n">
-        <v>1.6651188737185585</v>
+        <v>1.6070419642036202</v>
       </c>
       <c r="E598" t="n">
-        <v>1.474128565306366</v>
+        <v>1.454542421627723</v>
       </c>
       <c r="F598" t="n">
-        <v>1.4823933420783608</v>
+        <v>1.4513208441719734</v>
       </c>
       <c r="G598" t="n">
-        <v>1.450264825392187</v>
+        <v>1.3927127762312903</v>
       </c>
       <c r="H598" t="n">
-        <v>1.497912408337805</v>
+        <v>1.4569680072473794</v>
       </c>
       <c r="I598" t="n">
-        <v>1.592958299982922</v>
+        <v>1.6040914595877498</v>
       </c>
       <c r="J598" t="n">
-        <v>1.642827389473392</v>
+        <v>1.533022631804049</v>
       </c>
       <c r="K598" t="n">
-        <v>1.6651188737185585</v>
+        <v>1.6070419642036202</v>
       </c>
       <c r="L598" t="n">
-        <v>1.474128565306366</v>
+        <v>1.4521249002743781</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>2.1310672430813025</v>
+        <v>2.1525931748295983</v>
       </c>
       <c r="C606" t="n">
-        <v>2.187232398919016</v>
+        <v>2.1970459764342647</v>
       </c>
       <c r="D606" t="n">
-        <v>1.8603549569877211</v>
+        <v>1.8655045004373034</v>
       </c>
       <c r="E606" t="n">
-        <v>2.141726532522551</v>
+        <v>2.1486410464845407</v>
       </c>
       <c r="F606" t="n">
-        <v>2.1538915880817475</v>
+        <v>2.1739191769516446</v>
       </c>
       <c r="G606" t="n">
-        <v>1.9654572901151268</v>
+        <v>1.9515728015851672</v>
       </c>
       <c r="H606" t="n">
-        <v>1.8659547825694902</v>
+        <v>1.9060149126526256</v>
       </c>
       <c r="I606" t="n">
-        <v>2.1310672430813025</v>
+        <v>2.0910538840285</v>
       </c>
       <c r="J606" t="n">
-        <v>2.187232398919016</v>
+        <v>1.9450855789442714</v>
       </c>
       <c r="K606" t="n">
-        <v>1.8603549569877211</v>
+        <v>2.096047444855756</v>
       </c>
       <c r="L606" t="n">
-        <v>2.141726532522551</v>
+        <v>1.9515728015851672</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>5.550468947280656</v>
+        <v>5.495513809188769</v>
       </c>
       <c r="C607" t="n">
-        <v>5.69675384486355</v>
+        <v>5.6090006435484066</v>
       </c>
       <c r="D607" t="n">
-        <v>4.8453855471730165</v>
+        <v>4.7625839676224695</v>
       </c>
       <c r="E607" t="n">
-        <v>5.578231588387271</v>
+        <v>5.485424129378431</v>
       </c>
       <c r="F607" t="n">
-        <v>5.609916071053164</v>
+        <v>5.5499585321986205</v>
       </c>
       <c r="G607" t="n">
-        <v>5.119129718411331</v>
+        <v>4.9823140787378435</v>
       </c>
       <c r="H607" t="n">
-        <v>4.859970567004139</v>
+        <v>4.8660059854697835</v>
       </c>
       <c r="I607" t="n">
-        <v>5.550468947280656</v>
+        <v>5.338405616911846</v>
       </c>
       <c r="J607" t="n">
-        <v>5.69675384486355</v>
+        <v>4.9657523698078005</v>
       </c>
       <c r="K607" t="n">
-        <v>4.8453855471730165</v>
+        <v>5.351154046482325</v>
       </c>
       <c r="L607" t="n">
-        <v>5.578231588387271</v>
+        <v>4.9823140787378435</v>
       </c>
     </row>
     <row r="608">
@@ -23172,34 +23172,34 @@
         <v>1.5317582127247633</v>
       </c>
       <c r="C608" t="n">
-        <v>1.4184846996039822</v>
+        <v>1.4259513223177163</v>
       </c>
       <c r="D608" t="n">
-        <v>1.4649949664600586</v>
+        <v>1.4859581330577252</v>
       </c>
       <c r="E608" t="n">
-        <v>1.423772905829572</v>
+        <v>1.456916605892499</v>
       </c>
       <c r="F608" t="n">
-        <v>1.6148426221044878</v>
+        <v>1.6453957003806852</v>
       </c>
       <c r="G608" t="n">
-        <v>1.5944659792892937</v>
+        <v>1.6254635911760507</v>
       </c>
       <c r="H608" t="n">
-        <v>1.4949377120764877</v>
+        <v>1.4917400715824145</v>
       </c>
       <c r="I608" t="n">
-        <v>1.5317582127247633</v>
+        <v>1.5593494418210372</v>
       </c>
       <c r="J608" t="n">
-        <v>1.4184846996039822</v>
+        <v>1.650455344224168</v>
       </c>
       <c r="K608" t="n">
-        <v>1.4649949664600586</v>
+        <v>1.489256596826691</v>
       </c>
       <c r="L608" t="n">
-        <v>1.423772905829572</v>
+        <v>1.6453957003806852</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.2279554622898177</v>
+        <v>3.132075597073288</v>
       </c>
       <c r="C609" t="n">
-        <v>3.6020529870098725</v>
+        <v>3.4483500605757733</v>
       </c>
       <c r="D609" t="n">
-        <v>3.595548654763784</v>
+        <v>3.488918885633871</v>
       </c>
       <c r="E609" t="n">
-        <v>3.656556256485269</v>
+        <v>3.5260350435548493</v>
       </c>
       <c r="F609" t="n">
-        <v>3.532515209084272</v>
+        <v>3.3639426861289103</v>
       </c>
       <c r="G609" t="n">
-        <v>3.426290509687979</v>
+        <v>3.2955718663349303</v>
       </c>
       <c r="H609" t="n">
-        <v>3.2067360255718302</v>
+        <v>3.1199357686259988</v>
       </c>
       <c r="I609" t="n">
-        <v>3.2279554622898177</v>
+        <v>3.132075597073288</v>
       </c>
       <c r="J609" t="n">
-        <v>3.6020529870098725</v>
+        <v>3.4128431251786964</v>
       </c>
       <c r="K609" t="n">
-        <v>3.595548654763784</v>
+        <v>3.4483500605757733</v>
       </c>
       <c r="L609" t="n">
-        <v>3.656556256485269</v>
+        <v>3.274029053102162</v>
       </c>
     </row>
     <row r="610">
@@ -23286,34 +23286,34 @@
         <v>3.2877483188464236</v>
       </c>
       <c r="C611" t="n">
-        <v>3.5779339114528654</v>
+        <v>3.6264005042281</v>
       </c>
       <c r="D611" t="n">
-        <v>3.1847519754754416</v>
+        <v>3.210998492948822</v>
       </c>
       <c r="E611" t="n">
-        <v>3.3323642829907425</v>
+        <v>3.3759470464736494</v>
       </c>
       <c r="F611" t="n">
-        <v>3.4282328551120287</v>
+        <v>3.436757249808842</v>
       </c>
       <c r="G611" t="n">
-        <v>3.334723396541892</v>
+        <v>3.2877483188464236</v>
       </c>
       <c r="H611" t="n">
-        <v>3.64637456115215</v>
+        <v>3.6375518005278145</v>
       </c>
       <c r="I611" t="n">
-        <v>3.2877483188464236</v>
+        <v>3.6197424880312288</v>
       </c>
       <c r="J611" t="n">
-        <v>3.5779339114528654</v>
+        <v>3.14275197939395</v>
       </c>
       <c r="K611" t="n">
-        <v>3.1847519754754416</v>
+        <v>3.5824707608519066</v>
       </c>
       <c r="L611" t="n">
-        <v>3.3323642829907425</v>
+        <v>3.6623276946293615</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>3.2688517818861618</v>
+        <v>3.3348891916212358</v>
       </c>
       <c r="C616" t="n">
-        <v>3.3052692687008056</v>
+        <v>3.3269442512185794</v>
       </c>
       <c r="D616" t="n">
-        <v>3.0887057157530813</v>
+        <v>3.1050246780631587</v>
       </c>
       <c r="E616" t="n">
-        <v>3.3946979886434603</v>
+        <v>3.4185675616174542</v>
       </c>
       <c r="F616" t="n">
-        <v>2.969262486915145</v>
+        <v>2.968086820123132</v>
       </c>
       <c r="G616" t="n">
-        <v>3.051268440316361</v>
+        <v>3.0947032663404133</v>
       </c>
       <c r="H616" t="n">
-        <v>3.2282869352515964</v>
+        <v>3.267108872743208</v>
       </c>
       <c r="I616" t="n">
-        <v>3.2688517818861618</v>
+        <v>3.092989698143929</v>
       </c>
       <c r="J616" t="n">
-        <v>3.3052692687008056</v>
+        <v>3.245752119162561</v>
       </c>
       <c r="K616" t="n">
-        <v>3.0887057157530813</v>
+        <v>3.4353870835024636</v>
       </c>
       <c r="L616" t="n">
-        <v>3.3946979886434603</v>
+        <v>3.495581599685484</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>1.9841575377360925</v>
+        <v>2.0041995330667604</v>
       </c>
       <c r="C617" t="n">
-        <v>2.046273495080119</v>
+        <v>2.038189591252423</v>
       </c>
       <c r="D617" t="n">
-        <v>2.0740393295610633</v>
+        <v>2.0631827179721665</v>
       </c>
       <c r="E617" t="n">
-        <v>1.8361455566514677</v>
+        <v>1.8673978985650574</v>
       </c>
       <c r="F617" t="n">
-        <v>1.8464400000967451</v>
+        <v>1.86326191264847</v>
       </c>
       <c r="G617" t="n">
-        <v>1.806421351422869</v>
+        <v>1.7880186050047406</v>
       </c>
       <c r="H617" t="n">
-        <v>1.8657702438938566</v>
+        <v>1.8705119593319253</v>
       </c>
       <c r="I617" t="n">
-        <v>1.9841575377360925</v>
+        <v>2.059394745866673</v>
       </c>
       <c r="J617" t="n">
-        <v>2.046273495080119</v>
+        <v>1.9681538321033947</v>
       </c>
       <c r="K617" t="n">
-        <v>2.0740393295610633</v>
+        <v>2.0631827179721665</v>
       </c>
       <c r="L617" t="n">
-        <v>1.8361455566514677</v>
+        <v>1.8642941910156274</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.0025019928740218</v>
+        <v>1.9628484880646353</v>
       </c>
       <c r="C618" t="n">
-        <v>2.124616242118571</v>
+        <v>2.072198579087019</v>
       </c>
       <c r="D618" t="n">
-        <v>2.188798551668515</v>
+        <v>2.1151889678190545</v>
       </c>
       <c r="E618" t="n">
-        <v>2.0507825876933876</v>
+        <v>1.9693949533154513</v>
       </c>
       <c r="F618" t="n">
-        <v>2.2098968979838762</v>
+        <v>2.16826286469868</v>
       </c>
       <c r="G618" t="n">
-        <v>2.231101318562377</v>
+        <v>2.1789308254886657</v>
       </c>
       <c r="H618" t="n">
-        <v>2.222152921046056</v>
+        <v>2.1722510846673586</v>
       </c>
       <c r="I618" t="n">
-        <v>2.0025019928740218</v>
+        <v>2.022226895493692</v>
       </c>
       <c r="J618" t="n">
-        <v>2.124616242118571</v>
+        <v>2.1722510846673586</v>
       </c>
       <c r="K618" t="n">
-        <v>2.188798551668515</v>
+        <v>2.193771840090594</v>
       </c>
       <c r="L618" t="n">
-        <v>2.0507825876933876</v>
+        <v>2.110149804799216</v>
       </c>
     </row>
     <row r="619">
@@ -23701,37 +23701,37 @@
         <v>621.0</v>
       </c>
       <c r="B622" t="n">
-        <v>0.746210546072744</v>
+        <v>0.7539835725943351</v>
       </c>
       <c r="C622" t="n">
-        <v>0.6866443195530577</v>
+        <v>0.7032015739810096</v>
       </c>
       <c r="D622" t="n">
-        <v>0.7572689336490652</v>
+        <v>0.770969435390908</v>
       </c>
       <c r="E622" t="n">
-        <v>0.7266501877048758</v>
+        <v>0.7576932091516385</v>
       </c>
       <c r="F622" t="n">
-        <v>0.7496661173541251</v>
+        <v>0.7553704212044523</v>
       </c>
       <c r="G622" t="n">
-        <v>0.7075356528146421</v>
+        <v>0.7158681917065689</v>
       </c>
       <c r="H622" t="n">
-        <v>0.7209957003456048</v>
+        <v>0.7462199623075957</v>
       </c>
       <c r="I622" t="n">
-        <v>0.746210546072744</v>
+        <v>0.6836898762809557</v>
       </c>
       <c r="J622" t="n">
-        <v>0.6866443195530577</v>
+        <v>0.6848299931366442</v>
       </c>
       <c r="K622" t="n">
-        <v>0.7572689336490652</v>
+        <v>0.6688431907280171</v>
       </c>
       <c r="L622" t="n">
-        <v>0.7266501877048758</v>
+        <v>0.6821756131976651</v>
       </c>
     </row>
     <row r="623">
